--- a/Code/Results/Cases/Case_3_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9865399130873692</v>
+        <v>0.9865399130873701</v>
       </c>
       <c r="D2">
-        <v>1.008167275749727</v>
+        <v>1.008167275749728</v>
       </c>
       <c r="E2">
-        <v>0.9945643043625663</v>
+        <v>0.9945643043625672</v>
       </c>
       <c r="F2">
         <v>1.004511155604224</v>
@@ -436,19 +436,19 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040933040395235</v>
+        <v>1.040933040395236</v>
       </c>
       <c r="J2">
-        <v>1.009130803995552</v>
+        <v>1.009130803995553</v>
       </c>
       <c r="K2">
         <v>1.019513988127192</v>
       </c>
       <c r="L2">
-        <v>1.006099890130697</v>
+        <v>1.006099890130698</v>
       </c>
       <c r="M2">
-        <v>1.015907998606571</v>
+        <v>1.015907998606572</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9930321353743978</v>
+        <v>0.9930321353743987</v>
       </c>
       <c r="D3">
-        <v>1.013049350547099</v>
+        <v>1.0130493505471</v>
       </c>
       <c r="E3">
-        <v>0.9998931081308301</v>
+        <v>0.9998931081308307</v>
       </c>
       <c r="F3">
-        <v>1.011371300471133</v>
+        <v>1.011371300471134</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,10 +477,10 @@
         <v>1.043117193574777</v>
       </c>
       <c r="J3">
-        <v>1.013714570714107</v>
+        <v>1.013714570714108</v>
       </c>
       <c r="K3">
-        <v>1.02351794140977</v>
+        <v>1.023517941409771</v>
       </c>
       <c r="L3">
         <v>1.010527356841071</v>
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9971164268223032</v>
+        <v>0.9971164268223033</v>
       </c>
       <c r="D4">
         <v>1.016121907657766</v>
@@ -515,7 +515,7 @@
         <v>1.044475785443356</v>
       </c>
       <c r="J4">
-        <v>1.016594183429495</v>
+        <v>1.016594183429496</v>
       </c>
       <c r="K4">
         <v>1.026029572780194</v>
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9988069599109715</v>
+        <v>0.9988069599109719</v>
       </c>
       <c r="D5">
         <v>1.017393870503867</v>
@@ -544,7 +544,7 @@
         <v>1.004643784660844</v>
       </c>
       <c r="F5">
-        <v>1.017475417488881</v>
+        <v>1.017475417488882</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9990892928286033</v>
+        <v>0.9990892928286034</v>
       </c>
       <c r="D6">
         <v>1.017606307725706</v>
@@ -611,7 +611,7 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9971391181562366</v>
+        <v>0.9971391181562369</v>
       </c>
       <c r="D7">
         <v>1.016138980033459</v>
@@ -629,16 +629,16 @@
         <v>1.044483297814055</v>
       </c>
       <c r="J7">
-        <v>1.016610172179318</v>
+        <v>1.016610172179319</v>
       </c>
       <c r="K7">
         <v>1.026043509705401</v>
       </c>
       <c r="L7">
-        <v>1.013326810034258</v>
+        <v>1.013326810034259</v>
       </c>
       <c r="M7">
-        <v>1.025621744727681</v>
+        <v>1.025621744727682</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -655,7 +655,7 @@
         <v>1.00983570229302</v>
       </c>
       <c r="E8">
-        <v>0.9963843169506975</v>
+        <v>0.9963843169506976</v>
       </c>
       <c r="F8">
         <v>1.006855767022919</v>
@@ -667,7 +667,7 @@
         <v>1.041682828964223</v>
       </c>
       <c r="J8">
-        <v>1.010698402356562</v>
+        <v>1.010698402356563</v>
       </c>
       <c r="K8">
         <v>1.020884070817334</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9730294116155455</v>
+        <v>0.9730294116155441</v>
       </c>
       <c r="D9">
-        <v>0.9980189662999318</v>
+        <v>0.998018966299931</v>
       </c>
       <c r="E9">
-        <v>0.983515411660197</v>
+        <v>0.9835154116601962</v>
       </c>
       <c r="F9">
-        <v>0.9902416902080503</v>
+        <v>0.9902416902080495</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.036304129434602</v>
       </c>
       <c r="J9">
-        <v>0.9995718874385442</v>
+        <v>0.9995718874385431</v>
       </c>
       <c r="K9">
         <v>1.011144266371116</v>
       </c>
       <c r="L9">
-        <v>0.9968817244179528</v>
+        <v>0.996881724417952</v>
       </c>
       <c r="M9">
-        <v>1.00349509846727</v>
+        <v>1.003495098467269</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9617871816125371</v>
+        <v>0.9617871816125372</v>
       </c>
       <c r="D10">
-        <v>0.9895907186362392</v>
+        <v>0.9895907186362395</v>
       </c>
       <c r="E10">
-        <v>0.9743631102059889</v>
+        <v>0.9743631102059892</v>
       </c>
       <c r="F10">
-        <v>0.9783736535698301</v>
+        <v>0.9783736535698302</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032381055365801</v>
+        <v>1.032381055365802</v>
       </c>
       <c r="J10">
-        <v>0.9916034609244746</v>
+        <v>0.9916034609244748</v>
       </c>
       <c r="K10">
         <v>1.004150494140502</v>
       </c>
       <c r="L10">
-        <v>0.9892112057705336</v>
+        <v>0.9892112057705338</v>
       </c>
       <c r="M10">
-        <v>0.9931446740782013</v>
+        <v>0.9931446740782014</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,7 +763,7 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9567119054039013</v>
+        <v>0.9567119054039009</v>
       </c>
       <c r="D11">
         <v>0.9857917930893544</v>
@@ -772,16 +772,16 @@
         <v>0.9702437555571141</v>
       </c>
       <c r="F11">
-        <v>0.9730172635425359</v>
+        <v>0.9730172635425361</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030592331898125</v>
+        <v>1.030592331898126</v>
       </c>
       <c r="J11">
-        <v>0.9880033865513176</v>
+        <v>0.9880033865513175</v>
       </c>
       <c r="K11">
         <v>1.000986723417719</v>
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9547928502843351</v>
+        <v>0.9547928502843361</v>
       </c>
       <c r="D12">
-        <v>0.9843564239369087</v>
+        <v>0.9843564239369094</v>
       </c>
       <c r="E12">
-        <v>0.9686881770140673</v>
+        <v>0.968688177014068</v>
       </c>
       <c r="F12">
-        <v>0.970992113619351</v>
+        <v>0.9709921136193519</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029913427621234</v>
+        <v>1.029913427621235</v>
       </c>
       <c r="J12">
-        <v>0.9866418209670632</v>
+        <v>0.9866418209670641</v>
       </c>
       <c r="K12">
-        <v>0.9997895949923172</v>
+        <v>0.9997895949923178</v>
       </c>
       <c r="L12">
-        <v>0.9844408956565166</v>
+        <v>0.9844408956565174</v>
       </c>
       <c r="M12">
-        <v>0.986696990325404</v>
+        <v>0.9866969903254048</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9552060742100391</v>
+        <v>0.9552060742100403</v>
       </c>
       <c r="D13">
-        <v>0.9846654458512076</v>
+        <v>0.9846654458512087</v>
       </c>
       <c r="E13">
-        <v>0.9690230405979368</v>
+        <v>0.9690230405979381</v>
       </c>
       <c r="F13">
-        <v>0.9714281738080562</v>
+        <v>0.9714281738080576</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030059727548302</v>
+        <v>1.030059727548303</v>
       </c>
       <c r="J13">
-        <v>0.9869350147996204</v>
+        <v>0.9869350147996214</v>
       </c>
       <c r="K13">
-        <v>1.00004740503811</v>
+        <v>1.000047405038111</v>
       </c>
       <c r="L13">
-        <v>0.9847226641506976</v>
+        <v>0.9847226641506989</v>
       </c>
       <c r="M13">
-        <v>0.9870780756558104</v>
+        <v>0.9870780756558116</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9565539835964749</v>
+        <v>0.9565539835964756</v>
       </c>
       <c r="D14">
-        <v>0.9856736516388183</v>
+        <v>0.9856736516388187</v>
       </c>
       <c r="E14">
-        <v>0.9701157027197284</v>
+        <v>0.9701157027197288</v>
       </c>
       <c r="F14">
-        <v>0.9728506070714099</v>
+        <v>0.9728506070714102</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.030536515122245</v>
       </c>
       <c r="J14">
-        <v>0.9878913470581736</v>
+        <v>0.9878913470581743</v>
       </c>
       <c r="K14">
         <v>1.000888226479895</v>
       </c>
       <c r="L14">
-        <v>0.9856418324315669</v>
+        <v>0.9856418324315673</v>
       </c>
       <c r="M14">
-        <v>0.9883210178996595</v>
+        <v>0.9883210178996599</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9573798997117557</v>
+        <v>0.9573798997117567</v>
       </c>
       <c r="D15">
-        <v>0.9862915650131532</v>
+        <v>0.986291565013154</v>
       </c>
       <c r="E15">
-        <v>0.9707854902602051</v>
+        <v>0.9707854902602062</v>
       </c>
       <c r="F15">
-        <v>0.9737222126861068</v>
+        <v>0.9737222126861074</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.030828328301074</v>
       </c>
       <c r="J15">
-        <v>0.9884772909779819</v>
+        <v>0.9884772909779828</v>
       </c>
       <c r="K15">
-        <v>1.001403322387819</v>
+        <v>1.00140332238782</v>
       </c>
       <c r="L15">
-        <v>0.9862050842749829</v>
+        <v>0.9862050842749838</v>
       </c>
       <c r="M15">
-        <v>0.9890825143807996</v>
+        <v>0.9890825143808001</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,31 +953,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9621194177622808</v>
+        <v>0.9621194177622812</v>
       </c>
       <c r="D16">
-        <v>0.9898395410552487</v>
+        <v>0.989839541055249</v>
       </c>
       <c r="E16">
         <v>0.9746330404956205</v>
       </c>
       <c r="F16">
-        <v>0.9787243200996468</v>
+        <v>0.9787243200996466</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032497790432902</v>
+        <v>1.032497790432901</v>
       </c>
       <c r="J16">
-        <v>0.9918390792555896</v>
+        <v>0.9918390792555897</v>
       </c>
       <c r="K16">
         <v>1.004357476171565</v>
       </c>
       <c r="L16">
-        <v>0.9894378466108369</v>
+        <v>0.9894378466108371</v>
       </c>
       <c r="M16">
         <v>0.9934507975757405</v>
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9650350628587401</v>
+        <v>0.9650350628587423</v>
       </c>
       <c r="D17">
-        <v>0.9920238578573164</v>
+        <v>0.9920238578573181</v>
       </c>
       <c r="E17">
-        <v>0.977003322158514</v>
+        <v>0.9770033221585157</v>
       </c>
       <c r="F17">
-        <v>0.9818018646016471</v>
+        <v>0.9818018646016488</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033520252063077</v>
+        <v>1.033520252063078</v>
       </c>
       <c r="J17">
-        <v>0.9939065243710311</v>
+        <v>0.9939065243710332</v>
       </c>
       <c r="K17">
-        <v>1.006173198156245</v>
+        <v>1.006173198156247</v>
       </c>
       <c r="L17">
-        <v>0.9914269500174366</v>
+        <v>0.9914269500174386</v>
       </c>
       <c r="M17">
-        <v>0.9961366784760146</v>
+        <v>0.9961366784760163</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9667159065379617</v>
+        <v>0.9667159065379619</v>
       </c>
       <c r="D18">
         <v>0.9932836482627908</v>
       </c>
       <c r="E18">
-        <v>0.9783709270914986</v>
+        <v>0.9783709270914988</v>
       </c>
       <c r="F18">
-        <v>0.9835761749561743</v>
+        <v>0.9835761749561744</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.034108023518386</v>
       </c>
       <c r="J18">
-        <v>0.9950981225712655</v>
+        <v>0.9950981225712658</v>
       </c>
       <c r="K18">
         <v>1.007219330605123</v>
       </c>
       <c r="L18">
-        <v>0.9925737514701677</v>
+        <v>0.9925737514701679</v>
       </c>
       <c r="M18">
-        <v>0.9976845579089683</v>
+        <v>0.9976845579089682</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9672857494858681</v>
+        <v>0.9672857494858668</v>
       </c>
       <c r="D19">
-        <v>0.9937108334485321</v>
+        <v>0.9937108334485311</v>
       </c>
       <c r="E19">
-        <v>0.9788347673069282</v>
+        <v>0.9788347673069273</v>
       </c>
       <c r="F19">
-        <v>0.9841777280367412</v>
+        <v>0.9841777280367403</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.034307005126708</v>
       </c>
       <c r="J19">
-        <v>0.9955020526299232</v>
+        <v>0.9955020526299222</v>
       </c>
       <c r="K19">
-        <v>1.007573884740781</v>
+        <v>1.00757388474078</v>
       </c>
       <c r="L19">
-        <v>0.9929625561932199</v>
+        <v>0.9929625561932192</v>
       </c>
       <c r="M19">
-        <v>0.9982092363141517</v>
+        <v>0.9982092363141509</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9647243086932864</v>
+        <v>0.9647243086932881</v>
       </c>
       <c r="D20">
-        <v>0.9917909914024498</v>
+        <v>0.9917909914024512</v>
       </c>
       <c r="E20">
-        <v>0.9767505722754621</v>
+        <v>0.9767505722754635</v>
       </c>
       <c r="F20">
-        <v>0.9814738411801941</v>
+        <v>0.9814738411801951</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033411449156403</v>
+        <v>1.033411449156404</v>
       </c>
       <c r="J20">
-        <v>0.9936861996453346</v>
+        <v>0.9936861996453362</v>
       </c>
       <c r="K20">
-        <v>1.005979738682116</v>
+        <v>1.005979738682117</v>
       </c>
       <c r="L20">
-        <v>0.9912149368873819</v>
+        <v>0.9912149368873836</v>
       </c>
       <c r="M20">
-        <v>0.9958504654813696</v>
+        <v>0.9958504654813708</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9561580164200939</v>
+        <v>0.9561580164200935</v>
       </c>
       <c r="D21">
-        <v>0.9853774461308562</v>
+        <v>0.9853774461308556</v>
       </c>
       <c r="E21">
-        <v>0.969794661005861</v>
+        <v>0.9697946610058606</v>
       </c>
       <c r="F21">
-        <v>0.972432742093003</v>
+        <v>0.9724327420930031</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,13 +1161,13 @@
         <v>1.030396521500055</v>
       </c>
       <c r="J21">
-        <v>0.9876104188183239</v>
+        <v>0.9876104188183233</v>
       </c>
       <c r="K21">
-        <v>1.000641245757219</v>
+        <v>1.000641245757218</v>
       </c>
       <c r="L21">
-        <v>0.9853718049416806</v>
+        <v>0.9853718049416804</v>
       </c>
       <c r="M21">
         <v>0.9879559075938321</v>
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9505744793654662</v>
+        <v>0.950574479365467</v>
       </c>
       <c r="D22">
-        <v>0.9812034570128296</v>
+        <v>0.9812034570128304</v>
       </c>
       <c r="E22">
-        <v>0.965272705170533</v>
+        <v>0.9652727051705338</v>
       </c>
       <c r="F22">
-        <v>0.9665408827194971</v>
+        <v>0.9665408827194979</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.028416498941353</v>
       </c>
       <c r="J22">
-        <v>0.983648442530869</v>
+        <v>0.9836484425308699</v>
       </c>
       <c r="K22">
-        <v>0.9971567054649373</v>
+        <v>0.9971567054649381</v>
       </c>
       <c r="L22">
-        <v>0.9815650014153726</v>
+        <v>0.9815650014153734</v>
       </c>
       <c r="M22">
-        <v>0.9828056452794274</v>
+        <v>0.9828056452794282</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.953554143519907</v>
+        <v>0.9535541435199065</v>
       </c>
       <c r="D23">
-        <v>0.9834302517405842</v>
+        <v>0.9834302517405836</v>
       </c>
       <c r="E23">
-        <v>0.9676846781433016</v>
+        <v>0.9676846781433015</v>
       </c>
       <c r="F23">
-        <v>0.9696849795741108</v>
+        <v>0.9696849795741107</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.029474503011157</v>
       </c>
       <c r="J23">
-        <v>0.9857628868898738</v>
+        <v>0.9857628868898735</v>
       </c>
       <c r="K23">
-        <v>0.9990166524186073</v>
+        <v>0.9990166524186068</v>
       </c>
       <c r="L23">
-        <v>0.983596300514917</v>
+        <v>0.9835963005149168</v>
       </c>
       <c r="M23">
-        <v>0.9855545114807839</v>
+        <v>0.9855545114807838</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.964864786119016</v>
+        <v>0.9648647861190177</v>
       </c>
       <c r="D24">
-        <v>0.9918962577383416</v>
+        <v>0.9918962577383428</v>
       </c>
       <c r="E24">
-        <v>0.9768648250917165</v>
+        <v>0.9768648250917181</v>
       </c>
       <c r="F24">
-        <v>0.9816221248148148</v>
+        <v>0.9816221248148163</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033460639051665</v>
+        <v>1.033460639051666</v>
       </c>
       <c r="J24">
-        <v>0.9937857989828589</v>
+        <v>0.9937857989828605</v>
       </c>
       <c r="K24">
-        <v>1.006067194582816</v>
+        <v>1.006067194582817</v>
       </c>
       <c r="L24">
-        <v>0.9913107778040007</v>
+        <v>0.9913107778040023</v>
       </c>
       <c r="M24">
-        <v>0.9959798505684466</v>
+        <v>0.995979850568448</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9772204705537546</v>
+        <v>0.9772204705537542</v>
       </c>
       <c r="D25">
         <v>1.001165060691661</v>
       </c>
       <c r="E25">
-        <v>0.9869370242319504</v>
+        <v>0.9869370242319501</v>
       </c>
       <c r="F25">
-        <v>0.9946673035771999</v>
+        <v>0.9946673035771995</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1319,10 +1319,10 @@
         <v>1.013745317476378</v>
       </c>
       <c r="L25">
-        <v>0.9997415683889771</v>
+        <v>0.9997415683889767</v>
       </c>
       <c r="M25">
-        <v>1.007348970729038</v>
+        <v>1.007348970729037</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9865399130873701</v>
+        <v>0.9865399130873692</v>
       </c>
       <c r="D2">
-        <v>1.008167275749728</v>
+        <v>1.008167275749727</v>
       </c>
       <c r="E2">
-        <v>0.9945643043625672</v>
+        <v>0.9945643043625663</v>
       </c>
       <c r="F2">
         <v>1.004511155604224</v>
@@ -436,19 +436,19 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040933040395236</v>
+        <v>1.040933040395235</v>
       </c>
       <c r="J2">
-        <v>1.009130803995553</v>
+        <v>1.009130803995552</v>
       </c>
       <c r="K2">
         <v>1.019513988127192</v>
       </c>
       <c r="L2">
-        <v>1.006099890130698</v>
+        <v>1.006099890130697</v>
       </c>
       <c r="M2">
-        <v>1.015907998606572</v>
+        <v>1.015907998606571</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9930321353743987</v>
+        <v>0.9930321353743978</v>
       </c>
       <c r="D3">
-        <v>1.0130493505471</v>
+        <v>1.013049350547099</v>
       </c>
       <c r="E3">
-        <v>0.9998931081308307</v>
+        <v>0.9998931081308301</v>
       </c>
       <c r="F3">
-        <v>1.011371300471134</v>
+        <v>1.011371300471133</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,10 +477,10 @@
         <v>1.043117193574777</v>
       </c>
       <c r="J3">
-        <v>1.013714570714108</v>
+        <v>1.013714570714107</v>
       </c>
       <c r="K3">
-        <v>1.023517941409771</v>
+        <v>1.02351794140977</v>
       </c>
       <c r="L3">
         <v>1.010527356841071</v>
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9971164268223033</v>
+        <v>0.9971164268223032</v>
       </c>
       <c r="D4">
         <v>1.016121907657766</v>
@@ -515,7 +515,7 @@
         <v>1.044475785443356</v>
       </c>
       <c r="J4">
-        <v>1.016594183429496</v>
+        <v>1.016594183429495</v>
       </c>
       <c r="K4">
         <v>1.026029572780194</v>
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9988069599109719</v>
+        <v>0.9988069599109715</v>
       </c>
       <c r="D5">
         <v>1.017393870503867</v>
@@ -544,7 +544,7 @@
         <v>1.004643784660844</v>
       </c>
       <c r="F5">
-        <v>1.017475417488882</v>
+        <v>1.017475417488881</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -573,7 +573,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9990892928286034</v>
+        <v>0.9990892928286033</v>
       </c>
       <c r="D6">
         <v>1.017606307725706</v>
@@ -611,7 +611,7 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9971391181562369</v>
+        <v>0.9971391181562366</v>
       </c>
       <c r="D7">
         <v>1.016138980033459</v>
@@ -629,16 +629,16 @@
         <v>1.044483297814055</v>
       </c>
       <c r="J7">
-        <v>1.016610172179319</v>
+        <v>1.016610172179318</v>
       </c>
       <c r="K7">
         <v>1.026043509705401</v>
       </c>
       <c r="L7">
-        <v>1.013326810034259</v>
+        <v>1.013326810034258</v>
       </c>
       <c r="M7">
-        <v>1.025621744727682</v>
+        <v>1.025621744727681</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -655,7 +655,7 @@
         <v>1.00983570229302</v>
       </c>
       <c r="E8">
-        <v>0.9963843169506976</v>
+        <v>0.9963843169506975</v>
       </c>
       <c r="F8">
         <v>1.006855767022919</v>
@@ -667,7 +667,7 @@
         <v>1.041682828964223</v>
       </c>
       <c r="J8">
-        <v>1.010698402356563</v>
+        <v>1.010698402356562</v>
       </c>
       <c r="K8">
         <v>1.020884070817334</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9730294116155441</v>
+        <v>0.9730294116155455</v>
       </c>
       <c r="D9">
-        <v>0.998018966299931</v>
+        <v>0.9980189662999318</v>
       </c>
       <c r="E9">
-        <v>0.9835154116601962</v>
+        <v>0.983515411660197</v>
       </c>
       <c r="F9">
-        <v>0.9902416902080495</v>
+        <v>0.9902416902080503</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.036304129434602</v>
       </c>
       <c r="J9">
-        <v>0.9995718874385431</v>
+        <v>0.9995718874385442</v>
       </c>
       <c r="K9">
         <v>1.011144266371116</v>
       </c>
       <c r="L9">
-        <v>0.996881724417952</v>
+        <v>0.9968817244179528</v>
       </c>
       <c r="M9">
-        <v>1.003495098467269</v>
+        <v>1.00349509846727</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9617871816125372</v>
+        <v>0.9617871816125371</v>
       </c>
       <c r="D10">
-        <v>0.9895907186362395</v>
+        <v>0.9895907186362392</v>
       </c>
       <c r="E10">
-        <v>0.9743631102059892</v>
+        <v>0.9743631102059889</v>
       </c>
       <c r="F10">
-        <v>0.9783736535698302</v>
+        <v>0.9783736535698301</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032381055365802</v>
+        <v>1.032381055365801</v>
       </c>
       <c r="J10">
-        <v>0.9916034609244748</v>
+        <v>0.9916034609244746</v>
       </c>
       <c r="K10">
         <v>1.004150494140502</v>
       </c>
       <c r="L10">
-        <v>0.9892112057705338</v>
+        <v>0.9892112057705336</v>
       </c>
       <c r="M10">
-        <v>0.9931446740782014</v>
+        <v>0.9931446740782013</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,7 +763,7 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9567119054039009</v>
+        <v>0.9567119054039013</v>
       </c>
       <c r="D11">
         <v>0.9857917930893544</v>
@@ -772,16 +772,16 @@
         <v>0.9702437555571141</v>
       </c>
       <c r="F11">
-        <v>0.9730172635425361</v>
+        <v>0.9730172635425359</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030592331898126</v>
+        <v>1.030592331898125</v>
       </c>
       <c r="J11">
-        <v>0.9880033865513175</v>
+        <v>0.9880033865513176</v>
       </c>
       <c r="K11">
         <v>1.000986723417719</v>
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9547928502843361</v>
+        <v>0.9547928502843351</v>
       </c>
       <c r="D12">
-        <v>0.9843564239369094</v>
+        <v>0.9843564239369087</v>
       </c>
       <c r="E12">
-        <v>0.968688177014068</v>
+        <v>0.9686881770140673</v>
       </c>
       <c r="F12">
-        <v>0.9709921136193519</v>
+        <v>0.970992113619351</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029913427621235</v>
+        <v>1.029913427621234</v>
       </c>
       <c r="J12">
-        <v>0.9866418209670641</v>
+        <v>0.9866418209670632</v>
       </c>
       <c r="K12">
-        <v>0.9997895949923178</v>
+        <v>0.9997895949923172</v>
       </c>
       <c r="L12">
-        <v>0.9844408956565174</v>
+        <v>0.9844408956565166</v>
       </c>
       <c r="M12">
-        <v>0.9866969903254048</v>
+        <v>0.986696990325404</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9552060742100403</v>
+        <v>0.9552060742100391</v>
       </c>
       <c r="D13">
-        <v>0.9846654458512087</v>
+        <v>0.9846654458512076</v>
       </c>
       <c r="E13">
-        <v>0.9690230405979381</v>
+        <v>0.9690230405979368</v>
       </c>
       <c r="F13">
-        <v>0.9714281738080576</v>
+        <v>0.9714281738080562</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030059727548303</v>
+        <v>1.030059727548302</v>
       </c>
       <c r="J13">
-        <v>0.9869350147996214</v>
+        <v>0.9869350147996204</v>
       </c>
       <c r="K13">
-        <v>1.000047405038111</v>
+        <v>1.00004740503811</v>
       </c>
       <c r="L13">
-        <v>0.9847226641506989</v>
+        <v>0.9847226641506976</v>
       </c>
       <c r="M13">
-        <v>0.9870780756558116</v>
+        <v>0.9870780756558104</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9565539835964756</v>
+        <v>0.9565539835964749</v>
       </c>
       <c r="D14">
-        <v>0.9856736516388187</v>
+        <v>0.9856736516388183</v>
       </c>
       <c r="E14">
-        <v>0.9701157027197288</v>
+        <v>0.9701157027197284</v>
       </c>
       <c r="F14">
-        <v>0.9728506070714102</v>
+        <v>0.9728506070714099</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.030536515122245</v>
       </c>
       <c r="J14">
-        <v>0.9878913470581743</v>
+        <v>0.9878913470581736</v>
       </c>
       <c r="K14">
         <v>1.000888226479895</v>
       </c>
       <c r="L14">
-        <v>0.9856418324315673</v>
+        <v>0.9856418324315669</v>
       </c>
       <c r="M14">
-        <v>0.9883210178996599</v>
+        <v>0.9883210178996595</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9573798997117567</v>
+        <v>0.9573798997117557</v>
       </c>
       <c r="D15">
-        <v>0.986291565013154</v>
+        <v>0.9862915650131532</v>
       </c>
       <c r="E15">
-        <v>0.9707854902602062</v>
+        <v>0.9707854902602051</v>
       </c>
       <c r="F15">
-        <v>0.9737222126861074</v>
+        <v>0.9737222126861068</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.030828328301074</v>
       </c>
       <c r="J15">
-        <v>0.9884772909779828</v>
+        <v>0.9884772909779819</v>
       </c>
       <c r="K15">
-        <v>1.00140332238782</v>
+        <v>1.001403322387819</v>
       </c>
       <c r="L15">
-        <v>0.9862050842749838</v>
+        <v>0.9862050842749829</v>
       </c>
       <c r="M15">
-        <v>0.9890825143808001</v>
+        <v>0.9890825143807996</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,31 +953,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9621194177622812</v>
+        <v>0.9621194177622808</v>
       </c>
       <c r="D16">
-        <v>0.989839541055249</v>
+        <v>0.9898395410552487</v>
       </c>
       <c r="E16">
         <v>0.9746330404956205</v>
       </c>
       <c r="F16">
-        <v>0.9787243200996466</v>
+        <v>0.9787243200996468</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032497790432901</v>
+        <v>1.032497790432902</v>
       </c>
       <c r="J16">
-        <v>0.9918390792555897</v>
+        <v>0.9918390792555896</v>
       </c>
       <c r="K16">
         <v>1.004357476171565</v>
       </c>
       <c r="L16">
-        <v>0.9894378466108371</v>
+        <v>0.9894378466108369</v>
       </c>
       <c r="M16">
         <v>0.9934507975757405</v>
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9650350628587423</v>
+        <v>0.9650350628587401</v>
       </c>
       <c r="D17">
-        <v>0.9920238578573181</v>
+        <v>0.9920238578573164</v>
       </c>
       <c r="E17">
-        <v>0.9770033221585157</v>
+        <v>0.977003322158514</v>
       </c>
       <c r="F17">
-        <v>0.9818018646016488</v>
+        <v>0.9818018646016471</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033520252063078</v>
+        <v>1.033520252063077</v>
       </c>
       <c r="J17">
-        <v>0.9939065243710332</v>
+        <v>0.9939065243710311</v>
       </c>
       <c r="K17">
-        <v>1.006173198156247</v>
+        <v>1.006173198156245</v>
       </c>
       <c r="L17">
-        <v>0.9914269500174386</v>
+        <v>0.9914269500174366</v>
       </c>
       <c r="M17">
-        <v>0.9961366784760163</v>
+        <v>0.9961366784760146</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9667159065379619</v>
+        <v>0.9667159065379617</v>
       </c>
       <c r="D18">
         <v>0.9932836482627908</v>
       </c>
       <c r="E18">
-        <v>0.9783709270914988</v>
+        <v>0.9783709270914986</v>
       </c>
       <c r="F18">
-        <v>0.9835761749561744</v>
+        <v>0.9835761749561743</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.034108023518386</v>
       </c>
       <c r="J18">
-        <v>0.9950981225712658</v>
+        <v>0.9950981225712655</v>
       </c>
       <c r="K18">
         <v>1.007219330605123</v>
       </c>
       <c r="L18">
-        <v>0.9925737514701679</v>
+        <v>0.9925737514701677</v>
       </c>
       <c r="M18">
-        <v>0.9976845579089682</v>
+        <v>0.9976845579089683</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9672857494858668</v>
+        <v>0.9672857494858681</v>
       </c>
       <c r="D19">
-        <v>0.9937108334485311</v>
+        <v>0.9937108334485321</v>
       </c>
       <c r="E19">
-        <v>0.9788347673069273</v>
+        <v>0.9788347673069282</v>
       </c>
       <c r="F19">
-        <v>0.9841777280367403</v>
+        <v>0.9841777280367412</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.034307005126708</v>
       </c>
       <c r="J19">
-        <v>0.9955020526299222</v>
+        <v>0.9955020526299232</v>
       </c>
       <c r="K19">
-        <v>1.00757388474078</v>
+        <v>1.007573884740781</v>
       </c>
       <c r="L19">
-        <v>0.9929625561932192</v>
+        <v>0.9929625561932199</v>
       </c>
       <c r="M19">
-        <v>0.9982092363141509</v>
+        <v>0.9982092363141517</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9647243086932881</v>
+        <v>0.9647243086932864</v>
       </c>
       <c r="D20">
-        <v>0.9917909914024512</v>
+        <v>0.9917909914024498</v>
       </c>
       <c r="E20">
-        <v>0.9767505722754635</v>
+        <v>0.9767505722754621</v>
       </c>
       <c r="F20">
-        <v>0.9814738411801951</v>
+        <v>0.9814738411801941</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033411449156404</v>
+        <v>1.033411449156403</v>
       </c>
       <c r="J20">
-        <v>0.9936861996453362</v>
+        <v>0.9936861996453346</v>
       </c>
       <c r="K20">
-        <v>1.005979738682117</v>
+        <v>1.005979738682116</v>
       </c>
       <c r="L20">
-        <v>0.9912149368873836</v>
+        <v>0.9912149368873819</v>
       </c>
       <c r="M20">
-        <v>0.9958504654813708</v>
+        <v>0.9958504654813696</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9561580164200935</v>
+        <v>0.9561580164200939</v>
       </c>
       <c r="D21">
-        <v>0.9853774461308556</v>
+        <v>0.9853774461308562</v>
       </c>
       <c r="E21">
-        <v>0.9697946610058606</v>
+        <v>0.969794661005861</v>
       </c>
       <c r="F21">
-        <v>0.9724327420930031</v>
+        <v>0.972432742093003</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,13 +1161,13 @@
         <v>1.030396521500055</v>
       </c>
       <c r="J21">
-        <v>0.9876104188183233</v>
+        <v>0.9876104188183239</v>
       </c>
       <c r="K21">
-        <v>1.000641245757218</v>
+        <v>1.000641245757219</v>
       </c>
       <c r="L21">
-        <v>0.9853718049416804</v>
+        <v>0.9853718049416806</v>
       </c>
       <c r="M21">
         <v>0.9879559075938321</v>
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.950574479365467</v>
+        <v>0.9505744793654662</v>
       </c>
       <c r="D22">
-        <v>0.9812034570128304</v>
+        <v>0.9812034570128296</v>
       </c>
       <c r="E22">
-        <v>0.9652727051705338</v>
+        <v>0.965272705170533</v>
       </c>
       <c r="F22">
-        <v>0.9665408827194979</v>
+        <v>0.9665408827194971</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.028416498941353</v>
       </c>
       <c r="J22">
-        <v>0.9836484425308699</v>
+        <v>0.983648442530869</v>
       </c>
       <c r="K22">
-        <v>0.9971567054649381</v>
+        <v>0.9971567054649373</v>
       </c>
       <c r="L22">
-        <v>0.9815650014153734</v>
+        <v>0.9815650014153726</v>
       </c>
       <c r="M22">
-        <v>0.9828056452794282</v>
+        <v>0.9828056452794274</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9535541435199065</v>
+        <v>0.953554143519907</v>
       </c>
       <c r="D23">
-        <v>0.9834302517405836</v>
+        <v>0.9834302517405842</v>
       </c>
       <c r="E23">
-        <v>0.9676846781433015</v>
+        <v>0.9676846781433016</v>
       </c>
       <c r="F23">
-        <v>0.9696849795741107</v>
+        <v>0.9696849795741108</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.029474503011157</v>
       </c>
       <c r="J23">
-        <v>0.9857628868898735</v>
+        <v>0.9857628868898738</v>
       </c>
       <c r="K23">
-        <v>0.9990166524186068</v>
+        <v>0.9990166524186073</v>
       </c>
       <c r="L23">
-        <v>0.9835963005149168</v>
+        <v>0.983596300514917</v>
       </c>
       <c r="M23">
-        <v>0.9855545114807838</v>
+        <v>0.9855545114807839</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9648647861190177</v>
+        <v>0.964864786119016</v>
       </c>
       <c r="D24">
-        <v>0.9918962577383428</v>
+        <v>0.9918962577383416</v>
       </c>
       <c r="E24">
-        <v>0.9768648250917181</v>
+        <v>0.9768648250917165</v>
       </c>
       <c r="F24">
-        <v>0.9816221248148163</v>
+        <v>0.9816221248148148</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033460639051666</v>
+        <v>1.033460639051665</v>
       </c>
       <c r="J24">
-        <v>0.9937857989828605</v>
+        <v>0.9937857989828589</v>
       </c>
       <c r="K24">
-        <v>1.006067194582817</v>
+        <v>1.006067194582816</v>
       </c>
       <c r="L24">
-        <v>0.9913107778040023</v>
+        <v>0.9913107778040007</v>
       </c>
       <c r="M24">
-        <v>0.995979850568448</v>
+        <v>0.9959798505684466</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9772204705537542</v>
+        <v>0.9772204705537546</v>
       </c>
       <c r="D25">
         <v>1.001165060691661</v>
       </c>
       <c r="E25">
-        <v>0.9869370242319501</v>
+        <v>0.9869370242319504</v>
       </c>
       <c r="F25">
-        <v>0.9946673035771995</v>
+        <v>0.9946673035771999</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1319,10 +1319,10 @@
         <v>1.013745317476378</v>
       </c>
       <c r="L25">
-        <v>0.9997415683889767</v>
+        <v>0.9997415683889771</v>
       </c>
       <c r="M25">
-        <v>1.007348970729037</v>
+        <v>1.007348970729038</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9865399130873692</v>
+        <v>0.986548693651228</v>
       </c>
       <c r="D2">
-        <v>1.008167275749727</v>
+        <v>1.008174170386459</v>
       </c>
       <c r="E2">
-        <v>0.9945643043625663</v>
+        <v>0.9945725243050746</v>
       </c>
       <c r="F2">
-        <v>1.004511155604224</v>
+        <v>1.004517153492029</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040933040395235</v>
+        <v>1.040936672263563</v>
       </c>
       <c r="J2">
-        <v>1.009130803995552</v>
+        <v>1.009139311942417</v>
       </c>
       <c r="K2">
-        <v>1.019513988127192</v>
+        <v>1.019520788661063</v>
       </c>
       <c r="L2">
-        <v>1.006099890130697</v>
+        <v>1.006107993970065</v>
       </c>
       <c r="M2">
-        <v>1.015907998606571</v>
+        <v>1.015913913878164</v>
+      </c>
+      <c r="N2">
+        <v>1.008129940341187</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9930321353743978</v>
+        <v>0.9930376595266452</v>
       </c>
       <c r="D3">
-        <v>1.013049350547099</v>
+        <v>1.013053769182642</v>
       </c>
       <c r="E3">
-        <v>0.9998931081308301</v>
+        <v>0.9998984489055422</v>
       </c>
       <c r="F3">
-        <v>1.011371300471133</v>
+        <v>1.011375126353167</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043117193574777</v>
+        <v>1.043119522954177</v>
       </c>
       <c r="J3">
-        <v>1.013714570714107</v>
+        <v>1.01371994137526</v>
       </c>
       <c r="K3">
-        <v>1.02351794140977</v>
+        <v>1.023522305307864</v>
       </c>
       <c r="L3">
-        <v>1.010527356841071</v>
+        <v>1.010532629261769</v>
       </c>
       <c r="M3">
-        <v>1.021860721865086</v>
+        <v>1.021864500156466</v>
+      </c>
+      <c r="N3">
+        <v>1.011288810267335</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9971164268223032</v>
+        <v>0.997119933366867</v>
       </c>
       <c r="D4">
-        <v>1.016121907657766</v>
+        <v>1.016124789428849</v>
       </c>
       <c r="E4">
-        <v>1.003252012538168</v>
+        <v>1.003255566187151</v>
       </c>
       <c r="F4">
-        <v>1.015688277460293</v>
+        <v>1.015690765505827</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044475785443356</v>
+        <v>1.044477305407193</v>
       </c>
       <c r="J4">
-        <v>1.016594183429495</v>
+        <v>1.016597599573142</v>
       </c>
       <c r="K4">
-        <v>1.026029572780194</v>
+        <v>1.026032421122109</v>
       </c>
       <c r="L4">
-        <v>1.013311346453273</v>
+        <v>1.013314857557245</v>
       </c>
       <c r="M4">
-        <v>1.025600975459124</v>
+        <v>1.025603434612307</v>
+      </c>
+      <c r="N4">
+        <v>1.013271958755728</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9988069599109715</v>
+        <v>0.9988096379728023</v>
       </c>
       <c r="D5">
-        <v>1.017393870503867</v>
+        <v>1.017396120610581</v>
       </c>
       <c r="E5">
-        <v>1.004643784660844</v>
+        <v>1.004646603813696</v>
       </c>
       <c r="F5">
-        <v>1.017475417488881</v>
+        <v>1.017477357910606</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045034348513332</v>
+        <v>1.045035535570282</v>
       </c>
       <c r="J5">
-        <v>1.017785056417322</v>
+        <v>1.017787667630396</v>
       </c>
       <c r="K5">
-        <v>1.027067349810289</v>
+        <v>1.027069574546005</v>
       </c>
       <c r="L5">
-        <v>1.014463282426927</v>
+        <v>1.014466068787468</v>
       </c>
       <c r="M5">
-        <v>1.027147977403464</v>
+        <v>1.027149895950344</v>
+      </c>
+      <c r="N5">
+        <v>1.014091768189288</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9990892928286033</v>
+        <v>0.9990918328944673</v>
       </c>
       <c r="D6">
-        <v>1.017606307725706</v>
+        <v>1.017608452587078</v>
       </c>
       <c r="E6">
-        <v>1.004876307093342</v>
+        <v>1.004879003869944</v>
       </c>
       <c r="F6">
-        <v>1.017773902010566</v>
+        <v>1.0177757513145</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045127409510285</v>
+        <v>1.045128541086074</v>
       </c>
       <c r="J6">
-        <v>1.017983879811553</v>
+        <v>1.017986356819123</v>
       </c>
       <c r="K6">
-        <v>1.027240558434658</v>
+        <v>1.027242679227896</v>
       </c>
       <c r="L6">
-        <v>1.014655640613778</v>
+        <v>1.014658306174504</v>
       </c>
       <c r="M6">
-        <v>1.027406272470129</v>
+        <v>1.027408101030876</v>
+      </c>
+      <c r="N6">
+        <v>1.014228620662442</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9971391181562366</v>
+        <v>0.997142613555218</v>
       </c>
       <c r="D7">
-        <v>1.016138980033459</v>
+        <v>1.016141853308989</v>
       </c>
       <c r="E7">
-        <v>1.003270687955055</v>
+        <v>1.003274231725301</v>
       </c>
       <c r="F7">
-        <v>1.015712264336659</v>
+        <v>1.015714745008366</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044483297814055</v>
+        <v>1.044484813301384</v>
       </c>
       <c r="J7">
-        <v>1.016610172179318</v>
+        <v>1.016613577503295</v>
       </c>
       <c r="K7">
-        <v>1.026043509705401</v>
+        <v>1.026046349662851</v>
       </c>
       <c r="L7">
-        <v>1.013326810034258</v>
+        <v>1.013330311393971</v>
       </c>
       <c r="M7">
-        <v>1.025621744727681</v>
+        <v>1.025624196603989</v>
+      </c>
+      <c r="N7">
+        <v>1.013282966892195</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9887590210650509</v>
+        <v>0.9887666814891816</v>
       </c>
       <c r="D8">
-        <v>1.00983570229302</v>
+        <v>1.009841745880717</v>
       </c>
       <c r="E8">
-        <v>0.9963843169506975</v>
+        <v>0.9963915472910679</v>
       </c>
       <c r="F8">
-        <v>1.006855767022919</v>
+        <v>1.006861015994964</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041682828964223</v>
+        <v>1.041686013344622</v>
       </c>
       <c r="J8">
-        <v>1.010698402356562</v>
+        <v>1.010705833563228</v>
       </c>
       <c r="K8">
-        <v>1.020884070817334</v>
+        <v>1.020890034529827</v>
       </c>
       <c r="L8">
-        <v>1.00761348873925</v>
+        <v>1.007620620243918</v>
       </c>
       <c r="M8">
-        <v>1.017943666550637</v>
+        <v>1.017948845632999</v>
+      </c>
+      <c r="N8">
+        <v>1.009210509496356</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9730294116155455</v>
+        <v>0.9730451844063204</v>
       </c>
       <c r="D9">
-        <v>0.9980189662999318</v>
+        <v>0.9980311571211972</v>
       </c>
       <c r="E9">
-        <v>0.983515411660197</v>
+        <v>0.9835297885001778</v>
       </c>
       <c r="F9">
-        <v>0.9902416902080503</v>
+        <v>0.9902524061429452</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036304129434602</v>
+        <v>1.036310541902982</v>
       </c>
       <c r="J9">
-        <v>0.9995718874385442</v>
+        <v>0.9995870587893061</v>
       </c>
       <c r="K9">
-        <v>1.011144266371116</v>
+        <v>1.011156258397702</v>
       </c>
       <c r="L9">
-        <v>0.9968817244179528</v>
+        <v>0.9968958578090094</v>
       </c>
       <c r="M9">
-        <v>1.00349509846727</v>
+        <v>1.003505636105076</v>
+      </c>
+      <c r="N9">
+        <v>1.001535686733195</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9617871816125371</v>
+        <v>0.9618090250852206</v>
       </c>
       <c r="D10">
-        <v>0.9895907186362392</v>
+        <v>0.9896074831770244</v>
       </c>
       <c r="E10">
-        <v>0.9743631102059889</v>
+        <v>0.9743828004340316</v>
       </c>
       <c r="F10">
-        <v>0.9783736535698301</v>
+        <v>0.9783885269655553</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032381055365801</v>
+        <v>1.032389864300074</v>
       </c>
       <c r="J10">
-        <v>0.9916034609244746</v>
+        <v>0.9916243361124886</v>
       </c>
       <c r="K10">
-        <v>1.004150494140502</v>
+        <v>1.004166947637493</v>
       </c>
       <c r="L10">
-        <v>0.9892112057705336</v>
+        <v>0.9892305155589707</v>
       </c>
       <c r="M10">
-        <v>0.9931446740782013</v>
+        <v>0.9931592631743245</v>
+      </c>
+      <c r="N10">
+        <v>0.9960332827386612</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9567119054039013</v>
+        <v>0.9567365738785928</v>
       </c>
       <c r="D11">
-        <v>0.9857917930893544</v>
+        <v>0.9858106777761618</v>
       </c>
       <c r="E11">
-        <v>0.9702437555571141</v>
+        <v>0.970265907230096</v>
       </c>
       <c r="F11">
-        <v>0.9730172635425359</v>
+        <v>0.9730340912586976</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030592331898125</v>
+        <v>1.03060225048235</v>
       </c>
       <c r="J11">
-        <v>0.9880033865513176</v>
+        <v>0.9880268902762964</v>
       </c>
       <c r="K11">
-        <v>1.000986723417719</v>
+        <v>1.001005238376955</v>
       </c>
       <c r="L11">
-        <v>0.9857495283146844</v>
+        <v>0.9857712277786985</v>
       </c>
       <c r="M11">
-        <v>0.9884666282124177</v>
+        <v>0.9884831149764115</v>
+      </c>
+      <c r="N11">
+        <v>0.9935461412225817</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9547928502843351</v>
+        <v>0.9548186016153125</v>
       </c>
       <c r="D12">
-        <v>0.9843564239369087</v>
+        <v>0.9843761198695945</v>
       </c>
       <c r="E12">
-        <v>0.9686881770140673</v>
+        <v>0.9687112702263377</v>
       </c>
       <c r="F12">
-        <v>0.970992113619351</v>
+        <v>0.9710096937710984</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029913427621234</v>
+        <v>1.029923770617696</v>
       </c>
       <c r="J12">
-        <v>0.9866418209670632</v>
+        <v>0.9866663279231528</v>
       </c>
       <c r="K12">
-        <v>0.9997895949923172</v>
+        <v>0.9998088976526696</v>
       </c>
       <c r="L12">
-        <v>0.9844408956565166</v>
+        <v>0.9844635078392291</v>
       </c>
       <c r="M12">
-        <v>0.986696990325404</v>
+        <v>0.9867142065725349</v>
+      </c>
+      <c r="N12">
+        <v>0.9926053325651907</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9552060742100391</v>
+        <v>0.9552315916756285</v>
       </c>
       <c r="D13">
-        <v>0.9846654458512076</v>
+        <v>0.9846849666462314</v>
       </c>
       <c r="E13">
-        <v>0.9690230405979368</v>
+        <v>0.9690459305584657</v>
       </c>
       <c r="F13">
-        <v>0.9714281738080562</v>
+        <v>0.9714455912996319</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030059727548302</v>
+        <v>1.030069978927622</v>
       </c>
       <c r="J13">
-        <v>0.9869350147996204</v>
+        <v>0.9869593052891731</v>
       </c>
       <c r="K13">
-        <v>1.00004740503811</v>
+        <v>1.000066537694457</v>
       </c>
       <c r="L13">
-        <v>0.9847226641506976</v>
+        <v>0.9847450793668571</v>
       </c>
       <c r="M13">
-        <v>0.9870780756558104</v>
+        <v>0.9870951342579017</v>
+      </c>
+      <c r="N13">
+        <v>0.992807929228525</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9565539835964749</v>
+        <v>0.9565787408708404</v>
       </c>
       <c r="D14">
-        <v>0.9856736516388183</v>
+        <v>0.98569260288196</v>
       </c>
       <c r="E14">
-        <v>0.9701157027197284</v>
+        <v>0.9701379316450435</v>
       </c>
       <c r="F14">
-        <v>0.9728506070714099</v>
+        <v>0.9728674964217311</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030536515122245</v>
+        <v>1.030546468529772</v>
       </c>
       <c r="J14">
-        <v>0.9878913470581736</v>
+        <v>0.9879149331430721</v>
       </c>
       <c r="K14">
-        <v>1.000888226479895</v>
+        <v>1.000906806086372</v>
       </c>
       <c r="L14">
-        <v>0.9856418324315669</v>
+        <v>0.9856636068115685</v>
       </c>
       <c r="M14">
-        <v>0.9883210178996595</v>
+        <v>0.9883375644414111</v>
+      </c>
+      <c r="N14">
+        <v>0.9934687277783908</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9573798997117557</v>
+        <v>0.9574041931813421</v>
       </c>
       <c r="D15">
-        <v>0.9862915650131532</v>
+        <v>0.9863101685704536</v>
       </c>
       <c r="E15">
-        <v>0.9707854902602051</v>
+        <v>0.9708073156119589</v>
       </c>
       <c r="F15">
-        <v>0.9737222126861068</v>
+        <v>0.9737387802549774</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030828328301074</v>
+        <v>1.030838099786713</v>
       </c>
       <c r="J15">
-        <v>0.9884772909779819</v>
+        <v>0.9885004467159083</v>
       </c>
       <c r="K15">
-        <v>1.001403322387819</v>
+        <v>1.001421564236765</v>
       </c>
       <c r="L15">
-        <v>0.9862050842749829</v>
+        <v>0.9862264672306416</v>
       </c>
       <c r="M15">
-        <v>0.9890825143807996</v>
+        <v>0.9890987487863179</v>
+      </c>
+      <c r="N15">
+        <v>0.9938735780883997</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,75 +995,81 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9621194177622808</v>
+        <v>0.96214107821457</v>
       </c>
       <c r="D16">
-        <v>0.9898395410552487</v>
+        <v>0.9898561680563742</v>
       </c>
       <c r="E16">
-        <v>0.9746330404956205</v>
+        <v>0.9746525710056176</v>
       </c>
       <c r="F16">
-        <v>0.9787243200996468</v>
+        <v>0.9787390673144299</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032497790432902</v>
+        <v>1.032506527356266</v>
       </c>
       <c r="J16">
-        <v>0.9918390792555896</v>
+        <v>0.9918597835883799</v>
       </c>
       <c r="K16">
-        <v>1.004357476171565</v>
+        <v>1.004373795792198</v>
       </c>
       <c r="L16">
-        <v>0.9894378466108369</v>
+        <v>0.9894570011582019</v>
       </c>
       <c r="M16">
-        <v>0.9934507975757405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9934652640004441</v>
+      </c>
+      <c r="N16">
+        <v>0.9961960384985789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9650350628587401</v>
+        <v>0.9650551268998497</v>
       </c>
       <c r="D17">
-        <v>0.9920238578573164</v>
+        <v>0.9920392842206406</v>
       </c>
       <c r="E17">
-        <v>0.977003322158514</v>
+        <v>0.9770214582446329</v>
       </c>
       <c r="F17">
-        <v>0.9818018646016471</v>
+        <v>0.9818155134144635</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033520252063077</v>
+        <v>1.0335283602382</v>
       </c>
       <c r="J17">
-        <v>0.9939065243710311</v>
+        <v>0.9939257354934512</v>
       </c>
       <c r="K17">
-        <v>1.006173198156245</v>
+        <v>1.006188348366531</v>
       </c>
       <c r="L17">
-        <v>0.9914269500174366</v>
+        <v>0.9914447482883136</v>
       </c>
       <c r="M17">
-        <v>0.9961366784760146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9961500762824121</v>
+      </c>
+      <c r="N17">
+        <v>0.9976240142923766</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9667159065379617</v>
+        <v>0.9667350580606778</v>
       </c>
       <c r="D18">
-        <v>0.9932836482627908</v>
+        <v>0.9932983875863033</v>
       </c>
       <c r="E18">
-        <v>0.9783709270914986</v>
+        <v>0.9783882651063902</v>
       </c>
       <c r="F18">
-        <v>0.9835761749561743</v>
+        <v>0.9835891977041014</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034108023518386</v>
+        <v>1.034115771791225</v>
       </c>
       <c r="J18">
-        <v>0.9950981225712655</v>
+        <v>0.9951164778173468</v>
       </c>
       <c r="K18">
-        <v>1.007219330605123</v>
+        <v>1.007233811035183</v>
       </c>
       <c r="L18">
-        <v>0.9925737514701677</v>
+        <v>0.9925907727412657</v>
       </c>
       <c r="M18">
-        <v>0.9976845579089683</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9976973460079389</v>
+      </c>
+      <c r="N18">
+        <v>0.9984469322367147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9672857494858681</v>
+        <v>0.9673045929135305</v>
       </c>
       <c r="D19">
-        <v>0.9937108334485321</v>
+        <v>0.9937253406840234</v>
       </c>
       <c r="E19">
-        <v>0.9788347673069282</v>
+        <v>0.9788518357041825</v>
       </c>
       <c r="F19">
-        <v>0.9841777280367412</v>
+        <v>0.9841905396986507</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034307005126708</v>
+        <v>1.034314631801933</v>
       </c>
       <c r="J19">
-        <v>0.9955020526299232</v>
+        <v>0.9955201185190962</v>
       </c>
       <c r="K19">
-        <v>1.007573884740781</v>
+        <v>1.007588138812382</v>
       </c>
       <c r="L19">
-        <v>0.9929625561932199</v>
+        <v>0.9929793148395502</v>
       </c>
       <c r="M19">
-        <v>0.9982092363141517</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9982218187404486</v>
+      </c>
+      <c r="N19">
+        <v>0.9987258665018734</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9647243086932864</v>
+        <v>0.9647445420590667</v>
       </c>
       <c r="D20">
-        <v>0.9917909914024498</v>
+        <v>0.9918065451916395</v>
       </c>
       <c r="E20">
-        <v>0.9767505722754621</v>
+        <v>0.9767688563694715</v>
       </c>
       <c r="F20">
-        <v>0.9814738411801941</v>
+        <v>0.9814876063070507</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033411449156403</v>
+        <v>1.033419624073597</v>
       </c>
       <c r="J20">
-        <v>0.9936861996453346</v>
+        <v>0.9937055693941037</v>
       </c>
       <c r="K20">
-        <v>1.005979738682116</v>
+        <v>1.005995013068181</v>
       </c>
       <c r="L20">
-        <v>0.9912149368873819</v>
+        <v>0.991232879197225</v>
       </c>
       <c r="M20">
-        <v>0.9958504654813696</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9958639765132122</v>
+      </c>
+      <c r="N20">
+        <v>0.9974718486239561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9561580164200939</v>
+        <v>0.9561829965906899</v>
       </c>
       <c r="D21">
-        <v>0.9853774461308562</v>
+        <v>0.9853965644135483</v>
       </c>
       <c r="E21">
-        <v>0.969794661005861</v>
+        <v>0.9698170838099371</v>
       </c>
       <c r="F21">
-        <v>0.972432742093003</v>
+        <v>0.9724497862059183</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030396521500055</v>
+        <v>1.030406562302377</v>
       </c>
       <c r="J21">
-        <v>0.9876104188183239</v>
+        <v>0.9876342115642112</v>
       </c>
       <c r="K21">
-        <v>1.000641245757219</v>
+        <v>1.000659987594108</v>
       </c>
       <c r="L21">
-        <v>0.9853718049416806</v>
+        <v>0.9853937673146056</v>
       </c>
       <c r="M21">
-        <v>0.9879559075938321</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9879726042181053</v>
+      </c>
+      <c r="N21">
+        <v>0.9932746185253756</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9505744793654662</v>
+        <v>0.9506026405182491</v>
       </c>
       <c r="D22">
-        <v>0.9812034570128296</v>
+        <v>0.981224955424653</v>
       </c>
       <c r="E22">
-        <v>0.965272705170533</v>
+        <v>0.9652978897231086</v>
       </c>
       <c r="F22">
-        <v>0.9665408827194971</v>
+        <v>0.9665601439820385</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028416498941353</v>
+        <v>1.028427784595482</v>
       </c>
       <c r="J22">
-        <v>0.983648442530869</v>
+        <v>0.9836751735561672</v>
       </c>
       <c r="K22">
-        <v>0.9971567054649373</v>
+        <v>0.9971777561629247</v>
       </c>
       <c r="L22">
-        <v>0.9815650014153726</v>
+        <v>0.9815896382455288</v>
       </c>
       <c r="M22">
-        <v>0.9828056452794274</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9828244890957959</v>
+      </c>
+      <c r="N22">
+        <v>0.990536710338316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.953554143519907</v>
+        <v>0.9535805982223866</v>
       </c>
       <c r="D23">
-        <v>0.9834302517405842</v>
+        <v>0.9834504741896778</v>
       </c>
       <c r="E23">
-        <v>0.9676846781433016</v>
+        <v>0.9677083823420618</v>
       </c>
       <c r="F23">
-        <v>0.9696849795741108</v>
+        <v>0.9697030494594041</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029474503011157</v>
+        <v>1.029485121410162</v>
       </c>
       <c r="J23">
-        <v>0.9857628868898738</v>
+        <v>0.9857880442185414</v>
       </c>
       <c r="K23">
-        <v>0.9990166524186073</v>
+        <v>0.9990364659948296</v>
       </c>
       <c r="L23">
-        <v>0.983596300514917</v>
+        <v>0.9836195045801919</v>
       </c>
       <c r="M23">
-        <v>0.9855545114807839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9855722021851386</v>
+      </c>
+      <c r="N23">
+        <v>0.9919979681834513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.964864786119016</v>
+        <v>0.9648849429169557</v>
       </c>
       <c r="D24">
-        <v>0.9918962577383416</v>
+        <v>0.9919117539084554</v>
       </c>
       <c r="E24">
-        <v>0.9768648250917165</v>
+        <v>0.9768830422603633</v>
       </c>
       <c r="F24">
-        <v>0.9816221248148148</v>
+        <v>0.9816358373394483</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033460639051665</v>
+        <v>1.033468783789971</v>
       </c>
       <c r="J24">
-        <v>0.9937857989828589</v>
+        <v>0.9938050970088054</v>
       </c>
       <c r="K24">
-        <v>1.006067194582816</v>
+        <v>1.006082412821313</v>
       </c>
       <c r="L24">
-        <v>0.9913107778040007</v>
+        <v>0.9913286549854896</v>
       </c>
       <c r="M24">
-        <v>0.9959798505684466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9959933103967837</v>
+      </c>
+      <c r="N24">
+        <v>0.9975406365371772</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9772204705537546</v>
+        <v>0.9772340410514149</v>
       </c>
       <c r="D25">
-        <v>1.001165060691661</v>
+        <v>1.001175586541972</v>
       </c>
       <c r="E25">
-        <v>0.9869370242319504</v>
+        <v>0.9869494658938031</v>
       </c>
       <c r="F25">
-        <v>0.9946673035771999</v>
+        <v>0.9946765254226037</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037751010887079</v>
+        <v>1.037756549929996</v>
       </c>
       <c r="J25">
-        <v>1.002539551208217</v>
+        <v>1.002552634638824</v>
       </c>
       <c r="K25">
-        <v>1.013745317476378</v>
+        <v>1.013755680413998</v>
       </c>
       <c r="L25">
-        <v>0.9997415683889771</v>
+        <v>0.999753810300246</v>
       </c>
       <c r="M25">
-        <v>1.007348970729038</v>
+        <v>1.007358047447846</v>
+      </c>
+      <c r="N25">
+        <v>1.003583796976593</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.986548693651228</v>
+        <v>1.001272548531118</v>
       </c>
       <c r="D2">
-        <v>1.008174170386459</v>
+        <v>1.01794737008678</v>
       </c>
       <c r="E2">
-        <v>0.9945725243050746</v>
+        <v>1.012783115060307</v>
       </c>
       <c r="F2">
-        <v>1.004517153492029</v>
+        <v>1.013976944786096</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040936672263563</v>
+        <v>1.04149820716874</v>
       </c>
       <c r="J2">
-        <v>1.009139311942417</v>
+        <v>1.023415264395285</v>
       </c>
       <c r="K2">
-        <v>1.019520788661063</v>
+        <v>1.029162206187971</v>
       </c>
       <c r="L2">
-        <v>1.006107993970065</v>
+        <v>1.024067187720717</v>
       </c>
       <c r="M2">
-        <v>1.015913913878164</v>
+        <v>1.025244933139734</v>
       </c>
       <c r="N2">
-        <v>1.008129940341187</v>
+        <v>1.024868631458098</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9930376595266452</v>
+        <v>1.007944916612271</v>
       </c>
       <c r="D3">
-        <v>1.013053769182642</v>
+        <v>1.022929124204818</v>
       </c>
       <c r="E3">
-        <v>0.9998984489055422</v>
+        <v>1.018797456363828</v>
       </c>
       <c r="F3">
-        <v>1.011375126353167</v>
+        <v>1.021056232540074</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043119522954177</v>
+        <v>1.043347509324418</v>
       </c>
       <c r="J3">
-        <v>1.01371994137526</v>
+        <v>1.028221313710135</v>
       </c>
       <c r="K3">
-        <v>1.023522305307864</v>
+        <v>1.033276793365562</v>
       </c>
       <c r="L3">
-        <v>1.010532629261769</v>
+        <v>1.029195339622349</v>
       </c>
       <c r="M3">
-        <v>1.021864500156466</v>
+        <v>1.031426601270807</v>
       </c>
       <c r="N3">
-        <v>1.011288810267335</v>
+        <v>1.029681505914237</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.997119933366867</v>
+        <v>1.012142184914535</v>
       </c>
       <c r="D4">
-        <v>1.016124789428849</v>
+        <v>1.026064863416843</v>
       </c>
       <c r="E4">
-        <v>1.003255566187151</v>
+        <v>1.022586956388721</v>
       </c>
       <c r="F4">
-        <v>1.015690765505827</v>
+        <v>1.025518879233912</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044477305407193</v>
+        <v>1.044498744161359</v>
       </c>
       <c r="J4">
-        <v>1.016597599573142</v>
+        <v>1.031240310841636</v>
       </c>
       <c r="K4">
-        <v>1.026032421122109</v>
+        <v>1.035858565790116</v>
       </c>
       <c r="L4">
-        <v>1.013314857557245</v>
+        <v>1.032420210384985</v>
       </c>
       <c r="M4">
-        <v>1.025603434612307</v>
+        <v>1.03531876878994</v>
       </c>
       <c r="N4">
-        <v>1.013271958755728</v>
+        <v>1.032704790367948</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9988096379728023</v>
+        <v>1.013879414844056</v>
       </c>
       <c r="D5">
-        <v>1.017396120610581</v>
+        <v>1.027363100718699</v>
       </c>
       <c r="E5">
-        <v>1.004646603813696</v>
+        <v>1.024156836011765</v>
       </c>
       <c r="F5">
-        <v>1.017477357910606</v>
+        <v>1.027368188993553</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045035535570282</v>
+        <v>1.044972280465076</v>
       </c>
       <c r="J5">
-        <v>1.017787667630396</v>
+        <v>1.032488782918592</v>
       </c>
       <c r="K5">
-        <v>1.027069574546005</v>
+        <v>1.036925512674955</v>
       </c>
       <c r="L5">
-        <v>1.014466068787468</v>
+        <v>1.033754678914541</v>
       </c>
       <c r="M5">
-        <v>1.027149895950344</v>
+        <v>1.036930544937608</v>
       </c>
       <c r="N5">
-        <v>1.014091768189288</v>
+        <v>1.033955035418455</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9990918328944673</v>
+        <v>1.014169543199475</v>
       </c>
       <c r="D6">
-        <v>1.017608452587078</v>
+        <v>1.02757993346012</v>
       </c>
       <c r="E6">
-        <v>1.004879003869944</v>
+        <v>1.024419097939913</v>
       </c>
       <c r="F6">
-        <v>1.0177757513145</v>
+        <v>1.027677166750933</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045128541086074</v>
+        <v>1.045051188629187</v>
       </c>
       <c r="J6">
-        <v>1.017986356819123</v>
+        <v>1.032697220756101</v>
       </c>
       <c r="K6">
-        <v>1.027242679227896</v>
+        <v>1.037103601225484</v>
       </c>
       <c r="L6">
-        <v>1.014658306174504</v>
+        <v>1.033977525103877</v>
       </c>
       <c r="M6">
-        <v>1.027408101030876</v>
+        <v>1.03719976941446</v>
       </c>
       <c r="N6">
-        <v>1.014228620662442</v>
+        <v>1.034163769261602</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.997142613555218</v>
+        <v>1.012165503275815</v>
       </c>
       <c r="D7">
-        <v>1.016141853308989</v>
+        <v>1.026082287966766</v>
       </c>
       <c r="E7">
-        <v>1.003274231725301</v>
+        <v>1.02260802289352</v>
       </c>
       <c r="F7">
-        <v>1.015714745008366</v>
+        <v>1.025543693165097</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044484813301384</v>
+        <v>1.044505112073473</v>
       </c>
       <c r="J7">
-        <v>1.016613577503295</v>
+        <v>1.03125707307136</v>
       </c>
       <c r="K7">
-        <v>1.026046349662851</v>
+        <v>1.035872893695365</v>
       </c>
       <c r="L7">
-        <v>1.013330311393971</v>
+        <v>1.032438123803201</v>
       </c>
       <c r="M7">
-        <v>1.025624196603989</v>
+        <v>1.035340399991674</v>
       </c>
       <c r="N7">
-        <v>1.013282966892195</v>
+        <v>1.032721576401961</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9887666814891816</v>
+        <v>1.003553319194833</v>
       </c>
       <c r="D8">
-        <v>1.009841745880717</v>
+        <v>1.019649774091615</v>
       </c>
       <c r="E8">
-        <v>0.9963915472910679</v>
+        <v>1.014837621572044</v>
       </c>
       <c r="F8">
-        <v>1.006861015994964</v>
+        <v>1.016394817515512</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041686013344622</v>
+        <v>1.042132850321225</v>
       </c>
       <c r="J8">
-        <v>1.010705833563228</v>
+        <v>1.025058946940131</v>
       </c>
       <c r="K8">
-        <v>1.020890034529827</v>
+        <v>1.030569995782222</v>
       </c>
       <c r="L8">
-        <v>1.007620620243918</v>
+        <v>1.025820289813948</v>
       </c>
       <c r="M8">
-        <v>1.017948845632999</v>
+        <v>1.027357197245453</v>
       </c>
       <c r="N8">
-        <v>1.009210509496356</v>
+        <v>1.026514648220691</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9730451844063204</v>
+        <v>0.9873841960535205</v>
       </c>
       <c r="D9">
-        <v>0.9980311571211972</v>
+        <v>1.007593815527722</v>
       </c>
       <c r="E9">
-        <v>0.9835297885001778</v>
+        <v>1.000301701943042</v>
       </c>
       <c r="F9">
-        <v>0.9902524061429452</v>
+        <v>0.9992950173707945</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036310541902982</v>
+        <v>1.037584160906531</v>
       </c>
       <c r="J9">
-        <v>0.9995870587893061</v>
+        <v>1.01339045376997</v>
       </c>
       <c r="K9">
-        <v>1.011156258397702</v>
+        <v>1.020564878227345</v>
       </c>
       <c r="L9">
-        <v>0.9968958578090094</v>
+        <v>1.013389886139182</v>
       </c>
       <c r="M9">
-        <v>1.003505636105076</v>
+        <v>1.012399542790453</v>
       </c>
       <c r="N9">
-        <v>1.001535686733195</v>
+        <v>1.014829584451833</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9618090250852206</v>
+        <v>0.9758235347601769</v>
       </c>
       <c r="D10">
-        <v>0.9896074831770244</v>
+        <v>0.9989961177698597</v>
       </c>
       <c r="E10">
-        <v>0.9743828004340316</v>
+        <v>0.9899493053052761</v>
       </c>
       <c r="F10">
-        <v>0.9783885269655553</v>
+        <v>0.9871227945036016</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032389864300074</v>
+        <v>1.034271550900844</v>
       </c>
       <c r="J10">
-        <v>0.9916243361124886</v>
+        <v>1.005030324148975</v>
       </c>
       <c r="K10">
-        <v>1.004166947637493</v>
+        <v>1.013383521307131</v>
       </c>
       <c r="L10">
-        <v>0.9892305155589707</v>
+        <v>1.004502430705637</v>
       </c>
       <c r="M10">
-        <v>0.9931592631743245</v>
+        <v>1.001728509486792</v>
       </c>
       <c r="N10">
-        <v>0.9960332827386612</v>
+        <v>1.006457582487856</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9567365738785928</v>
+        <v>0.9706030341937621</v>
       </c>
       <c r="D11">
-        <v>0.9858106777761618</v>
+        <v>0.9951208523922023</v>
       </c>
       <c r="E11">
-        <v>0.970265907230096</v>
+        <v>0.985285233911451</v>
       </c>
       <c r="F11">
-        <v>0.9730340912586976</v>
+        <v>0.9816393017912023</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03060225048235</v>
+        <v>1.032762353378584</v>
       </c>
       <c r="J11">
-        <v>0.9880268902762964</v>
+        <v>1.001252043909062</v>
       </c>
       <c r="K11">
-        <v>1.001005238376955</v>
+        <v>1.010135372628759</v>
       </c>
       <c r="L11">
-        <v>0.9857712277786985</v>
+        <v>1.000490088681639</v>
       </c>
       <c r="M11">
-        <v>0.9884831149764115</v>
+        <v>0.9969159842003641</v>
       </c>
       <c r="N11">
-        <v>0.9935461412225817</v>
+        <v>1.002673936656628</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9548186016153125</v>
+        <v>0.9686288012847304</v>
       </c>
       <c r="D12">
-        <v>0.9843761198695945</v>
+        <v>0.9936566207236839</v>
       </c>
       <c r="E12">
-        <v>0.9687112702263377</v>
+        <v>0.9835231614115302</v>
       </c>
       <c r="F12">
-        <v>0.9710096937710984</v>
+        <v>0.9795676291232777</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029923770617696</v>
+        <v>1.03218971819086</v>
       </c>
       <c r="J12">
-        <v>0.9866663279231528</v>
+        <v>0.9998228553363964</v>
       </c>
       <c r="K12">
-        <v>0.9998088976526696</v>
+        <v>1.008906367357583</v>
       </c>
       <c r="L12">
-        <v>0.9844635078392291</v>
+        <v>0.9989729893552587</v>
       </c>
       <c r="M12">
-        <v>0.9867142065725349</v>
+        <v>0.995097037153254</v>
       </c>
       <c r="N12">
-        <v>0.9926053325651907</v>
+        <v>1.001242718472259</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9552315916756285</v>
+        <v>0.9690539192585276</v>
       </c>
       <c r="D13">
-        <v>0.9846849666462314</v>
+        <v>0.9939718577448211</v>
       </c>
       <c r="E13">
-        <v>0.9690459305584657</v>
+        <v>0.9839025139136682</v>
       </c>
       <c r="F13">
-        <v>0.9714455912996319</v>
+        <v>0.9800136375006572</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030069978927622</v>
+        <v>1.032313109850849</v>
       </c>
       <c r="J13">
-        <v>0.9869593052891731</v>
+        <v>1.000130621639237</v>
       </c>
       <c r="K13">
-        <v>1.000066537694457</v>
+        <v>1.009171040398712</v>
       </c>
       <c r="L13">
-        <v>0.9847450793668571</v>
+        <v>0.9992996586000843</v>
       </c>
       <c r="M13">
-        <v>0.9870951342579017</v>
+        <v>0.9954886705799461</v>
       </c>
       <c r="N13">
-        <v>0.992807929228525</v>
+        <v>1.001550921838551</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9565787408708404</v>
+        <v>0.9704405774013212</v>
       </c>
       <c r="D14">
-        <v>0.98569260288196</v>
+        <v>0.9950003358745736</v>
       </c>
       <c r="E14">
-        <v>0.9701379316450435</v>
+        <v>0.9851401995959523</v>
       </c>
       <c r="F14">
-        <v>0.9728674964217311</v>
+        <v>0.981468785709433</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030546468529772</v>
+        <v>1.032715270069454</v>
       </c>
       <c r="J14">
-        <v>0.9879149331430721</v>
+        <v>1.001134444704377</v>
       </c>
       <c r="K14">
-        <v>1.000906806086372</v>
+        <v>1.010034252045657</v>
       </c>
       <c r="L14">
-        <v>0.9856636068115685</v>
+        <v>1.000365243209855</v>
       </c>
       <c r="M14">
-        <v>0.9883375644414111</v>
+        <v>0.9967662849375323</v>
       </c>
       <c r="N14">
-        <v>0.9934687277783908</v>
+        <v>1.002556170447583</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9574041931813421</v>
+        <v>0.9712901999674748</v>
       </c>
       <c r="D15">
-        <v>0.9863101685704536</v>
+        <v>0.9956306706141765</v>
       </c>
       <c r="E15">
-        <v>0.9708073156119589</v>
+        <v>0.9858987767196496</v>
       </c>
       <c r="F15">
-        <v>0.9737387802549774</v>
+        <v>0.9823606392266527</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030838099786713</v>
+        <v>1.032961431330555</v>
       </c>
       <c r="J15">
-        <v>0.9885004467159083</v>
+        <v>1.001749455415114</v>
       </c>
       <c r="K15">
-        <v>1.001421564236765</v>
+        <v>1.010563070394047</v>
       </c>
       <c r="L15">
-        <v>0.9862264672306416</v>
+        <v>1.001018175242973</v>
       </c>
       <c r="M15">
-        <v>0.9890987487863179</v>
+        <v>0.9975492288441361</v>
       </c>
       <c r="N15">
-        <v>0.9938735780883997</v>
+        <v>1.003172054544072</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.96214107821457</v>
+        <v>0.9761652434684213</v>
       </c>
       <c r="D16">
-        <v>0.9898561680563742</v>
+        <v>0.9992499391246948</v>
       </c>
       <c r="E16">
-        <v>0.9746525710056176</v>
+        <v>0.9902548258850996</v>
       </c>
       <c r="F16">
-        <v>0.9787390673144299</v>
+        <v>0.9874819932605081</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032506527356266</v>
+        <v>1.034370067933542</v>
       </c>
       <c r="J16">
-        <v>0.9918597835883799</v>
+        <v>1.005277576962838</v>
       </c>
       <c r="K16">
-        <v>1.004373795792198</v>
+        <v>1.013596031761198</v>
       </c>
       <c r="L16">
-        <v>0.9894570011582019</v>
+        <v>1.004765087731197</v>
       </c>
       <c r="M16">
-        <v>0.9934652640004441</v>
+        <v>1.002043648653852</v>
       </c>
       <c r="N16">
-        <v>0.9961960384985789</v>
+        <v>1.006705186429075</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9650551268998497</v>
+        <v>0.9791638473436409</v>
       </c>
       <c r="D17">
-        <v>0.9920392842206406</v>
+        <v>1.001478141406136</v>
       </c>
       <c r="E17">
-        <v>0.9770214582446329</v>
+        <v>0.9929371005220807</v>
       </c>
       <c r="F17">
-        <v>0.9818155134144635</v>
+        <v>0.9906355701333841</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0335283602382</v>
+        <v>1.035233094096506</v>
       </c>
       <c r="J17">
-        <v>0.9939257354934512</v>
+        <v>1.007446965575924</v>
       </c>
       <c r="K17">
-        <v>1.006188348366531</v>
+        <v>1.01546030299232</v>
       </c>
       <c r="L17">
-        <v>0.9914447482883136</v>
+        <v>1.007070111719967</v>
       </c>
       <c r="M17">
-        <v>0.9961500762824121</v>
+        <v>1.00480980844135</v>
       </c>
       <c r="N17">
-        <v>0.9976240142923766</v>
+        <v>1.008877655822824</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9667350580606778</v>
+        <v>0.9808923810142731</v>
       </c>
       <c r="D18">
-        <v>0.9932983875863033</v>
+        <v>1.002763247772529</v>
       </c>
       <c r="E18">
-        <v>0.9783882651063902</v>
+        <v>0.9944842963293454</v>
       </c>
       <c r="F18">
-        <v>0.9835891977041014</v>
+        <v>0.9924546741702284</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034115771791225</v>
+        <v>1.035729323653962</v>
       </c>
       <c r="J18">
-        <v>0.9951164778173468</v>
+        <v>1.008697206582059</v>
       </c>
       <c r="K18">
-        <v>1.007233811035183</v>
+        <v>1.016534453820371</v>
       </c>
       <c r="L18">
-        <v>0.9925907727412657</v>
+        <v>1.00839892209383</v>
       </c>
       <c r="M18">
-        <v>0.9976973460079389</v>
+        <v>1.006404933333248</v>
       </c>
       <c r="N18">
-        <v>0.9984469322367147</v>
+        <v>1.010129672314592</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9673045929135305</v>
+        <v>0.981478370242562</v>
       </c>
       <c r="D19">
-        <v>0.9937253406840234</v>
+        <v>1.003199018965038</v>
       </c>
       <c r="E19">
-        <v>0.9788518357041825</v>
+        <v>0.9950089783126719</v>
       </c>
       <c r="F19">
-        <v>0.9841905396986507</v>
+        <v>0.9930715763785648</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034314631801933</v>
+        <v>1.035897333955039</v>
       </c>
       <c r="J19">
-        <v>0.9955201185190962</v>
+        <v>1.00912099727407</v>
       </c>
       <c r="K19">
-        <v>1.007588138812382</v>
+        <v>1.016898512408834</v>
       </c>
       <c r="L19">
-        <v>0.9929793148395502</v>
+        <v>1.008849413678843</v>
       </c>
       <c r="M19">
-        <v>0.9982218187404486</v>
+        <v>1.006945792775509</v>
       </c>
       <c r="N19">
-        <v>0.9987258665018734</v>
+        <v>1.010554064837996</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9647445420590667</v>
+        <v>0.9788442656231356</v>
       </c>
       <c r="D20">
-        <v>0.9918065451916395</v>
+        <v>1.001240596001784</v>
       </c>
       <c r="E20">
-        <v>0.9767688563694715</v>
+        <v>0.9926511265834563</v>
       </c>
       <c r="F20">
-        <v>0.9814876063070507</v>
+        <v>0.9902993431267846</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033419624073597</v>
+        <v>1.035141245611958</v>
       </c>
       <c r="J20">
-        <v>0.9937055693941037</v>
+        <v>1.007215788939077</v>
       </c>
       <c r="K20">
-        <v>1.005995013068181</v>
+        <v>1.01526166604543</v>
       </c>
       <c r="L20">
-        <v>0.991232879197225</v>
+        <v>1.006824439756174</v>
       </c>
       <c r="M20">
-        <v>0.9958639765132122</v>
+        <v>1.004514938895181</v>
       </c>
       <c r="N20">
-        <v>0.9974718486239561</v>
+        <v>1.008646150888635</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9561829965906899</v>
+        <v>0.9700332349344702</v>
       </c>
       <c r="D21">
-        <v>0.9853965644135483</v>
+        <v>0.9946981751843386</v>
       </c>
       <c r="E21">
-        <v>0.9698170838099371</v>
+        <v>0.9847765703883846</v>
       </c>
       <c r="F21">
-        <v>0.9724497862059183</v>
+        <v>0.9810412680158894</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030406562302377</v>
+        <v>1.032597183605906</v>
       </c>
       <c r="J21">
-        <v>0.9876342115642112</v>
+        <v>1.000839572268753</v>
       </c>
       <c r="K21">
-        <v>1.000659987594108</v>
+        <v>1.009780693277631</v>
       </c>
       <c r="L21">
-        <v>0.9853937673146056</v>
+        <v>1.000052211254798</v>
       </c>
       <c r="M21">
-        <v>0.9879726042181053</v>
+        <v>0.9963909469157658</v>
       </c>
       <c r="N21">
-        <v>0.9932746185253756</v>
+        <v>1.002260879259278</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9506026405182491</v>
+        <v>0.9642885949882939</v>
       </c>
       <c r="D22">
-        <v>0.981224955424653</v>
+        <v>0.9904401890415322</v>
       </c>
       <c r="E22">
-        <v>0.9652978897231086</v>
+        <v>0.9796527103610755</v>
       </c>
       <c r="F22">
-        <v>0.9665601439820385</v>
+        <v>0.9750169699801104</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028427784595482</v>
+        <v>1.030927426171698</v>
       </c>
       <c r="J22">
-        <v>0.9836751735561672</v>
+        <v>0.9966803468322687</v>
       </c>
       <c r="K22">
-        <v>0.9971777561629247</v>
+        <v>1.006203436628448</v>
       </c>
       <c r="L22">
-        <v>0.9815896382455288</v>
+        <v>0.9956383223157169</v>
       </c>
       <c r="M22">
-        <v>0.9828244890957959</v>
+        <v>0.9911001408865673</v>
       </c>
       <c r="N22">
-        <v>0.990536710338316</v>
+        <v>0.9980957472456039</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9535805982223866</v>
+        <v>0.9673543973292134</v>
       </c>
       <c r="D23">
-        <v>0.9834504741896778</v>
+        <v>0.9927118163639255</v>
       </c>
       <c r="E23">
-        <v>0.9677083823420618</v>
+        <v>0.9823862153627485</v>
       </c>
       <c r="F23">
-        <v>0.9697030494594041</v>
+        <v>0.9782308991454427</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029485121410162</v>
+        <v>1.031819547860514</v>
       </c>
       <c r="J23">
-        <v>0.9857880442185414</v>
+        <v>0.9989001998069873</v>
       </c>
       <c r="K23">
-        <v>0.9990364659948296</v>
+        <v>1.008112854367303</v>
       </c>
       <c r="L23">
-        <v>0.9836195045801919</v>
+        <v>0.9979937552908712</v>
       </c>
       <c r="M23">
-        <v>0.9855722021851386</v>
+        <v>0.9939231642463646</v>
       </c>
       <c r="N23">
-        <v>0.9919979681834513</v>
+        <v>1.000318752666167</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9648849429169557</v>
+        <v>0.9789887339896892</v>
       </c>
       <c r="D24">
-        <v>0.9919117539084554</v>
+        <v>1.001347977419583</v>
       </c>
       <c r="E24">
-        <v>0.9768830422603633</v>
+        <v>0.9927803992747323</v>
       </c>
       <c r="F24">
-        <v>0.9816358373394483</v>
+        <v>0.9904513322321679</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033468783789971</v>
+        <v>1.035182770051796</v>
       </c>
       <c r="J24">
-        <v>0.9938050970088054</v>
+        <v>1.007320294309203</v>
       </c>
       <c r="K24">
-        <v>1.006082412821313</v>
+        <v>1.015351462344445</v>
       </c>
       <c r="L24">
-        <v>0.9913286549854896</v>
+        <v>1.006935496615044</v>
       </c>
       <c r="M24">
-        <v>0.9959933103967837</v>
+        <v>1.004648234206253</v>
       </c>
       <c r="N24">
-        <v>0.9975406365371772</v>
+        <v>1.008750804668375</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9772340410514149</v>
+        <v>0.9916929645890625</v>
       </c>
       <c r="D25">
-        <v>1.001175586541972</v>
+        <v>1.010803329978217</v>
       </c>
       <c r="E25">
-        <v>0.9869494658938031</v>
+        <v>1.004168692874935</v>
       </c>
       <c r="F25">
-        <v>0.9946765254226037</v>
+        <v>1.00384272821949</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037756549929996</v>
+        <v>1.038806904244931</v>
       </c>
       <c r="J25">
-        <v>1.002552634638824</v>
+        <v>1.016503164582513</v>
       </c>
       <c r="K25">
-        <v>1.013755680413998</v>
+        <v>1.023236221466716</v>
       </c>
       <c r="L25">
-        <v>0.999753810300246</v>
+        <v>1.016702638110956</v>
       </c>
       <c r="M25">
-        <v>1.007358047447846</v>
+        <v>1.016381682236378</v>
       </c>
       <c r="N25">
-        <v>1.003583796976593</v>
+        <v>1.017946715670763</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001272548531118</v>
+        <v>1.007238730014445</v>
       </c>
       <c r="D2">
-        <v>1.01794737008678</v>
+        <v>1.024412204489326</v>
       </c>
       <c r="E2">
-        <v>1.012783115060307</v>
+        <v>1.018415031698558</v>
       </c>
       <c r="F2">
-        <v>1.013976944786096</v>
+        <v>1.019769464275515</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04149820716874</v>
+        <v>1.047610704578611</v>
       </c>
       <c r="J2">
-        <v>1.023415264395285</v>
+        <v>1.029205066715005</v>
       </c>
       <c r="K2">
-        <v>1.029162206187971</v>
+        <v>1.03554160061875</v>
       </c>
       <c r="L2">
-        <v>1.024067187720717</v>
+        <v>1.029623641444672</v>
       </c>
       <c r="M2">
-        <v>1.025244933139734</v>
+        <v>1.030960081804756</v>
       </c>
       <c r="N2">
-        <v>1.024868631458098</v>
+        <v>1.013648791210781</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007944916612271</v>
+        <v>1.011133694634397</v>
       </c>
       <c r="D3">
-        <v>1.022929124204818</v>
+        <v>1.02729324702548</v>
       </c>
       <c r="E3">
-        <v>1.018797456363828</v>
+        <v>1.021942569160072</v>
       </c>
       <c r="F3">
-        <v>1.021056232540074</v>
+        <v>1.024286044826161</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043347509324418</v>
+        <v>1.04883837363666</v>
       </c>
       <c r="J3">
-        <v>1.028221313710135</v>
+        <v>1.031325377861186</v>
       </c>
       <c r="K3">
-        <v>1.033276793365562</v>
+        <v>1.03758842108315</v>
       </c>
       <c r="L3">
-        <v>1.029195339622349</v>
+        <v>1.032302182551503</v>
       </c>
       <c r="M3">
-        <v>1.031426601270807</v>
+        <v>1.034617332395505</v>
       </c>
       <c r="N3">
-        <v>1.029681505914237</v>
+        <v>1.014355298704626</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012142184914535</v>
+        <v>1.013605486206846</v>
       </c>
       <c r="D4">
-        <v>1.026064863416843</v>
+        <v>1.029123051344356</v>
       </c>
       <c r="E4">
-        <v>1.022586956388721</v>
+        <v>1.024186570337481</v>
       </c>
       <c r="F4">
-        <v>1.025518879233912</v>
+        <v>1.027160008008112</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044498744161359</v>
+        <v>1.049606654226647</v>
       </c>
       <c r="J4">
-        <v>1.031240310841636</v>
+        <v>1.032667451121545</v>
       </c>
       <c r="K4">
-        <v>1.035858565790116</v>
+        <v>1.038882247325221</v>
       </c>
       <c r="L4">
-        <v>1.032420210384985</v>
+        <v>1.03400159198323</v>
       </c>
       <c r="M4">
-        <v>1.03531876878994</v>
+        <v>1.036941324457312</v>
       </c>
       <c r="N4">
-        <v>1.032704790367948</v>
+        <v>1.014802458830594</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013879414844056</v>
+        <v>1.014633373544999</v>
       </c>
       <c r="D5">
-        <v>1.027363100718699</v>
+        <v>1.029884279146725</v>
       </c>
       <c r="E5">
-        <v>1.024156836011765</v>
+        <v>1.025121006036897</v>
       </c>
       <c r="F5">
-        <v>1.027368188993553</v>
+        <v>1.028356996491779</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044972280465076</v>
+        <v>1.049923510346225</v>
       </c>
       <c r="J5">
-        <v>1.032488782918592</v>
+        <v>1.033224683059568</v>
       </c>
       <c r="K5">
-        <v>1.036925512674955</v>
+        <v>1.039419021000133</v>
       </c>
       <c r="L5">
-        <v>1.033754678914541</v>
+        <v>1.034708165693284</v>
       </c>
       <c r="M5">
-        <v>1.036930544937608</v>
+        <v>1.037908480474743</v>
       </c>
       <c r="N5">
-        <v>1.033955035418455</v>
+        <v>1.014988111464</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014169543199475</v>
+        <v>1.014805310583853</v>
       </c>
       <c r="D6">
-        <v>1.02757993346012</v>
+        <v>1.030011628424746</v>
       </c>
       <c r="E6">
-        <v>1.024419097939913</v>
+        <v>1.025277385627667</v>
       </c>
       <c r="F6">
-        <v>1.027677166750933</v>
+        <v>1.028557329186991</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045051188629187</v>
+        <v>1.049976355862178</v>
       </c>
       <c r="J6">
-        <v>1.032697220756101</v>
+        <v>1.033317840917283</v>
       </c>
       <c r="K6">
-        <v>1.037103601225484</v>
+        <v>1.039508733291519</v>
       </c>
       <c r="L6">
-        <v>1.033977525103877</v>
+        <v>1.034826348239437</v>
       </c>
       <c r="M6">
-        <v>1.03719976941446</v>
+        <v>1.038070301724191</v>
       </c>
       <c r="N6">
-        <v>1.034163769261602</v>
+        <v>1.015019148213556</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012165503275815</v>
+        <v>1.013619264642182</v>
       </c>
       <c r="D7">
-        <v>1.026082287966766</v>
+        <v>1.029133254144272</v>
       </c>
       <c r="E7">
-        <v>1.02260802289352</v>
+        <v>1.024199091078885</v>
       </c>
       <c r="F7">
-        <v>1.025543693165097</v>
+        <v>1.027176045816774</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044505112073473</v>
+        <v>1.049610912000848</v>
       </c>
       <c r="J7">
-        <v>1.03125707307136</v>
+        <v>1.032674924052186</v>
       </c>
       <c r="K7">
-        <v>1.035872893695365</v>
+        <v>1.038889447591794</v>
       </c>
       <c r="L7">
-        <v>1.032438123803201</v>
+        <v>1.034011063834027</v>
       </c>
       <c r="M7">
-        <v>1.035340399991674</v>
+        <v>1.036954285930288</v>
       </c>
       <c r="N7">
-        <v>1.032721576401961</v>
+        <v>1.014804948621538</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003553319194833</v>
+        <v>1.008565317897008</v>
       </c>
       <c r="D8">
-        <v>1.019649774091615</v>
+        <v>1.025393128693051</v>
       </c>
       <c r="E8">
-        <v>1.014837621572044</v>
+        <v>1.019615338585407</v>
       </c>
       <c r="F8">
-        <v>1.016394817515512</v>
+        <v>1.021306167155618</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042132850321225</v>
+        <v>1.048031080133105</v>
       </c>
       <c r="J8">
-        <v>1.025058946940131</v>
+        <v>1.029927942783061</v>
       </c>
       <c r="K8">
-        <v>1.030569995782222</v>
+        <v>1.036239778147866</v>
       </c>
       <c r="L8">
-        <v>1.025820289813948</v>
+        <v>1.030536004520719</v>
       </c>
       <c r="M8">
-        <v>1.027357197245453</v>
+        <v>1.032205064327695</v>
       </c>
       <c r="N8">
-        <v>1.026514648220691</v>
+        <v>1.013889665729194</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9873841960535205</v>
+        <v>0.9992710754222814</v>
       </c>
       <c r="D9">
-        <v>1.007593815527722</v>
+        <v>1.018528580797944</v>
       </c>
       <c r="E9">
-        <v>1.000301701943042</v>
+        <v>1.011229387360303</v>
       </c>
       <c r="F9">
-        <v>0.9992950173707945</v>
+        <v>1.010571775657407</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037584160906531</v>
+        <v>1.045041599707233</v>
       </c>
       <c r="J9">
-        <v>1.01339045376997</v>
+        <v>1.024849600179345</v>
       </c>
       <c r="K9">
-        <v>1.020564878227345</v>
+        <v>1.031328030899727</v>
       </c>
       <c r="L9">
-        <v>1.013389886139182</v>
+        <v>1.024142865448586</v>
       </c>
       <c r="M9">
-        <v>1.012399542790453</v>
+        <v>1.023495630504173</v>
       </c>
       <c r="N9">
-        <v>1.014829584451833</v>
+        <v>1.012197417117094</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9758235347601769</v>
+        <v>0.9927885533684965</v>
       </c>
       <c r="D10">
-        <v>0.9989961177698597</v>
+        <v>1.013752784697302</v>
       </c>
       <c r="E10">
-        <v>0.9899493053052761</v>
+        <v>1.005411180144016</v>
       </c>
       <c r="F10">
-        <v>0.9871227945036016</v>
+        <v>1.003124696041718</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034271550900844</v>
+        <v>1.042901937397273</v>
       </c>
       <c r="J10">
-        <v>1.005030324148975</v>
+        <v>1.02129123978017</v>
       </c>
       <c r="K10">
-        <v>1.013383521307131</v>
+        <v>1.027878090109877</v>
       </c>
       <c r="L10">
-        <v>1.004502430705637</v>
+        <v>1.019683416580214</v>
       </c>
       <c r="M10">
-        <v>1.001728509486792</v>
+        <v>1.017437761396208</v>
       </c>
       <c r="N10">
-        <v>1.006457582487856</v>
+        <v>1.011011675132052</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9706030341937621</v>
+        <v>0.9899076056248625</v>
       </c>
       <c r="D11">
-        <v>0.9951208523922023</v>
+        <v>1.011633871261518</v>
       </c>
       <c r="E11">
-        <v>0.985285233911451</v>
+        <v>1.002833083569783</v>
       </c>
       <c r="F11">
-        <v>0.9816393017912023</v>
+        <v>0.9998243434372681</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032762353378584</v>
+        <v>1.041938625346575</v>
       </c>
       <c r="J11">
-        <v>1.001252043909062</v>
+        <v>1.01970635180034</v>
       </c>
       <c r="K11">
-        <v>1.010135372628759</v>
+        <v>1.026339674919882</v>
       </c>
       <c r="L11">
-        <v>1.000490088681639</v>
+        <v>1.017701769127025</v>
       </c>
       <c r="M11">
-        <v>0.9969159842003641</v>
+        <v>1.014749573144152</v>
       </c>
       <c r="N11">
-        <v>1.002673936656628</v>
+        <v>1.010483574803915</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9686288012847304</v>
+        <v>0.9888258300401797</v>
       </c>
       <c r="D12">
-        <v>0.9936566207236839</v>
+        <v>1.010838824778698</v>
       </c>
       <c r="E12">
-        <v>0.9835231614115302</v>
+        <v>1.001866198977985</v>
       </c>
       <c r="F12">
-        <v>0.9795676291232777</v>
+        <v>0.9985864578121885</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03218971819086</v>
+        <v>1.04157509082177</v>
       </c>
       <c r="J12">
-        <v>0.9998228553363964</v>
+        <v>1.019110746943332</v>
       </c>
       <c r="K12">
-        <v>1.008906367357583</v>
+        <v>1.025761274954136</v>
       </c>
       <c r="L12">
-        <v>0.9989729893552587</v>
+        <v>1.016957732684911</v>
       </c>
       <c r="M12">
-        <v>0.995097037153254</v>
+        <v>1.01374078925828</v>
       </c>
       <c r="N12">
-        <v>1.001242718472259</v>
+        <v>1.010285119689554</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9690539192585276</v>
+        <v>0.9890584115733783</v>
       </c>
       <c r="D13">
-        <v>0.9939718577448211</v>
+        <v>1.011009731945528</v>
       </c>
       <c r="E13">
-        <v>0.9839025139136682</v>
+        <v>1.002074025524336</v>
       </c>
       <c r="F13">
-        <v>0.9800136375006572</v>
+        <v>0.9988525412019388</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032313109850849</v>
+        <v>1.04165333204231</v>
       </c>
       <c r="J13">
-        <v>1.000130621639237</v>
+        <v>1.019238823482971</v>
       </c>
       <c r="K13">
-        <v>1.009171040398712</v>
+        <v>1.025885663338268</v>
       </c>
       <c r="L13">
-        <v>0.9992996586000843</v>
+        <v>1.017117697302351</v>
       </c>
       <c r="M13">
-        <v>0.9954886705799461</v>
+        <v>1.013957649851832</v>
       </c>
       <c r="N13">
-        <v>1.001550921838551</v>
+        <v>1.010327794380655</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9704405774013212</v>
+        <v>0.9898184269463213</v>
       </c>
       <c r="D14">
-        <v>0.9950003358745736</v>
+        <v>1.011568317402751</v>
       </c>
       <c r="E14">
-        <v>0.9851401995959523</v>
+        <v>1.002753352191759</v>
       </c>
       <c r="F14">
-        <v>0.981468785709433</v>
+        <v>0.9997222676456574</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032715270069454</v>
+        <v>1.041908693216601</v>
       </c>
       <c r="J14">
-        <v>1.001134444704377</v>
+        <v>1.019657261509049</v>
       </c>
       <c r="K14">
-        <v>1.010034252045657</v>
+        <v>1.02629200787231</v>
       </c>
       <c r="L14">
-        <v>1.000365243209855</v>
+        <v>1.017640431417465</v>
       </c>
       <c r="M14">
-        <v>0.9967662849375323</v>
+        <v>1.014666399233046</v>
       </c>
       <c r="N14">
-        <v>1.002556170447583</v>
+        <v>1.010467217812777</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9712901999674748</v>
+        <v>0.9902851349730915</v>
       </c>
       <c r="D15">
-        <v>0.9956306706141765</v>
+        <v>1.011911411651252</v>
       </c>
       <c r="E15">
-        <v>0.9858987767196496</v>
+        <v>1.003170666660436</v>
       </c>
       <c r="F15">
-        <v>0.9823606392266527</v>
+        <v>1.000256527369391</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032961431330555</v>
+        <v>1.042065266302683</v>
       </c>
       <c r="J15">
-        <v>1.001749455415114</v>
+        <v>1.019914151020967</v>
       </c>
       <c r="K15">
-        <v>1.010563070394047</v>
+        <v>1.026541439043246</v>
       </c>
       <c r="L15">
-        <v>1.001018175242973</v>
+        <v>1.017961438948435</v>
       </c>
       <c r="M15">
-        <v>0.9975492288441361</v>
+        <v>1.015101706869905</v>
       </c>
       <c r="N15">
-        <v>1.003172054544072</v>
+        <v>1.010552814223546</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9761652434684213</v>
+        <v>0.9929781477133495</v>
       </c>
       <c r="D16">
-        <v>0.9992499391246948</v>
+        <v>1.013892308466937</v>
       </c>
       <c r="E16">
-        <v>0.9902548258850996</v>
+        <v>1.005581005119742</v>
       </c>
       <c r="F16">
-        <v>0.9874819932605081</v>
+        <v>1.003342082917558</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034370067933542</v>
+        <v>1.042965077861981</v>
       </c>
       <c r="J16">
-        <v>1.005277576962838</v>
+        <v>1.021395470862588</v>
       </c>
       <c r="K16">
-        <v>1.013596031761198</v>
+        <v>1.027979228139783</v>
       </c>
       <c r="L16">
-        <v>1.004765087731197</v>
+        <v>1.019813834845984</v>
       </c>
       <c r="M16">
-        <v>1.002043648653852</v>
+        <v>1.017614754910964</v>
       </c>
       <c r="N16">
-        <v>1.006705186429075</v>
+        <v>1.011046406712101</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9791638473436409</v>
+        <v>0.9946472213762718</v>
       </c>
       <c r="D17">
-        <v>1.001478141406136</v>
+        <v>1.015121001001098</v>
       </c>
       <c r="E17">
-        <v>0.9929371005220807</v>
+        <v>1.007076912581201</v>
       </c>
       <c r="F17">
-        <v>0.9906355701333841</v>
+        <v>1.00525687840338</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035233094096506</v>
+        <v>1.043519519889284</v>
       </c>
       <c r="J17">
-        <v>1.007446965575924</v>
+        <v>1.022312664499753</v>
       </c>
       <c r="K17">
-        <v>1.01546030299232</v>
+        <v>1.028868998867588</v>
       </c>
       <c r="L17">
-        <v>1.007070111719967</v>
+        <v>1.020961985344457</v>
       </c>
       <c r="M17">
-        <v>1.00480980844135</v>
+        <v>1.019173359070394</v>
       </c>
       <c r="N17">
-        <v>1.008877655822824</v>
+        <v>1.01135203469614</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9808923810142731</v>
+        <v>0.9956136653899873</v>
       </c>
       <c r="D18">
-        <v>1.002763247772529</v>
+        <v>1.015832782842915</v>
       </c>
       <c r="E18">
-        <v>0.9944842963293454</v>
+        <v>1.007943809918743</v>
       </c>
       <c r="F18">
-        <v>0.9924546741702284</v>
+        <v>1.006366483828218</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035729323653962</v>
+        <v>1.043839376646861</v>
       </c>
       <c r="J18">
-        <v>1.008697206582059</v>
+        <v>1.022843413513901</v>
       </c>
       <c r="K18">
-        <v>1.016534453820371</v>
+        <v>1.029383705872818</v>
       </c>
       <c r="L18">
-        <v>1.00839892209383</v>
+        <v>1.021626817342945</v>
       </c>
       <c r="M18">
-        <v>1.006404933333248</v>
+        <v>1.02007622096976</v>
       </c>
       <c r="N18">
-        <v>1.010129672314592</v>
+        <v>1.011528893737467</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.981478370242562</v>
+        <v>0.9959420099435062</v>
       </c>
       <c r="D19">
-        <v>1.003199018965038</v>
+        <v>1.016074661730907</v>
       </c>
       <c r="E19">
-        <v>0.9950089783126719</v>
+        <v>1.00823845560236</v>
       </c>
       <c r="F19">
-        <v>0.9930715763785648</v>
+        <v>1.006743616736502</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035897333955039</v>
+        <v>1.043947844541421</v>
       </c>
       <c r="J19">
-        <v>1.00912099727407</v>
+        <v>1.02302367525065</v>
       </c>
       <c r="K19">
-        <v>1.016898512408834</v>
+        <v>1.029558489370387</v>
       </c>
       <c r="L19">
-        <v>1.008849413678843</v>
+        <v>1.021852693025499</v>
       </c>
       <c r="M19">
-        <v>1.006945792775509</v>
+        <v>1.020383028634121</v>
       </c>
       <c r="N19">
-        <v>1.010554064837996</v>
+        <v>1.011588961870922</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9788442656231356</v>
+        <v>0.9944688836544355</v>
       </c>
       <c r="D20">
-        <v>1.001240596001784</v>
+        <v>1.01498968243243</v>
       </c>
       <c r="E20">
-        <v>0.9926511265834563</v>
+        <v>1.00691700231436</v>
       </c>
       <c r="F20">
-        <v>0.9902993431267846</v>
+        <v>1.005052194452772</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035141245611958</v>
+        <v>1.043460400956645</v>
       </c>
       <c r="J20">
-        <v>1.007215788939077</v>
+        <v>1.02221469828308</v>
       </c>
       <c r="K20">
-        <v>1.01526166604543</v>
+        <v>1.028773979600924</v>
       </c>
       <c r="L20">
-        <v>1.006824439756174</v>
+        <v>1.020839305313664</v>
       </c>
       <c r="M20">
-        <v>1.004514938895181</v>
+        <v>1.019006785057803</v>
       </c>
       <c r="N20">
-        <v>1.008646150888635</v>
+        <v>1.011319390047851</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9700332349344702</v>
+        <v>0.9895949479154734</v>
       </c>
       <c r="D21">
-        <v>0.9946981751843386</v>
+        <v>1.011404051167276</v>
       </c>
       <c r="E21">
-        <v>0.9847765703883846</v>
+        <v>1.002553566795474</v>
       </c>
       <c r="F21">
-        <v>0.9810412680158894</v>
+        <v>0.9994664909137994</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032597183605906</v>
+        <v>1.041833655092528</v>
       </c>
       <c r="J21">
-        <v>1.000839572268753</v>
+        <v>1.019534234958236</v>
       </c>
       <c r="K21">
-        <v>1.009780693277631</v>
+        <v>1.026172544014583</v>
       </c>
       <c r="L21">
-        <v>1.000052211254798</v>
+        <v>1.01748672203043</v>
       </c>
       <c r="M21">
-        <v>0.9963909469157658</v>
+        <v>1.014457977842679</v>
       </c>
       <c r="N21">
-        <v>1.002260879259278</v>
+        <v>1.010426225209358</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9642885949882939</v>
+        <v>0.986462732815426</v>
       </c>
       <c r="D22">
-        <v>0.9904401890415322</v>
+        <v>1.00910322943038</v>
       </c>
       <c r="E22">
-        <v>0.9796527103610755</v>
+        <v>0.9997562639241876</v>
       </c>
       <c r="F22">
-        <v>0.9750169699801104</v>
+        <v>0.9958848484706058</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030927426171698</v>
+        <v>1.040777675246006</v>
       </c>
       <c r="J22">
-        <v>0.9966803468322687</v>
+        <v>1.01780880739592</v>
       </c>
       <c r="K22">
-        <v>1.006203436628448</v>
+        <v>1.0244964811899</v>
       </c>
       <c r="L22">
-        <v>0.9956383223157169</v>
+        <v>1.015332550820646</v>
       </c>
       <c r="M22">
-        <v>0.9911001408865673</v>
+        <v>1.011538270498731</v>
       </c>
       <c r="N22">
-        <v>0.9980957472456039</v>
+        <v>1.009851328413583</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9673543973292134</v>
+        <v>0.988129796633428</v>
       </c>
       <c r="D23">
-        <v>0.9927118163639255</v>
+        <v>1.010327451951077</v>
       </c>
       <c r="E23">
-        <v>0.9823862153627485</v>
+        <v>1.00124442244098</v>
       </c>
       <c r="F23">
-        <v>0.9782308991454427</v>
+        <v>0.9977903651771619</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031819547860514</v>
+        <v>1.041340680119293</v>
       </c>
       <c r="J23">
-        <v>0.9989001998069873</v>
+        <v>1.01872739039583</v>
       </c>
       <c r="K23">
-        <v>1.008112854367303</v>
+        <v>1.025388920712925</v>
       </c>
       <c r="L23">
-        <v>0.9979937552908712</v>
+        <v>1.016479026382359</v>
       </c>
       <c r="M23">
-        <v>0.9939231642463646</v>
+        <v>1.013091893099918</v>
       </c>
       <c r="N23">
-        <v>1.000318752666167</v>
+        <v>1.010157387616189</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9789887339896892</v>
+        <v>0.9945494886909489</v>
       </c>
       <c r="D24">
-        <v>1.001347977419583</v>
+        <v>1.015049034740494</v>
       </c>
       <c r="E24">
-        <v>0.9927803992747323</v>
+        <v>1.006989276279342</v>
       </c>
       <c r="F24">
-        <v>0.9904513322321679</v>
+        <v>1.005144704718326</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035182770051796</v>
+        <v>1.043487125183474</v>
       </c>
       <c r="J24">
-        <v>1.007320294309203</v>
+        <v>1.022258978065076</v>
       </c>
       <c r="K24">
-        <v>1.015351462344445</v>
+        <v>1.028816927928373</v>
       </c>
       <c r="L24">
-        <v>1.006935496615044</v>
+        <v>1.020894754147194</v>
       </c>
       <c r="M24">
-        <v>1.004648234206253</v>
+        <v>1.0190820719491</v>
       </c>
       <c r="N24">
-        <v>1.008750804668375</v>
+        <v>1.01133414510561</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9916929645890625</v>
+        <v>1.001722400993974</v>
       </c>
       <c r="D25">
-        <v>1.010803329978217</v>
+        <v>1.020337213119701</v>
       </c>
       <c r="E25">
-        <v>1.004168692874935</v>
+        <v>1.013435935760005</v>
       </c>
       <c r="F25">
-        <v>1.00384272821949</v>
+        <v>1.013395980486178</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038806904244931</v>
+        <v>1.045839655713589</v>
       </c>
       <c r="J25">
-        <v>1.016503164582513</v>
+        <v>1.026191938187417</v>
       </c>
       <c r="K25">
-        <v>1.023236221466716</v>
+        <v>1.032627815085044</v>
       </c>
       <c r="L25">
-        <v>1.016702638110956</v>
+        <v>1.025829196103032</v>
       </c>
       <c r="M25">
-        <v>1.016381682236378</v>
+        <v>1.025789840355792</v>
       </c>
       <c r="N25">
-        <v>1.017946715670763</v>
+        <v>1.012644729979276</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.007238730014445</v>
+        <v>1.03096523827643</v>
       </c>
       <c r="D2">
-        <v>1.024412204489326</v>
+        <v>1.035670106207959</v>
       </c>
       <c r="E2">
-        <v>1.018415031698558</v>
+        <v>1.04016315221547</v>
       </c>
       <c r="F2">
-        <v>1.019769464275515</v>
+        <v>1.050173548980149</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047610704578611</v>
+        <v>1.036737571951997</v>
       </c>
       <c r="J2">
-        <v>1.029205066715005</v>
+        <v>1.036103572741627</v>
       </c>
       <c r="K2">
-        <v>1.03554160061875</v>
+        <v>1.038466046285523</v>
       </c>
       <c r="L2">
-        <v>1.029623641444672</v>
+        <v>1.042946280839702</v>
       </c>
       <c r="M2">
-        <v>1.030960081804756</v>
+        <v>1.052928561516346</v>
       </c>
       <c r="N2">
-        <v>1.013648791210781</v>
+        <v>1.016033180115432</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011133694634397</v>
+        <v>1.031781540173511</v>
       </c>
       <c r="D3">
-        <v>1.02729324702548</v>
+        <v>1.036287812876352</v>
       </c>
       <c r="E3">
-        <v>1.021942569160072</v>
+        <v>1.040962196227817</v>
       </c>
       <c r="F3">
-        <v>1.024286044826161</v>
+        <v>1.051222092908845</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04883837363666</v>
+        <v>1.036932112982919</v>
       </c>
       <c r="J3">
-        <v>1.031325377861186</v>
+        <v>1.036562229554795</v>
       </c>
       <c r="K3">
-        <v>1.03758842108315</v>
+        <v>1.038893705444089</v>
       </c>
       <c r="L3">
-        <v>1.032302182551503</v>
+        <v>1.043555721757979</v>
       </c>
       <c r="M3">
-        <v>1.034617332395505</v>
+        <v>1.053788890011594</v>
       </c>
       <c r="N3">
-        <v>1.014355298704626</v>
+        <v>1.016185515656919</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013605486206846</v>
+        <v>1.032310119955753</v>
       </c>
       <c r="D4">
-        <v>1.029123051344356</v>
+        <v>1.036687685725202</v>
       </c>
       <c r="E4">
-        <v>1.024186570337481</v>
+        <v>1.041480027669654</v>
       </c>
       <c r="F4">
-        <v>1.027160008008112</v>
+        <v>1.051901904800973</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049606654226647</v>
+        <v>1.037056755599795</v>
       </c>
       <c r="J4">
-        <v>1.032667451121545</v>
+        <v>1.036858724338186</v>
       </c>
       <c r="K4">
-        <v>1.038882247325221</v>
+        <v>1.039169912579465</v>
       </c>
       <c r="L4">
-        <v>1.03400159198323</v>
+        <v>1.043950212478039</v>
       </c>
       <c r="M4">
-        <v>1.036941324457312</v>
+        <v>1.054346309372932</v>
       </c>
       <c r="N4">
-        <v>1.014802458830594</v>
+        <v>1.016283970880135</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.014633373544999</v>
+        <v>1.032532423869958</v>
       </c>
       <c r="D5">
-        <v>1.029884279146725</v>
+        <v>1.036855832586624</v>
       </c>
       <c r="E5">
-        <v>1.025121006036897</v>
+        <v>1.041697913131681</v>
       </c>
       <c r="F5">
-        <v>1.028356996491779</v>
+        <v>1.052188015577204</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049923510346225</v>
+        <v>1.037108858123408</v>
       </c>
       <c r="J5">
-        <v>1.033224683059568</v>
+        <v>1.036983300960664</v>
       </c>
       <c r="K5">
-        <v>1.039419021000133</v>
+        <v>1.039285905118198</v>
       </c>
       <c r="L5">
-        <v>1.034708165693284</v>
+        <v>1.044116089058382</v>
       </c>
       <c r="M5">
-        <v>1.037908480474743</v>
+        <v>1.054580821696364</v>
       </c>
       <c r="N5">
-        <v>1.014988111464</v>
+        <v>1.016325333268882</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014805310583853</v>
+        <v>1.032569754849544</v>
       </c>
       <c r="D6">
-        <v>1.030011628424746</v>
+        <v>1.036884067500394</v>
       </c>
       <c r="E6">
-        <v>1.025277385627667</v>
+        <v>1.041734508104224</v>
       </c>
       <c r="F6">
-        <v>1.028557329186991</v>
+        <v>1.052236073432079</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049976355862178</v>
+        <v>1.037117588914797</v>
       </c>
       <c r="J6">
-        <v>1.033317840917283</v>
+        <v>1.037004213799173</v>
       </c>
       <c r="K6">
-        <v>1.039508733291519</v>
+        <v>1.039305373414765</v>
       </c>
       <c r="L6">
-        <v>1.034826348239437</v>
+        <v>1.044143942346541</v>
       </c>
       <c r="M6">
-        <v>1.038070301724191</v>
+        <v>1.05462020746551</v>
       </c>
       <c r="N6">
-        <v>1.015019148213556</v>
+        <v>1.016332276531344</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013619264642182</v>
+        <v>1.03231309004379</v>
       </c>
       <c r="D7">
-        <v>1.029133254144272</v>
+        <v>1.036689932355469</v>
       </c>
       <c r="E7">
-        <v>1.024199091078885</v>
+        <v>1.041482938324701</v>
       </c>
       <c r="F7">
-        <v>1.027176045816774</v>
+        <v>1.051905726580044</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049610912000848</v>
+        <v>1.03705745296512</v>
       </c>
       <c r="J7">
-        <v>1.032674924052186</v>
+        <v>1.036860389212714</v>
       </c>
       <c r="K7">
-        <v>1.038889447591794</v>
+        <v>1.039171462969865</v>
       </c>
       <c r="L7">
-        <v>1.034011063834027</v>
+        <v>1.043952428802161</v>
       </c>
       <c r="M7">
-        <v>1.036954285930288</v>
+        <v>1.054349442259137</v>
       </c>
       <c r="N7">
-        <v>1.014804948621538</v>
+        <v>1.016284523677659</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008565317897008</v>
+        <v>1.031241032188169</v>
       </c>
       <c r="D8">
-        <v>1.025393128693051</v>
+        <v>1.035878825769303</v>
       </c>
       <c r="E8">
-        <v>1.019615338585407</v>
+        <v>1.040433027009715</v>
       </c>
       <c r="F8">
-        <v>1.021306167155618</v>
+        <v>1.05052763224074</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048031080133105</v>
+        <v>1.036803573981459</v>
       </c>
       <c r="J8">
-        <v>1.029927942783061</v>
+        <v>1.036258636682795</v>
       </c>
       <c r="K8">
-        <v>1.036239778147866</v>
+        <v>1.038610682023415</v>
       </c>
       <c r="L8">
-        <v>1.030536004520719</v>
+        <v>1.043152214166994</v>
       </c>
       <c r="M8">
-        <v>1.032205064327695</v>
+        <v>1.053219161728522</v>
       </c>
       <c r="N8">
-        <v>1.013889665729194</v>
+        <v>1.016084686413746</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9992710754222814</v>
+        <v>1.029354889127461</v>
       </c>
       <c r="D9">
-        <v>1.018528580797944</v>
+        <v>1.034450968335421</v>
       </c>
       <c r="E9">
-        <v>1.011229387360303</v>
+        <v>1.038589118943525</v>
       </c>
       <c r="F9">
-        <v>1.010571775657407</v>
+        <v>1.048109534785613</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045041599707233</v>
+        <v>1.036346754850507</v>
       </c>
       <c r="J9">
-        <v>1.024849600179345</v>
+        <v>1.035196124123926</v>
       </c>
       <c r="K9">
-        <v>1.031328030899727</v>
+        <v>1.03761860754751</v>
       </c>
       <c r="L9">
-        <v>1.024142865448586</v>
+        <v>1.041743273750457</v>
       </c>
       <c r="M9">
-        <v>1.023495630504173</v>
+        <v>1.051233109213306</v>
       </c>
       <c r="N9">
-        <v>1.012197417117094</v>
+        <v>1.015731676518239</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9927885533684965</v>
+        <v>1.028099538674374</v>
       </c>
       <c r="D10">
-        <v>1.013752784697302</v>
+        <v>1.033500113939974</v>
       </c>
       <c r="E10">
-        <v>1.005411180144016</v>
+        <v>1.037364088257125</v>
       </c>
       <c r="F10">
-        <v>1.003124696041718</v>
+        <v>1.046504469160707</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042901937397273</v>
+        <v>1.036035898165679</v>
       </c>
       <c r="J10">
-        <v>1.02129123978017</v>
+        <v>1.034486404432568</v>
       </c>
       <c r="K10">
-        <v>1.027878090109877</v>
+        <v>1.036954668154839</v>
       </c>
       <c r="L10">
-        <v>1.019683416580214</v>
+        <v>1.040804820174183</v>
       </c>
       <c r="M10">
-        <v>1.017437761396208</v>
+        <v>1.049912951607176</v>
       </c>
       <c r="N10">
-        <v>1.011011675132052</v>
+        <v>1.015495774778218</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9899076056248625</v>
+        <v>1.027556469436907</v>
       </c>
       <c r="D11">
-        <v>1.011633871261518</v>
+        <v>1.03308865340405</v>
       </c>
       <c r="E11">
-        <v>1.002833083569783</v>
+        <v>1.036834661982568</v>
       </c>
       <c r="F11">
-        <v>0.9998243434372681</v>
+        <v>1.045811136322757</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041938625346575</v>
+        <v>1.035899806271125</v>
       </c>
       <c r="J11">
-        <v>1.01970635180034</v>
+        <v>1.034178774963379</v>
       </c>
       <c r="K11">
-        <v>1.026339674919882</v>
+        <v>1.036666583467217</v>
       </c>
       <c r="L11">
-        <v>1.017701769127025</v>
+        <v>1.040398674062472</v>
       </c>
       <c r="M11">
-        <v>1.014749573144152</v>
+        <v>1.049342245407989</v>
       </c>
       <c r="N11">
-        <v>1.010483574803915</v>
+        <v>1.015393498474148</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9888258300401797</v>
+        <v>1.027354826795218</v>
       </c>
       <c r="D12">
-        <v>1.010838824778698</v>
+        <v>1.032935860225649</v>
       </c>
       <c r="E12">
-        <v>1.001866198977985</v>
+        <v>1.036638164317478</v>
       </c>
       <c r="F12">
-        <v>0.9985864578121885</v>
+        <v>1.045553854152113</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04157509082177</v>
+        <v>1.035849032713899</v>
       </c>
       <c r="J12">
-        <v>1.019110746943332</v>
+        <v>1.034064461280493</v>
       </c>
       <c r="K12">
-        <v>1.025761274954136</v>
+        <v>1.03655948783448</v>
       </c>
       <c r="L12">
-        <v>1.016957732684911</v>
+        <v>1.040247846160852</v>
       </c>
       <c r="M12">
-        <v>1.01374078925828</v>
+        <v>1.049130400895868</v>
       </c>
       <c r="N12">
-        <v>1.010285119689554</v>
+        <v>1.015355489474593</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9890584115733783</v>
+        <v>1.02739807629791</v>
       </c>
       <c r="D13">
-        <v>1.011009731945528</v>
+        <v>1.032968632972538</v>
       </c>
       <c r="E13">
-        <v>1.002074025524336</v>
+        <v>1.036680306702289</v>
       </c>
       <c r="F13">
-        <v>0.9988525412019388</v>
+        <v>1.045609030601007</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04165333204231</v>
+        <v>1.035859933892454</v>
       </c>
       <c r="J13">
-        <v>1.019238823482971</v>
+        <v>1.034088984035619</v>
       </c>
       <c r="K13">
-        <v>1.025885663338268</v>
+        <v>1.036582464181547</v>
       </c>
       <c r="L13">
-        <v>1.017117697302351</v>
+        <v>1.040280197751621</v>
       </c>
       <c r="M13">
-        <v>1.013957649851832</v>
+        <v>1.049175835852472</v>
       </c>
       <c r="N13">
-        <v>1.010327794380655</v>
+        <v>1.01536364338861</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9898184269463213</v>
+        <v>1.027539800004746</v>
       </c>
       <c r="D14">
-        <v>1.011568317402751</v>
+        <v>1.033076022614307</v>
       </c>
       <c r="E14">
-        <v>1.002753352191759</v>
+        <v>1.036818416256802</v>
       </c>
       <c r="F14">
-        <v>0.9997222676456574</v>
+        <v>1.045789864138668</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041908693216601</v>
+        <v>1.035895613857348</v>
       </c>
       <c r="J14">
-        <v>1.019657261509049</v>
+        <v>1.034169326698901</v>
       </c>
       <c r="K14">
-        <v>1.02629200787231</v>
+        <v>1.036657732700325</v>
       </c>
       <c r="L14">
-        <v>1.017640431417465</v>
+        <v>1.040386205903893</v>
       </c>
       <c r="M14">
-        <v>1.014666399233046</v>
+        <v>1.04932473138669</v>
       </c>
       <c r="N14">
-        <v>1.010467217812777</v>
+        <v>1.015390357024216</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9902851349730915</v>
+        <v>1.027627130965126</v>
       </c>
       <c r="D15">
-        <v>1.011911411651252</v>
+        <v>1.033142194477136</v>
       </c>
       <c r="E15">
-        <v>1.003170666660436</v>
+        <v>1.036903530674378</v>
       </c>
       <c r="F15">
-        <v>1.000256527369391</v>
+        <v>1.045901315153506</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042065266302683</v>
+        <v>1.035917567937485</v>
       </c>
       <c r="J15">
-        <v>1.019914151020967</v>
+        <v>1.034218822349689</v>
       </c>
       <c r="K15">
-        <v>1.026541439043246</v>
+        <v>1.036704096472845</v>
       </c>
       <c r="L15">
-        <v>1.017961438948435</v>
+        <v>1.040451525414567</v>
       </c>
       <c r="M15">
-        <v>1.015101706869905</v>
+        <v>1.049416489587643</v>
       </c>
       <c r="N15">
-        <v>1.010552814223546</v>
+        <v>1.015406813667512</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9929781477133495</v>
+        <v>1.028135591172469</v>
       </c>
       <c r="D16">
-        <v>1.013892308466937</v>
+        <v>1.033527426960888</v>
       </c>
       <c r="E16">
-        <v>1.005581005119742</v>
+        <v>1.037399246161448</v>
       </c>
       <c r="F16">
-        <v>1.003342082917558</v>
+        <v>1.046550518710306</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042965077861981</v>
+        <v>1.036044898828747</v>
       </c>
       <c r="J16">
-        <v>1.021395470862588</v>
+        <v>1.034506814219945</v>
       </c>
       <c r="K16">
-        <v>1.027979228139783</v>
+        <v>1.036973774960325</v>
       </c>
       <c r="L16">
-        <v>1.019813834845984</v>
+        <v>1.04083177929318</v>
       </c>
       <c r="M16">
-        <v>1.017614754910964</v>
+        <v>1.049950847222765</v>
       </c>
       <c r="N16">
-        <v>1.011046406712101</v>
+        <v>1.015502559829637</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9946472213762718</v>
+        <v>1.028454671274912</v>
       </c>
       <c r="D17">
-        <v>1.015121001001098</v>
+        <v>1.033769145431895</v>
       </c>
       <c r="E17">
-        <v>1.007076912581201</v>
+        <v>1.037710469605574</v>
       </c>
       <c r="F17">
-        <v>1.00525687840338</v>
+        <v>1.046958195385669</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043519519889284</v>
+        <v>1.036124372021851</v>
       </c>
       <c r="J17">
-        <v>1.022312664499753</v>
+        <v>1.034687380042246</v>
       </c>
       <c r="K17">
-        <v>1.028868998867588</v>
+        <v>1.037142778800318</v>
       </c>
       <c r="L17">
-        <v>1.020961985344457</v>
+        <v>1.04107035972148</v>
       </c>
       <c r="M17">
-        <v>1.019173359070394</v>
+        <v>1.050286285788301</v>
       </c>
       <c r="N17">
-        <v>1.01135203469614</v>
+        <v>1.015562584533396</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9956136653899873</v>
+        <v>1.028640834003677</v>
       </c>
       <c r="D18">
-        <v>1.015832782842915</v>
+        <v>1.033910161250253</v>
       </c>
       <c r="E18">
-        <v>1.007943809918743</v>
+        <v>1.037892099294425</v>
       </c>
       <c r="F18">
-        <v>1.006366483828218</v>
+        <v>1.047196147439762</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043839376646861</v>
+        <v>1.036170583685208</v>
       </c>
       <c r="J18">
-        <v>1.022843413513901</v>
+        <v>1.034792670453008</v>
       </c>
       <c r="K18">
-        <v>1.029383705872818</v>
+        <v>1.037241298436974</v>
       </c>
       <c r="L18">
-        <v>1.021626817342945</v>
+        <v>1.041209539874836</v>
       </c>
       <c r="M18">
-        <v>1.02007622096976</v>
+        <v>1.050482031142459</v>
       </c>
       <c r="N18">
-        <v>1.011528893737467</v>
+        <v>1.015597583425863</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9959420099435062</v>
+        <v>1.028704318899752</v>
       </c>
       <c r="D19">
-        <v>1.016074661730907</v>
+        <v>1.033958248278624</v>
       </c>
       <c r="E19">
-        <v>1.00823845560236</v>
+        <v>1.037954046953559</v>
       </c>
       <c r="F19">
-        <v>1.006743616736502</v>
+        <v>1.047277310230454</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043947844541421</v>
+        <v>1.036186316271276</v>
       </c>
       <c r="J19">
-        <v>1.02302367525065</v>
+        <v>1.034828566542067</v>
       </c>
       <c r="K19">
-        <v>1.029558489370387</v>
+        <v>1.037274881307961</v>
       </c>
       <c r="L19">
-        <v>1.021852693025499</v>
+        <v>1.041257000103792</v>
       </c>
       <c r="M19">
-        <v>1.020383028634121</v>
+        <v>1.05054879042589</v>
       </c>
       <c r="N19">
-        <v>1.011588961870922</v>
+        <v>1.015609515011105</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9944688836544355</v>
+        <v>1.028420431951461</v>
       </c>
       <c r="D20">
-        <v>1.01498968243243</v>
+        <v>1.033743208675466</v>
       </c>
       <c r="E20">
-        <v>1.00691700231436</v>
+        <v>1.037677068094446</v>
       </c>
       <c r="F20">
-        <v>1.005052194452772</v>
+        <v>1.046914438858031</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043460400956645</v>
+        <v>1.036115860159284</v>
       </c>
       <c r="J20">
-        <v>1.02221469828308</v>
+        <v>1.034668010193304</v>
       </c>
       <c r="K20">
-        <v>1.028773979600924</v>
+        <v>1.037124652220948</v>
       </c>
       <c r="L20">
-        <v>1.020839305313664</v>
+        <v>1.041044760198498</v>
       </c>
       <c r="M20">
-        <v>1.019006785057803</v>
+        <v>1.050250287115504</v>
       </c>
       <c r="N20">
-        <v>1.011319390047851</v>
+        <v>1.015556145740979</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9895949479154734</v>
+        <v>1.027498063755601</v>
       </c>
       <c r="D21">
-        <v>1.011404051167276</v>
+        <v>1.033044397880098</v>
       </c>
       <c r="E21">
-        <v>1.002553566795474</v>
+        <v>1.03677774214874</v>
       </c>
       <c r="F21">
-        <v>0.9994664909137994</v>
+        <v>1.045736606186706</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041833655092528</v>
+        <v>1.035885113146194</v>
       </c>
       <c r="J21">
-        <v>1.019534234958236</v>
+        <v>1.034145669059122</v>
       </c>
       <c r="K21">
-        <v>1.026172544014583</v>
+        <v>1.036635570421607</v>
       </c>
       <c r="L21">
-        <v>1.01748672203043</v>
+        <v>1.040354988228621</v>
       </c>
       <c r="M21">
-        <v>1.014457977842679</v>
+        <v>1.049280881454881</v>
       </c>
       <c r="N21">
-        <v>1.010426225209358</v>
+        <v>1.015382491046372</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.986462732815426</v>
+        <v>1.026918583108886</v>
       </c>
       <c r="D22">
-        <v>1.00910322943038</v>
+        <v>1.032605269217951</v>
       </c>
       <c r="E22">
-        <v>0.9997562639241876</v>
+        <v>1.036213196784242</v>
       </c>
       <c r="F22">
-        <v>0.9958848484706058</v>
+        <v>1.044997517734924</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040777675246006</v>
+        <v>1.035738743674165</v>
       </c>
       <c r="J22">
-        <v>1.01780880739592</v>
+        <v>1.033816984539217</v>
       </c>
       <c r="K22">
-        <v>1.0244964811899</v>
+        <v>1.036327555837214</v>
       </c>
       <c r="L22">
-        <v>1.015332550820646</v>
+        <v>1.039921491869583</v>
       </c>
       <c r="M22">
-        <v>1.011538270498731</v>
+        <v>1.048672195138308</v>
       </c>
       <c r="N22">
-        <v>1.009851328413583</v>
+        <v>1.015273197563861</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.988129796633428</v>
+        <v>1.027225733729108</v>
       </c>
       <c r="D23">
-        <v>1.010327451951077</v>
+        <v>1.032838036190476</v>
       </c>
       <c r="E23">
-        <v>1.00124442244098</v>
+        <v>1.036512387457153</v>
       </c>
       <c r="F23">
-        <v>0.9977903651771619</v>
+        <v>1.045389183472696</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041340680119293</v>
+        <v>1.035816458904841</v>
       </c>
       <c r="J23">
-        <v>1.01872739039583</v>
+        <v>1.033991251450812</v>
       </c>
       <c r="K23">
-        <v>1.025388920712925</v>
+        <v>1.036490888094834</v>
       </c>
       <c r="L23">
-        <v>1.016479026382359</v>
+        <v>1.040151278010078</v>
       </c>
       <c r="M23">
-        <v>1.013091893099918</v>
+        <v>1.048994793331986</v>
       </c>
       <c r="N23">
-        <v>1.010157387616189</v>
+        <v>1.015331146389549</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9945494886909489</v>
+        <v>1.028435903077589</v>
       </c>
       <c r="D24">
-        <v>1.015049034740494</v>
+        <v>1.033754928300602</v>
       </c>
       <c r="E24">
-        <v>1.006989276279342</v>
+        <v>1.037692160495965</v>
       </c>
       <c r="F24">
-        <v>1.005144704718326</v>
+        <v>1.046934210051621</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043487125183474</v>
+        <v>1.036119706747693</v>
       </c>
       <c r="J24">
-        <v>1.022258978065076</v>
+        <v>1.034676762688882</v>
       </c>
       <c r="K24">
-        <v>1.028816927928373</v>
+        <v>1.037132843019543</v>
       </c>
       <c r="L24">
-        <v>1.020894754147194</v>
+        <v>1.041056327458656</v>
       </c>
       <c r="M24">
-        <v>1.0190820719491</v>
+        <v>1.050266553089134</v>
       </c>
       <c r="N24">
-        <v>1.01133414510561</v>
+        <v>1.015559055192792</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.001722400993974</v>
+        <v>1.029842142477711</v>
       </c>
       <c r="D25">
-        <v>1.020337213119701</v>
+        <v>1.034819925740068</v>
       </c>
       <c r="E25">
-        <v>1.013435935760005</v>
+        <v>1.039065072626984</v>
       </c>
       <c r="F25">
-        <v>1.013395980486178</v>
+        <v>1.048733443648346</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045839655713589</v>
+        <v>1.036465969080741</v>
       </c>
       <c r="J25">
-        <v>1.026191938187417</v>
+        <v>1.03547105680045</v>
       </c>
       <c r="K25">
-        <v>1.032627815085044</v>
+        <v>1.037875538307351</v>
       </c>
       <c r="L25">
-        <v>1.025829196103032</v>
+        <v>1.042107375946529</v>
       </c>
       <c r="M25">
-        <v>1.025789840355792</v>
+        <v>1.051745873933094</v>
       </c>
       <c r="N25">
-        <v>1.012644729979276</v>
+        <v>1.015823038806952</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03096523827643</v>
+        <v>1.007238730014444</v>
       </c>
       <c r="D2">
-        <v>1.035670106207959</v>
+        <v>1.024412204489325</v>
       </c>
       <c r="E2">
-        <v>1.04016315221547</v>
+        <v>1.018415031698557</v>
       </c>
       <c r="F2">
-        <v>1.050173548980149</v>
+        <v>1.019769464275513</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036737571951997</v>
+        <v>1.04761070457861</v>
       </c>
       <c r="J2">
-        <v>1.036103572741627</v>
+        <v>1.029205066715005</v>
       </c>
       <c r="K2">
-        <v>1.038466046285523</v>
+        <v>1.035541600618749</v>
       </c>
       <c r="L2">
-        <v>1.042946280839702</v>
+        <v>1.029623641444671</v>
       </c>
       <c r="M2">
-        <v>1.052928561516346</v>
+        <v>1.030960081804755</v>
       </c>
       <c r="N2">
-        <v>1.016033180115432</v>
+        <v>1.01364879121078</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031781540173511</v>
+        <v>1.011133694634398</v>
       </c>
       <c r="D3">
-        <v>1.036287812876352</v>
+        <v>1.027293247025481</v>
       </c>
       <c r="E3">
-        <v>1.040962196227817</v>
+        <v>1.021942569160073</v>
       </c>
       <c r="F3">
-        <v>1.051222092908845</v>
+        <v>1.024286044826163</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036932112982919</v>
+        <v>1.048838373636661</v>
       </c>
       <c r="J3">
-        <v>1.036562229554795</v>
+        <v>1.031325377861187</v>
       </c>
       <c r="K3">
-        <v>1.038893705444089</v>
+        <v>1.037588421083151</v>
       </c>
       <c r="L3">
-        <v>1.043555721757979</v>
+        <v>1.032302182551504</v>
       </c>
       <c r="M3">
-        <v>1.053788890011594</v>
+        <v>1.034617332395506</v>
       </c>
       <c r="N3">
-        <v>1.016185515656919</v>
+        <v>1.014355298704626</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032310119955753</v>
+        <v>1.013605486206846</v>
       </c>
       <c r="D4">
-        <v>1.036687685725202</v>
+        <v>1.029123051344357</v>
       </c>
       <c r="E4">
-        <v>1.041480027669654</v>
+        <v>1.024186570337481</v>
       </c>
       <c r="F4">
-        <v>1.051901904800973</v>
+        <v>1.027160008008112</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037056755599795</v>
+        <v>1.049606654226647</v>
       </c>
       <c r="J4">
-        <v>1.036858724338186</v>
+        <v>1.032667451121545</v>
       </c>
       <c r="K4">
-        <v>1.039169912579465</v>
+        <v>1.038882247325221</v>
       </c>
       <c r="L4">
-        <v>1.043950212478039</v>
+        <v>1.03400159198323</v>
       </c>
       <c r="M4">
-        <v>1.054346309372932</v>
+        <v>1.036941324457312</v>
       </c>
       <c r="N4">
-        <v>1.016283970880135</v>
+        <v>1.014802458830594</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032532423869958</v>
+        <v>1.014633373544999</v>
       </c>
       <c r="D5">
-        <v>1.036855832586624</v>
+        <v>1.029884279146725</v>
       </c>
       <c r="E5">
-        <v>1.041697913131681</v>
+        <v>1.025121006036898</v>
       </c>
       <c r="F5">
-        <v>1.052188015577204</v>
+        <v>1.028356996491779</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037108858123408</v>
+        <v>1.049923510346225</v>
       </c>
       <c r="J5">
-        <v>1.036983300960664</v>
+        <v>1.033224683059569</v>
       </c>
       <c r="K5">
-        <v>1.039285905118198</v>
+        <v>1.039419021000134</v>
       </c>
       <c r="L5">
-        <v>1.044116089058382</v>
+        <v>1.034708165693284</v>
       </c>
       <c r="M5">
-        <v>1.054580821696364</v>
+        <v>1.037908480474744</v>
       </c>
       <c r="N5">
-        <v>1.016325333268882</v>
+        <v>1.014988111464001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032569754849544</v>
+        <v>1.014805310583853</v>
       </c>
       <c r="D6">
-        <v>1.036884067500394</v>
+        <v>1.030011628424746</v>
       </c>
       <c r="E6">
-        <v>1.041734508104224</v>
+        <v>1.025277385627668</v>
       </c>
       <c r="F6">
-        <v>1.052236073432079</v>
+        <v>1.028557329186992</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037117588914797</v>
+        <v>1.049976355862178</v>
       </c>
       <c r="J6">
-        <v>1.037004213799173</v>
+        <v>1.033317840917283</v>
       </c>
       <c r="K6">
-        <v>1.039305373414765</v>
+        <v>1.039508733291519</v>
       </c>
       <c r="L6">
-        <v>1.044143942346541</v>
+        <v>1.034826348239437</v>
       </c>
       <c r="M6">
-        <v>1.05462020746551</v>
+        <v>1.038070301724191</v>
       </c>
       <c r="N6">
-        <v>1.016332276531344</v>
+        <v>1.015019148213556</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.03231309004379</v>
+        <v>1.013619264642182</v>
       </c>
       <c r="D7">
-        <v>1.036689932355469</v>
+        <v>1.029133254144272</v>
       </c>
       <c r="E7">
-        <v>1.041482938324701</v>
+        <v>1.024199091078885</v>
       </c>
       <c r="F7">
-        <v>1.051905726580044</v>
+        <v>1.027176045816774</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03705745296512</v>
+        <v>1.049610912000848</v>
       </c>
       <c r="J7">
-        <v>1.036860389212714</v>
+        <v>1.032674924052186</v>
       </c>
       <c r="K7">
-        <v>1.039171462969865</v>
+        <v>1.038889447591794</v>
       </c>
       <c r="L7">
-        <v>1.043952428802161</v>
+        <v>1.034011063834027</v>
       </c>
       <c r="M7">
-        <v>1.054349442259137</v>
+        <v>1.036954285930288</v>
       </c>
       <c r="N7">
-        <v>1.016284523677659</v>
+        <v>1.014804948621538</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031241032188169</v>
+        <v>1.008565317897008</v>
       </c>
       <c r="D8">
-        <v>1.035878825769303</v>
+        <v>1.025393128693051</v>
       </c>
       <c r="E8">
-        <v>1.040433027009715</v>
+        <v>1.019615338585407</v>
       </c>
       <c r="F8">
-        <v>1.05052763224074</v>
+        <v>1.021306167155618</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036803573981459</v>
+        <v>1.048031080133105</v>
       </c>
       <c r="J8">
-        <v>1.036258636682795</v>
+        <v>1.029927942783061</v>
       </c>
       <c r="K8">
-        <v>1.038610682023415</v>
+        <v>1.036239778147866</v>
       </c>
       <c r="L8">
-        <v>1.043152214166994</v>
+        <v>1.030536004520719</v>
       </c>
       <c r="M8">
-        <v>1.053219161728522</v>
+        <v>1.032205064327695</v>
       </c>
       <c r="N8">
-        <v>1.016084686413746</v>
+        <v>1.013889665729194</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029354889127461</v>
+        <v>0.9992710754222808</v>
       </c>
       <c r="D9">
-        <v>1.034450968335421</v>
+        <v>1.018528580797943</v>
       </c>
       <c r="E9">
-        <v>1.038589118943525</v>
+        <v>1.011229387360303</v>
       </c>
       <c r="F9">
-        <v>1.048109534785613</v>
+        <v>1.010571775657406</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036346754850507</v>
+        <v>1.045041599707233</v>
       </c>
       <c r="J9">
-        <v>1.035196124123926</v>
+        <v>1.024849600179345</v>
       </c>
       <c r="K9">
-        <v>1.03761860754751</v>
+        <v>1.031328030899726</v>
       </c>
       <c r="L9">
-        <v>1.041743273750457</v>
+        <v>1.024142865448586</v>
       </c>
       <c r="M9">
-        <v>1.051233109213306</v>
+        <v>1.023495630504172</v>
       </c>
       <c r="N9">
-        <v>1.015731676518239</v>
+        <v>1.012197417117094</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028099538674374</v>
+        <v>0.9927885533684966</v>
       </c>
       <c r="D10">
-        <v>1.033500113939974</v>
+        <v>1.013752784697302</v>
       </c>
       <c r="E10">
-        <v>1.037364088257125</v>
+        <v>1.005411180144016</v>
       </c>
       <c r="F10">
-        <v>1.046504469160707</v>
+        <v>1.003124696041718</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036035898165679</v>
+        <v>1.042901937397273</v>
       </c>
       <c r="J10">
-        <v>1.034486404432568</v>
+        <v>1.02129123978017</v>
       </c>
       <c r="K10">
-        <v>1.036954668154839</v>
+        <v>1.027878090109877</v>
       </c>
       <c r="L10">
-        <v>1.040804820174183</v>
+        <v>1.019683416580214</v>
       </c>
       <c r="M10">
-        <v>1.049912951607176</v>
+        <v>1.017437761396208</v>
       </c>
       <c r="N10">
-        <v>1.015495774778218</v>
+        <v>1.011011675132052</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027556469436907</v>
+        <v>0.9899076056248626</v>
       </c>
       <c r="D11">
-        <v>1.03308865340405</v>
+        <v>1.011633871261518</v>
       </c>
       <c r="E11">
-        <v>1.036834661982568</v>
+        <v>1.002833083569784</v>
       </c>
       <c r="F11">
-        <v>1.045811136322757</v>
+        <v>0.9998243434372687</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035899806271125</v>
+        <v>1.041938625346576</v>
       </c>
       <c r="J11">
-        <v>1.034178774963379</v>
+        <v>1.01970635180034</v>
       </c>
       <c r="K11">
-        <v>1.036666583467217</v>
+        <v>1.026339674919882</v>
       </c>
       <c r="L11">
-        <v>1.040398674062472</v>
+        <v>1.017701769127026</v>
       </c>
       <c r="M11">
-        <v>1.049342245407989</v>
+        <v>1.014749573144152</v>
       </c>
       <c r="N11">
-        <v>1.015393498474148</v>
+        <v>1.010483574803915</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027354826795218</v>
+        <v>0.9888258300401793</v>
       </c>
       <c r="D12">
-        <v>1.032935860225649</v>
+        <v>1.010838824778698</v>
       </c>
       <c r="E12">
-        <v>1.036638164317478</v>
+        <v>1.001866198977984</v>
       </c>
       <c r="F12">
-        <v>1.045553854152113</v>
+        <v>0.9985864578121884</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035849032713899</v>
+        <v>1.04157509082177</v>
       </c>
       <c r="J12">
-        <v>1.034064461280493</v>
+        <v>1.019110746943332</v>
       </c>
       <c r="K12">
-        <v>1.03655948783448</v>
+        <v>1.025761274954136</v>
       </c>
       <c r="L12">
-        <v>1.040247846160852</v>
+        <v>1.016957732684911</v>
       </c>
       <c r="M12">
-        <v>1.049130400895868</v>
+        <v>1.01374078925828</v>
       </c>
       <c r="N12">
-        <v>1.015355489474593</v>
+        <v>1.010285119689554</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02739807629791</v>
+        <v>0.9890584115733788</v>
       </c>
       <c r="D13">
-        <v>1.032968632972538</v>
+        <v>1.011009731945528</v>
       </c>
       <c r="E13">
-        <v>1.036680306702289</v>
+        <v>1.002074025524337</v>
       </c>
       <c r="F13">
-        <v>1.045609030601007</v>
+        <v>0.9988525412019387</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035859933892454</v>
+        <v>1.04165333204231</v>
       </c>
       <c r="J13">
-        <v>1.034088984035619</v>
+        <v>1.019238823482971</v>
       </c>
       <c r="K13">
-        <v>1.036582464181547</v>
+        <v>1.025885663338268</v>
       </c>
       <c r="L13">
-        <v>1.040280197751621</v>
+        <v>1.017117697302351</v>
       </c>
       <c r="M13">
-        <v>1.049175835852472</v>
+        <v>1.013957649851832</v>
       </c>
       <c r="N13">
-        <v>1.01536364338861</v>
+        <v>1.010327794380656</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027539800004746</v>
+        <v>0.9898184269463203</v>
       </c>
       <c r="D14">
-        <v>1.033076022614307</v>
+        <v>1.01156831740275</v>
       </c>
       <c r="E14">
-        <v>1.036818416256802</v>
+        <v>1.002753352191758</v>
       </c>
       <c r="F14">
-        <v>1.045789864138668</v>
+        <v>0.9997222676456561</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035895613857348</v>
+        <v>1.041908693216601</v>
       </c>
       <c r="J14">
-        <v>1.034169326698901</v>
+        <v>1.019657261509048</v>
       </c>
       <c r="K14">
-        <v>1.036657732700325</v>
+        <v>1.026292007872309</v>
       </c>
       <c r="L14">
-        <v>1.040386205903893</v>
+        <v>1.017640431417464</v>
       </c>
       <c r="M14">
-        <v>1.04932473138669</v>
+        <v>1.014666399233045</v>
       </c>
       <c r="N14">
-        <v>1.015390357024216</v>
+        <v>1.010467217812777</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027627130965126</v>
+        <v>0.9902851349730913</v>
       </c>
       <c r="D15">
-        <v>1.033142194477136</v>
+        <v>1.011911411651252</v>
       </c>
       <c r="E15">
-        <v>1.036903530674378</v>
+        <v>1.003170666660436</v>
       </c>
       <c r="F15">
-        <v>1.045901315153506</v>
+        <v>1.000256527369391</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035917567937485</v>
+        <v>1.042065266302683</v>
       </c>
       <c r="J15">
-        <v>1.034218822349689</v>
+        <v>1.019914151020967</v>
       </c>
       <c r="K15">
-        <v>1.036704096472845</v>
+        <v>1.026541439043247</v>
       </c>
       <c r="L15">
-        <v>1.040451525414567</v>
+        <v>1.017961438948434</v>
       </c>
       <c r="M15">
-        <v>1.049416489587643</v>
+        <v>1.015101706869904</v>
       </c>
       <c r="N15">
-        <v>1.015406813667512</v>
+        <v>1.010552814223546</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028135591172469</v>
+        <v>0.9929781477133492</v>
       </c>
       <c r="D16">
-        <v>1.033527426960888</v>
+        <v>1.013892308466937</v>
       </c>
       <c r="E16">
-        <v>1.037399246161448</v>
+        <v>1.005581005119742</v>
       </c>
       <c r="F16">
-        <v>1.046550518710306</v>
+        <v>1.003342082917557</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036044898828747</v>
+        <v>1.042965077861981</v>
       </c>
       <c r="J16">
-        <v>1.034506814219945</v>
+        <v>1.021395470862588</v>
       </c>
       <c r="K16">
-        <v>1.036973774960325</v>
+        <v>1.027979228139782</v>
       </c>
       <c r="L16">
-        <v>1.04083177929318</v>
+        <v>1.019813834845984</v>
       </c>
       <c r="M16">
-        <v>1.049950847222765</v>
+        <v>1.017614754910964</v>
       </c>
       <c r="N16">
-        <v>1.015502559829637</v>
+        <v>1.011046406712101</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028454671274912</v>
+        <v>0.9946472213762717</v>
       </c>
       <c r="D17">
-        <v>1.033769145431895</v>
+        <v>1.015121001001098</v>
       </c>
       <c r="E17">
-        <v>1.037710469605574</v>
+        <v>1.007076912581201</v>
       </c>
       <c r="F17">
-        <v>1.046958195385669</v>
+        <v>1.005256878403379</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036124372021851</v>
+        <v>1.043519519889284</v>
       </c>
       <c r="J17">
-        <v>1.034687380042246</v>
+        <v>1.022312664499753</v>
       </c>
       <c r="K17">
-        <v>1.037142778800318</v>
+        <v>1.028868998867588</v>
       </c>
       <c r="L17">
-        <v>1.04107035972148</v>
+        <v>1.020961985344457</v>
       </c>
       <c r="M17">
-        <v>1.050286285788301</v>
+        <v>1.019173359070393</v>
       </c>
       <c r="N17">
-        <v>1.015562584533396</v>
+        <v>1.011352034696139</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028640834003677</v>
+        <v>0.9956136653899866</v>
       </c>
       <c r="D18">
-        <v>1.033910161250253</v>
+        <v>1.015832782842914</v>
       </c>
       <c r="E18">
-        <v>1.037892099294425</v>
+        <v>1.007943809918742</v>
       </c>
       <c r="F18">
-        <v>1.047196147439762</v>
+        <v>1.006366483828217</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036170583685208</v>
+        <v>1.04383937664686</v>
       </c>
       <c r="J18">
-        <v>1.034792670453008</v>
+        <v>1.022843413513901</v>
       </c>
       <c r="K18">
-        <v>1.037241298436974</v>
+        <v>1.029383705872818</v>
       </c>
       <c r="L18">
-        <v>1.041209539874836</v>
+        <v>1.021626817342944</v>
       </c>
       <c r="M18">
-        <v>1.050482031142459</v>
+        <v>1.020076220969759</v>
       </c>
       <c r="N18">
-        <v>1.015597583425863</v>
+        <v>1.011528893737466</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028704318899752</v>
+        <v>0.995942009943506</v>
       </c>
       <c r="D19">
-        <v>1.033958248278624</v>
+        <v>1.016074661730907</v>
       </c>
       <c r="E19">
-        <v>1.037954046953559</v>
+        <v>1.008238455602359</v>
       </c>
       <c r="F19">
-        <v>1.047277310230454</v>
+        <v>1.006743616736502</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036186316271276</v>
+        <v>1.04394784454142</v>
       </c>
       <c r="J19">
-        <v>1.034828566542067</v>
+        <v>1.023023675250649</v>
       </c>
       <c r="K19">
-        <v>1.037274881307961</v>
+        <v>1.029558489370387</v>
       </c>
       <c r="L19">
-        <v>1.041257000103792</v>
+        <v>1.021852693025498</v>
       </c>
       <c r="M19">
-        <v>1.05054879042589</v>
+        <v>1.02038302863412</v>
       </c>
       <c r="N19">
-        <v>1.015609515011105</v>
+        <v>1.011588961870922</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028420431951461</v>
+        <v>0.9944688836544353</v>
       </c>
       <c r="D20">
-        <v>1.033743208675466</v>
+        <v>1.01498968243243</v>
       </c>
       <c r="E20">
-        <v>1.037677068094446</v>
+        <v>1.00691700231436</v>
       </c>
       <c r="F20">
-        <v>1.046914438858031</v>
+        <v>1.005052194452772</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036115860159284</v>
+        <v>1.043460400956644</v>
       </c>
       <c r="J20">
-        <v>1.034668010193304</v>
+        <v>1.02221469828308</v>
       </c>
       <c r="K20">
-        <v>1.037124652220948</v>
+        <v>1.028773979600924</v>
       </c>
       <c r="L20">
-        <v>1.041044760198498</v>
+        <v>1.020839305313664</v>
       </c>
       <c r="M20">
-        <v>1.050250287115504</v>
+        <v>1.019006785057803</v>
       </c>
       <c r="N20">
-        <v>1.015556145740979</v>
+        <v>1.011319390047851</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027498063755601</v>
+        <v>0.9895949479154721</v>
       </c>
       <c r="D21">
-        <v>1.033044397880098</v>
+        <v>1.011404051167275</v>
       </c>
       <c r="E21">
-        <v>1.03677774214874</v>
+        <v>1.002553566795473</v>
       </c>
       <c r="F21">
-        <v>1.045736606186706</v>
+        <v>0.9994664909137979</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035885113146194</v>
+        <v>1.041833655092527</v>
       </c>
       <c r="J21">
-        <v>1.034145669059122</v>
+        <v>1.019534234958235</v>
       </c>
       <c r="K21">
-        <v>1.036635570421607</v>
+        <v>1.026172544014581</v>
       </c>
       <c r="L21">
-        <v>1.040354988228621</v>
+        <v>1.017486722030428</v>
       </c>
       <c r="M21">
-        <v>1.049280881454881</v>
+        <v>1.014457977842678</v>
       </c>
       <c r="N21">
-        <v>1.015382491046372</v>
+        <v>1.010426225209357</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026918583108886</v>
+        <v>0.9864627328154254</v>
       </c>
       <c r="D22">
-        <v>1.032605269217951</v>
+        <v>1.009103229430379</v>
       </c>
       <c r="E22">
-        <v>1.036213196784242</v>
+        <v>0.9997562639241865</v>
       </c>
       <c r="F22">
-        <v>1.044997517734924</v>
+        <v>0.9958848484706048</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035738743674165</v>
+        <v>1.040777675246005</v>
       </c>
       <c r="J22">
-        <v>1.033816984539217</v>
+        <v>1.017808807395919</v>
       </c>
       <c r="K22">
-        <v>1.036327555837214</v>
+        <v>1.024496481189899</v>
       </c>
       <c r="L22">
-        <v>1.039921491869583</v>
+        <v>1.015332550820645</v>
       </c>
       <c r="M22">
-        <v>1.048672195138308</v>
+        <v>1.01153827049873</v>
       </c>
       <c r="N22">
-        <v>1.015273197563861</v>
+        <v>1.009851328413583</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027225733729108</v>
+        <v>0.9881297966334281</v>
       </c>
       <c r="D23">
-        <v>1.032838036190476</v>
+        <v>1.010327451951077</v>
       </c>
       <c r="E23">
-        <v>1.036512387457153</v>
+        <v>1.00124442244098</v>
       </c>
       <c r="F23">
-        <v>1.045389183472696</v>
+        <v>0.9977903651771619</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035816458904841</v>
+        <v>1.041340680119293</v>
       </c>
       <c r="J23">
-        <v>1.033991251450812</v>
+        <v>1.01872739039583</v>
       </c>
       <c r="K23">
-        <v>1.036490888094834</v>
+        <v>1.025388920712925</v>
       </c>
       <c r="L23">
-        <v>1.040151278010078</v>
+        <v>1.016479026382359</v>
       </c>
       <c r="M23">
-        <v>1.048994793331986</v>
+        <v>1.013091893099918</v>
       </c>
       <c r="N23">
-        <v>1.015331146389549</v>
+        <v>1.010157387616189</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028435903077589</v>
+        <v>0.9945494886909485</v>
       </c>
       <c r="D24">
-        <v>1.033754928300602</v>
+        <v>1.015049034740494</v>
       </c>
       <c r="E24">
-        <v>1.037692160495965</v>
+        <v>1.006989276279342</v>
       </c>
       <c r="F24">
-        <v>1.046934210051621</v>
+        <v>1.005144704718325</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036119706747693</v>
+        <v>1.043487125183474</v>
       </c>
       <c r="J24">
-        <v>1.034676762688882</v>
+        <v>1.022258978065075</v>
       </c>
       <c r="K24">
-        <v>1.037132843019543</v>
+        <v>1.028816927928372</v>
       </c>
       <c r="L24">
-        <v>1.041056327458656</v>
+        <v>1.020894754147194</v>
       </c>
       <c r="M24">
-        <v>1.050266553089134</v>
+        <v>1.0190820719491</v>
       </c>
       <c r="N24">
-        <v>1.015559055192792</v>
+        <v>1.01133414510561</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029842142477711</v>
+        <v>1.001722400993973</v>
       </c>
       <c r="D25">
-        <v>1.034819925740068</v>
+        <v>1.0203372131197</v>
       </c>
       <c r="E25">
-        <v>1.039065072626984</v>
+        <v>1.013435935760004</v>
       </c>
       <c r="F25">
-        <v>1.048733443648346</v>
+        <v>1.013395980486178</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036465969080741</v>
+        <v>1.045839655713588</v>
       </c>
       <c r="J25">
-        <v>1.03547105680045</v>
+        <v>1.026191938187417</v>
       </c>
       <c r="K25">
-        <v>1.037875538307351</v>
+        <v>1.032627815085043</v>
       </c>
       <c r="L25">
-        <v>1.042107375946529</v>
+        <v>1.025829196103031</v>
       </c>
       <c r="M25">
-        <v>1.051745873933094</v>
+        <v>1.025789840355792</v>
       </c>
       <c r="N25">
-        <v>1.015823038806952</v>
+        <v>1.012644729979276</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.007238730014444</v>
+        <v>1.008419830343444</v>
       </c>
       <c r="D2">
-        <v>1.024412204489325</v>
+        <v>1.025540125905532</v>
       </c>
       <c r="E2">
-        <v>1.018415031698557</v>
+        <v>1.02215237991088</v>
       </c>
       <c r="F2">
-        <v>1.019769464275513</v>
+        <v>1.030093782403268</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04761070457861</v>
+        <v>1.04505619572818</v>
       </c>
       <c r="J2">
-        <v>1.029205066715005</v>
+        <v>1.03035158946577</v>
       </c>
       <c r="K2">
-        <v>1.035541600618749</v>
+        <v>1.036654753581592</v>
       </c>
       <c r="L2">
-        <v>1.029623641444671</v>
+        <v>1.03331148805428</v>
       </c>
       <c r="M2">
-        <v>1.030960081804755</v>
+        <v>1.041149198251951</v>
       </c>
       <c r="N2">
-        <v>1.01364879121078</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014014535345401</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.041139220481643</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.036988345394756</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011133694634398</v>
+        <v>1.01161000353417</v>
       </c>
       <c r="D3">
-        <v>1.027293247025481</v>
+        <v>1.027578675368064</v>
       </c>
       <c r="E3">
-        <v>1.021942569160073</v>
+        <v>1.024707615664647</v>
       </c>
       <c r="F3">
-        <v>1.024286044826163</v>
+        <v>1.032760751606526</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048838373636661</v>
+        <v>1.04567305820499</v>
       </c>
       <c r="J3">
-        <v>1.031325377861187</v>
+        <v>1.031789095229426</v>
       </c>
       <c r="K3">
-        <v>1.037588421083151</v>
+        <v>1.037870435336867</v>
       </c>
       <c r="L3">
-        <v>1.032302182551504</v>
+        <v>1.035033824732045</v>
       </c>
       <c r="M3">
-        <v>1.034617332395506</v>
+        <v>1.042990933753726</v>
       </c>
       <c r="N3">
-        <v>1.014355298704626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014500175964984</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.042596827887604</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.037845269237589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013605486206846</v>
+        <v>1.013641461055572</v>
       </c>
       <c r="D4">
-        <v>1.029123051344357</v>
+        <v>1.028880657575001</v>
       </c>
       <c r="E4">
-        <v>1.024186570337481</v>
+        <v>1.026340254908137</v>
       </c>
       <c r="F4">
-        <v>1.027160008008112</v>
+        <v>1.034467166224875</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049606654226647</v>
+        <v>1.046058395461319</v>
       </c>
       <c r="J4">
-        <v>1.032667451121545</v>
+        <v>1.032702538732897</v>
       </c>
       <c r="K4">
-        <v>1.038882247325221</v>
+        <v>1.038642579333141</v>
       </c>
       <c r="L4">
-        <v>1.03400159198323</v>
+        <v>1.036130839578016</v>
       </c>
       <c r="M4">
-        <v>1.036941324457312</v>
+        <v>1.044166665528802</v>
       </c>
       <c r="N4">
-        <v>1.014802458830594</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014808756597993</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.043527337465095</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.038392140150905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014633373544999</v>
+        <v>1.01449014584263</v>
       </c>
       <c r="D5">
-        <v>1.029884279146725</v>
+        <v>1.029427589187514</v>
       </c>
       <c r="E5">
-        <v>1.025121006036898</v>
+        <v>1.027023626346897</v>
       </c>
       <c r="F5">
-        <v>1.028356996491779</v>
+        <v>1.035181363411027</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049923510346225</v>
+        <v>1.046218875928279</v>
       </c>
       <c r="J5">
-        <v>1.033224683059569</v>
+        <v>1.033084883125784</v>
       </c>
       <c r="K5">
-        <v>1.039419021000134</v>
+        <v>1.038967330899494</v>
       </c>
       <c r="L5">
-        <v>1.034708165693284</v>
+        <v>1.03658977680906</v>
       </c>
       <c r="M5">
-        <v>1.037908480474744</v>
+        <v>1.044658507897648</v>
       </c>
       <c r="N5">
-        <v>1.014988111464001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014938113862009</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.043916595993153</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038628950972169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014805310583853</v>
+        <v>1.014635019392883</v>
       </c>
       <c r="D6">
-        <v>1.030011628424746</v>
+        <v>1.029523556241663</v>
       </c>
       <c r="E6">
-        <v>1.025277385627668</v>
+        <v>1.02714036029605</v>
       </c>
       <c r="F6">
-        <v>1.028557329186992</v>
+        <v>1.035302632342368</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049976355862178</v>
+        <v>1.046247767455845</v>
       </c>
       <c r="J6">
-        <v>1.033317840917283</v>
+        <v>1.033151604434391</v>
       </c>
       <c r="K6">
-        <v>1.039508733291519</v>
+        <v>1.039025980266141</v>
       </c>
       <c r="L6">
-        <v>1.034826348239437</v>
+        <v>1.036668846274402</v>
       </c>
       <c r="M6">
-        <v>1.038070301724191</v>
+        <v>1.0447424687965</v>
       </c>
       <c r="N6">
-        <v>1.015019148213556</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014960927537851</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.043983045099135</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038679181592184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013619264642182</v>
+        <v>1.013660400147308</v>
       </c>
       <c r="D7">
-        <v>1.029133254144272</v>
+        <v>1.028899681629731</v>
       </c>
       <c r="E7">
-        <v>1.024199091078885</v>
+        <v>1.026355515735292</v>
       </c>
       <c r="F7">
-        <v>1.027176045816774</v>
+        <v>1.034481061777019</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049610912000848</v>
+        <v>1.046066282955014</v>
       </c>
       <c r="J7">
-        <v>1.032674924052186</v>
+        <v>1.03271504545822</v>
       </c>
       <c r="K7">
-        <v>1.038889447591794</v>
+        <v>1.038658500689482</v>
       </c>
       <c r="L7">
-        <v>1.034011063834027</v>
+        <v>1.036143029409792</v>
       </c>
       <c r="M7">
-        <v>1.036954285930288</v>
+        <v>1.044177538922292</v>
       </c>
       <c r="N7">
-        <v>1.014804948621538</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014813641712688</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.043535942991007</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.038423546247676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008565317897008</v>
+        <v>1.009514279965701</v>
       </c>
       <c r="D8">
-        <v>1.025393128693051</v>
+        <v>1.026247074147887</v>
       </c>
       <c r="E8">
-        <v>1.019615338585407</v>
+        <v>1.023027910237184</v>
       </c>
       <c r="F8">
-        <v>1.021306167155618</v>
+        <v>1.031004564846762</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048031080133105</v>
+        <v>1.045274636673506</v>
       </c>
       <c r="J8">
-        <v>1.029927942783061</v>
+        <v>1.030850047500087</v>
       </c>
       <c r="K8">
-        <v>1.036239778147866</v>
+        <v>1.037082872395326</v>
       </c>
       <c r="L8">
-        <v>1.030536004520719</v>
+        <v>1.033904733048461</v>
       </c>
       <c r="M8">
-        <v>1.032205064327695</v>
+        <v>1.041780319327378</v>
       </c>
       <c r="N8">
-        <v>1.013889665729194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014183788017998</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.041638709882396</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037314012940623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9992710754222808</v>
+        <v>1.001935886224016</v>
       </c>
       <c r="D9">
-        <v>1.018528580797943</v>
+        <v>1.021419619235648</v>
       </c>
       <c r="E9">
-        <v>1.011229387360303</v>
+        <v>1.016990138028868</v>
       </c>
       <c r="F9">
-        <v>1.010571775657406</v>
+        <v>1.024718542112</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045041599707233</v>
+        <v>1.043763079552273</v>
       </c>
       <c r="J9">
-        <v>1.024849600179345</v>
+        <v>1.027420468079176</v>
       </c>
       <c r="K9">
-        <v>1.031328030899726</v>
+        <v>1.034174480619215</v>
       </c>
       <c r="L9">
-        <v>1.024142865448586</v>
+        <v>1.029813447712397</v>
       </c>
       <c r="M9">
-        <v>1.023495630504172</v>
+        <v>1.037422915834941</v>
       </c>
       <c r="N9">
-        <v>1.012197417117094</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013024385182661</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038190114360226</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035254403206875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9927885533684966</v>
+        <v>0.9967535271824927</v>
       </c>
       <c r="D10">
-        <v>1.013752784697302</v>
+        <v>1.018149979128956</v>
       </c>
       <c r="E10">
-        <v>1.005411180144016</v>
+        <v>1.012951474502913</v>
       </c>
       <c r="F10">
-        <v>1.003124696041718</v>
+        <v>1.02059298534233</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042901937397273</v>
+        <v>1.042708626178023</v>
       </c>
       <c r="J10">
-        <v>1.02129123978017</v>
+        <v>1.025096545341733</v>
       </c>
       <c r="K10">
-        <v>1.027878090109877</v>
+        <v>1.032199084464611</v>
       </c>
       <c r="L10">
-        <v>1.019683416580214</v>
+        <v>1.027090758313045</v>
       </c>
       <c r="M10">
-        <v>1.017437761396208</v>
+        <v>1.034600121872536</v>
       </c>
       <c r="N10">
-        <v>1.011011675132052</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01224184920296</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.036007644566941</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.033874519028617</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9899076056248626</v>
+        <v>0.9949252647427449</v>
       </c>
       <c r="D11">
-        <v>1.011633871261518</v>
+        <v>1.01705974423302</v>
       </c>
       <c r="E11">
-        <v>1.002833083569784</v>
+        <v>1.012005105100131</v>
       </c>
       <c r="F11">
-        <v>0.9998243434372687</v>
+        <v>1.020169720232848</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041938625346576</v>
+        <v>1.042454103665265</v>
       </c>
       <c r="J11">
-        <v>1.01970635180034</v>
+        <v>1.024510693207924</v>
       </c>
       <c r="K11">
-        <v>1.026339674919882</v>
+        <v>1.031666953767533</v>
       </c>
       <c r="L11">
-        <v>1.017701769127026</v>
+        <v>1.026704119162697</v>
       </c>
       <c r="M11">
-        <v>1.014749573144152</v>
+        <v>1.034721032180316</v>
       </c>
       <c r="N11">
-        <v>1.010483574803915</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012069602149607</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.036540517163118</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033531188831753</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9888258300401793</v>
+        <v>0.9944090032407047</v>
       </c>
       <c r="D12">
-        <v>1.010838824778698</v>
+        <v>1.016773899198968</v>
       </c>
       <c r="E12">
-        <v>1.001866198977984</v>
+        <v>1.011951247327627</v>
       </c>
       <c r="F12">
-        <v>0.9985864578121884</v>
+        <v>1.020510097705198</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.04157509082177</v>
+        <v>1.042436139001337</v>
       </c>
       <c r="J12">
-        <v>1.019110746943332</v>
+        <v>1.0244518835213</v>
       </c>
       <c r="K12">
-        <v>1.025761274954136</v>
+        <v>1.031586642284295</v>
       </c>
       <c r="L12">
-        <v>1.016957732684911</v>
+        <v>1.026853007074545</v>
       </c>
       <c r="M12">
-        <v>1.01374078925828</v>
+        <v>1.03525463039158</v>
       </c>
       <c r="N12">
-        <v>1.010285119689554</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012069772919788</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037289481339011</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033474405812812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9890584115733788</v>
+        <v>0.9948746833412745</v>
       </c>
       <c r="D13">
-        <v>1.011009731945528</v>
+        <v>1.017098898680297</v>
       </c>
       <c r="E13">
-        <v>1.002074025524337</v>
+        <v>1.012588086967138</v>
       </c>
       <c r="F13">
-        <v>0.9988525412019387</v>
+        <v>1.021480821548448</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04165333204231</v>
+        <v>1.042608474728867</v>
       </c>
       <c r="J13">
-        <v>1.019238823482971</v>
+        <v>1.024804130023426</v>
       </c>
       <c r="K13">
-        <v>1.025885663338268</v>
+        <v>1.031862722821461</v>
       </c>
       <c r="L13">
-        <v>1.017117697302351</v>
+        <v>1.02743479062362</v>
       </c>
       <c r="M13">
-        <v>1.013957649851832</v>
+        <v>1.036165045593425</v>
       </c>
       <c r="N13">
-        <v>1.010327794380656</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012206714121983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.03828628474328</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.033667107149311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9898184269463203</v>
+        <v>0.9956442109441463</v>
       </c>
       <c r="D14">
-        <v>1.01156831740275</v>
+        <v>1.017603591115935</v>
       </c>
       <c r="E14">
-        <v>1.002753352191758</v>
+        <v>1.013341768174959</v>
       </c>
       <c r="F14">
-        <v>0.9997222676456561</v>
+        <v>1.022439855438695</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041908693216601</v>
+        <v>1.042814894261284</v>
       </c>
       <c r="J14">
-        <v>1.019657261509048</v>
+        <v>1.025235240090564</v>
       </c>
       <c r="K14">
-        <v>1.026292007872309</v>
+        <v>1.032217537644723</v>
       </c>
       <c r="L14">
-        <v>1.017640431417464</v>
+        <v>1.028033034117733</v>
       </c>
       <c r="M14">
-        <v>1.014666399233045</v>
+        <v>1.036967074374163</v>
       </c>
       <c r="N14">
-        <v>1.010467217812777</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012364089467418</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039093702938425</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.033919400902915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9902851349730913</v>
+        <v>0.9960500498119949</v>
       </c>
       <c r="D15">
-        <v>1.011911411651252</v>
+        <v>1.01786516838538</v>
       </c>
       <c r="E15">
-        <v>1.003170666660436</v>
+        <v>1.013687554492767</v>
       </c>
       <c r="F15">
-        <v>1.000256527369391</v>
+        <v>1.022833372037099</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042065266302683</v>
+        <v>1.042910006358423</v>
       </c>
       <c r="J15">
-        <v>1.019914151020967</v>
+        <v>1.025435989890431</v>
       </c>
       <c r="K15">
-        <v>1.026541439043247</v>
+        <v>1.032387757472447</v>
       </c>
       <c r="L15">
-        <v>1.017961438948434</v>
+        <v>1.028285358785338</v>
       </c>
       <c r="M15">
-        <v>1.015101706869904</v>
+        <v>1.037267549217542</v>
       </c>
       <c r="N15">
-        <v>1.010552814223546</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012434530563656</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039368750729094</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.0340456338064</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9929781477133492</v>
+        <v>0.9981439435536462</v>
       </c>
       <c r="D16">
-        <v>1.013892308466937</v>
+        <v>1.019179685792627</v>
       </c>
       <c r="E16">
-        <v>1.005581005119742</v>
+        <v>1.015272341399022</v>
       </c>
       <c r="F16">
-        <v>1.003342082917557</v>
+        <v>1.024429264490593</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042965077861981</v>
+        <v>1.043332417522179</v>
       </c>
       <c r="J16">
-        <v>1.021395470862588</v>
+        <v>1.026354373762875</v>
       </c>
       <c r="K16">
-        <v>1.027979228139782</v>
+        <v>1.033175382882021</v>
       </c>
       <c r="L16">
-        <v>1.019813834845984</v>
+        <v>1.029335332951172</v>
       </c>
       <c r="M16">
-        <v>1.017614754910964</v>
+        <v>1.038335593221072</v>
       </c>
       <c r="N16">
-        <v>1.011046406712101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012740562681443</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04017419713651</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034605689827937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9946472213762717</v>
+        <v>0.9993512858206017</v>
       </c>
       <c r="D17">
-        <v>1.015121001001098</v>
+        <v>1.019927554358661</v>
       </c>
       <c r="E17">
-        <v>1.007076912581201</v>
+        <v>1.016097018646418</v>
       </c>
       <c r="F17">
-        <v>1.005256878403379</v>
+        <v>1.02514760748394</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043519519889284</v>
+        <v>1.043547450369039</v>
       </c>
       <c r="J17">
-        <v>1.022312664499753</v>
+        <v>1.026834416003364</v>
       </c>
       <c r="K17">
-        <v>1.028868998867588</v>
+        <v>1.03359497577481</v>
       </c>
       <c r="L17">
-        <v>1.020961985344457</v>
+        <v>1.029828575134049</v>
       </c>
       <c r="M17">
-        <v>1.019173359070393</v>
+        <v>1.038728621481248</v>
       </c>
       <c r="N17">
-        <v>1.011352034696139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012893241577148</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040355758998969</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.034904953618249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9956136653899866</v>
+        <v>0.9998949207162892</v>
       </c>
       <c r="D18">
-        <v>1.015832782842914</v>
+        <v>1.020240756302963</v>
       </c>
       <c r="E18">
-        <v>1.007943809918742</v>
+        <v>1.016302739569846</v>
       </c>
       <c r="F18">
-        <v>1.006366483828217</v>
+        <v>1.0251006774506</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04383937664686</v>
+        <v>1.043595105961331</v>
       </c>
       <c r="J18">
-        <v>1.022843413513901</v>
+        <v>1.026961898407921</v>
       </c>
       <c r="K18">
-        <v>1.029383705872818</v>
+        <v>1.033719020769481</v>
       </c>
       <c r="L18">
-        <v>1.021626817342944</v>
+        <v>1.029845877459788</v>
       </c>
       <c r="M18">
-        <v>1.020076220969759</v>
+        <v>1.038499763632878</v>
       </c>
       <c r="N18">
-        <v>1.011528893737466</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012920586319691</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039936983727719</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034981000808493</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.995942009943506</v>
+        <v>0.999843760357738</v>
       </c>
       <c r="D19">
-        <v>1.016074661730907</v>
+        <v>1.02017499847832</v>
       </c>
       <c r="E19">
-        <v>1.008238455602359</v>
+        <v>1.015941689121327</v>
       </c>
       <c r="F19">
-        <v>1.006743616736502</v>
+        <v>1.02434321752932</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04394784454142</v>
+        <v>1.043500233647336</v>
       </c>
       <c r="J19">
-        <v>1.023023675250649</v>
+        <v>1.026778009774232</v>
       </c>
       <c r="K19">
-        <v>1.029558489370387</v>
+        <v>1.0335916144804</v>
       </c>
       <c r="L19">
-        <v>1.021852693025498</v>
+        <v>1.029427708097384</v>
       </c>
       <c r="M19">
-        <v>1.02038302863412</v>
+        <v>1.037692217041731</v>
       </c>
       <c r="N19">
-        <v>1.011588961870922</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012839653737779</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038972570962688</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034897326997688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9944688836544353</v>
+        <v>0.9981148252287121</v>
       </c>
       <c r="D20">
-        <v>1.01498968243243</v>
+        <v>1.019024020904613</v>
       </c>
       <c r="E20">
-        <v>1.00691700231436</v>
+        <v>1.0140131701672</v>
       </c>
       <c r="F20">
-        <v>1.005052194452772</v>
+        <v>1.02167531444036</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043460400956644</v>
+        <v>1.042999254527693</v>
       </c>
       <c r="J20">
-        <v>1.02221469828308</v>
+        <v>1.025718611121114</v>
       </c>
       <c r="K20">
-        <v>1.028773979600924</v>
+        <v>1.032740405558936</v>
       </c>
       <c r="L20">
-        <v>1.020839305313664</v>
+        <v>1.027814010421405</v>
       </c>
       <c r="M20">
-        <v>1.019006785057803</v>
+        <v>1.035347444380758</v>
       </c>
       <c r="N20">
-        <v>1.011319390047851</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012453369788337</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.03658849274555</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.034299413072576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9895949479154721</v>
+        <v>0.9941449776948196</v>
       </c>
       <c r="D21">
-        <v>1.011404051167275</v>
+        <v>1.016514326431732</v>
       </c>
       <c r="E21">
-        <v>1.002553566795473</v>
+        <v>1.010840052913448</v>
       </c>
       <c r="F21">
-        <v>0.9994664909137979</v>
+        <v>1.018332739338593</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041833655092527</v>
+        <v>1.042153634141868</v>
       </c>
       <c r="J21">
-        <v>1.019534234958235</v>
+        <v>1.023889551182309</v>
       </c>
       <c r="K21">
-        <v>1.026172544014581</v>
+        <v>1.031189441723486</v>
       </c>
       <c r="L21">
-        <v>1.017486722030428</v>
+        <v>1.025618926806884</v>
       </c>
       <c r="M21">
-        <v>1.014457977842678</v>
+        <v>1.03297492159964</v>
       </c>
       <c r="N21">
-        <v>1.010426225209357</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011832790522398</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.034669805116982</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.033206047178846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9864627328154254</v>
+        <v>0.9916254503564556</v>
       </c>
       <c r="D22">
-        <v>1.009103229430379</v>
+        <v>1.014923638279182</v>
       </c>
       <c r="E22">
-        <v>0.9997562639241865</v>
+        <v>1.008862476592217</v>
       </c>
       <c r="F22">
-        <v>0.9958848484706048</v>
+        <v>1.016287633680462</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040777675246005</v>
+        <v>1.041612961646361</v>
       </c>
       <c r="J22">
-        <v>1.017808807395919</v>
+        <v>1.022737662799243</v>
       </c>
       <c r="K22">
-        <v>1.024496481189899</v>
+        <v>1.030205141002488</v>
       </c>
       <c r="L22">
-        <v>1.015332550820645</v>
+        <v>1.024260387083348</v>
       </c>
       <c r="M22">
-        <v>1.01153827049873</v>
+        <v>1.031543190421937</v>
       </c>
       <c r="N22">
-        <v>1.009851328413583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.011442562209661</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.033536675709906</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.03249656319982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9881297966334281</v>
+        <v>0.9929584101367784</v>
       </c>
       <c r="D23">
-        <v>1.010327451951077</v>
+        <v>1.015758735544887</v>
       </c>
       <c r="E23">
-        <v>1.00124442244098</v>
+        <v>1.009907829342847</v>
       </c>
       <c r="F23">
-        <v>0.9977903651771619</v>
+        <v>1.017370237876071</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.041340680119293</v>
+        <v>1.041896045830409</v>
       </c>
       <c r="J23">
-        <v>1.01872739039583</v>
+        <v>1.023343727890331</v>
       </c>
       <c r="K23">
-        <v>1.025388920712925</v>
+        <v>1.030718605901244</v>
       </c>
       <c r="L23">
-        <v>1.016479026382359</v>
+        <v>1.024977207046898</v>
       </c>
       <c r="M23">
-        <v>1.013091893099918</v>
+        <v>1.032300235279494</v>
       </c>
       <c r="N23">
-        <v>1.010157387616189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011647162187832</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.034135831563455</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032849951000442</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9945494886909485</v>
+        <v>0.9981251484827849</v>
       </c>
       <c r="D24">
-        <v>1.015049034740494</v>
+        <v>1.019016232082596</v>
       </c>
       <c r="E24">
-        <v>1.006989276279342</v>
+        <v>1.013975019077357</v>
       </c>
       <c r="F24">
-        <v>1.005144704718325</v>
+        <v>1.021584939233877</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043487125183474</v>
+        <v>1.042984018263665</v>
       </c>
       <c r="J24">
-        <v>1.022258978065075</v>
+        <v>1.025695560781559</v>
       </c>
       <c r="K24">
-        <v>1.028816927928372</v>
+        <v>1.032717433043115</v>
       </c>
       <c r="L24">
-        <v>1.020894754147194</v>
+        <v>1.027761083304902</v>
       </c>
       <c r="M24">
-        <v>1.0190820719491</v>
+        <v>1.035243313649297</v>
       </c>
       <c r="N24">
-        <v>1.01133414510561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012442329390881</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.036465097731011</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.034255707309371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001722400993973</v>
+        <v>1.003939220777555</v>
       </c>
       <c r="D25">
-        <v>1.0203372131197</v>
+        <v>1.022702284450787</v>
       </c>
       <c r="E25">
-        <v>1.013435935760004</v>
+        <v>1.01858098039698</v>
       </c>
       <c r="F25">
-        <v>1.013395980486178</v>
+        <v>1.026369433211214</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045839655713588</v>
+        <v>1.044175787393239</v>
       </c>
       <c r="J25">
-        <v>1.026191938187417</v>
+        <v>1.028334737806709</v>
       </c>
       <c r="K25">
-        <v>1.032627815085043</v>
+        <v>1.034958109991474</v>
       </c>
       <c r="L25">
-        <v>1.025829196103031</v>
+        <v>1.030897539098107</v>
       </c>
       <c r="M25">
-        <v>1.025789840355792</v>
+        <v>1.038571738236709</v>
       </c>
       <c r="N25">
-        <v>1.012644729979276</v>
+        <v>1.013334599557729</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039099332613257</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035837121020693</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_49/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_49/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008419830343444</v>
+        <v>1.008201790562282</v>
       </c>
       <c r="D2">
-        <v>1.025540125905532</v>
+        <v>1.024894488060965</v>
       </c>
       <c r="E2">
-        <v>1.02215237991088</v>
+        <v>1.021986610431053</v>
       </c>
       <c r="F2">
-        <v>1.030093782403268</v>
+        <v>1.029975987063096</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04505619572818</v>
+        <v>1.044806372827593</v>
       </c>
       <c r="J2">
-        <v>1.03035158946577</v>
+        <v>1.03013992459283</v>
       </c>
       <c r="K2">
-        <v>1.036654753581592</v>
+        <v>1.036017564419618</v>
       </c>
       <c r="L2">
-        <v>1.03331148805428</v>
+        <v>1.033147904586951</v>
       </c>
       <c r="M2">
-        <v>1.041149198251951</v>
+        <v>1.041032926366096</v>
       </c>
       <c r="N2">
-        <v>1.014014535345401</v>
+        <v>1.015185824554306</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041139220481643</v>
+        <v>1.041047199155447</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.036988345394756</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036546588370731</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021669740581523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.01161000353417</v>
+        <v>1.011302274703936</v>
       </c>
       <c r="D3">
-        <v>1.027578675368064</v>
+        <v>1.026805466240691</v>
       </c>
       <c r="E3">
-        <v>1.024707615664647</v>
+        <v>1.0244714214536</v>
       </c>
       <c r="F3">
-        <v>1.032760751606526</v>
+        <v>1.032593086314228</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.04567305820499</v>
+        <v>1.045361728713723</v>
       </c>
       <c r="J3">
-        <v>1.031789095229426</v>
+        <v>1.031489499567914</v>
       </c>
       <c r="K3">
-        <v>1.037870435336867</v>
+        <v>1.037106480231696</v>
       </c>
       <c r="L3">
-        <v>1.035033824732045</v>
+        <v>1.034800475222855</v>
       </c>
       <c r="M3">
-        <v>1.042990933753726</v>
+        <v>1.042825248819106</v>
       </c>
       <c r="N3">
-        <v>1.014500175964984</v>
+        <v>1.01554815044936</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.042596827887604</v>
+        <v>1.042465699738871</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037845269237589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037313602852968</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021862550987299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.013641461055572</v>
+        <v>1.013277136215786</v>
       </c>
       <c r="D4">
-        <v>1.028880657575001</v>
+        <v>1.028026540600994</v>
       </c>
       <c r="E4">
-        <v>1.026340254908137</v>
+        <v>1.026059591607692</v>
       </c>
       <c r="F4">
-        <v>1.034467166224875</v>
+        <v>1.034268063910041</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046058395461319</v>
+        <v>1.045708027237588</v>
       </c>
       <c r="J4">
-        <v>1.032702538732897</v>
+        <v>1.032347203053968</v>
       </c>
       <c r="K4">
-        <v>1.038642579333141</v>
+        <v>1.037798079734402</v>
       </c>
       <c r="L4">
-        <v>1.036130839578016</v>
+        <v>1.035853353683168</v>
       </c>
       <c r="M4">
-        <v>1.044166665528802</v>
+        <v>1.043969773686733</v>
       </c>
       <c r="N4">
-        <v>1.014808756597993</v>
+        <v>1.015778443095468</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.043527337465095</v>
+        <v>1.043371511407522</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038392140150905</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.037803604967331</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021982673583709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01449014584263</v>
+        <v>1.014102298850425</v>
       </c>
       <c r="D5">
-        <v>1.029427589187514</v>
+        <v>1.028539795893612</v>
       </c>
       <c r="E5">
-        <v>1.027023626346897</v>
+        <v>1.02672447468558</v>
       </c>
       <c r="F5">
-        <v>1.035181363411027</v>
+        <v>1.034969202777174</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046218875928279</v>
+        <v>1.045852242021285</v>
       </c>
       <c r="J5">
-        <v>1.033084883125784</v>
+        <v>1.032706324730588</v>
       </c>
       <c r="K5">
-        <v>1.038967330899494</v>
+        <v>1.038089272805252</v>
       </c>
       <c r="L5">
-        <v>1.03658977680906</v>
+        <v>1.036293922112779</v>
       </c>
       <c r="M5">
-        <v>1.044658507897648</v>
+        <v>1.04444864027382</v>
       </c>
       <c r="N5">
-        <v>1.014938113862009</v>
+        <v>1.015875028642749</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.043916595993153</v>
+        <v>1.043750500603625</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038628950972169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.03801739831809</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022033120810897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014635019392883</v>
+        <v>1.014243168030449</v>
       </c>
       <c r="D6">
-        <v>1.029523556241663</v>
+        <v>1.028630076321907</v>
       </c>
       <c r="E6">
-        <v>1.02714036029605</v>
+        <v>1.026838059975538</v>
       </c>
       <c r="F6">
-        <v>1.035302632342368</v>
+        <v>1.035088248334037</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046247767455845</v>
+        <v>1.045878374538616</v>
       </c>
       <c r="J6">
-        <v>1.033151604434391</v>
+        <v>1.032769090163493</v>
       </c>
       <c r="K6">
-        <v>1.039025980266141</v>
+        <v>1.038142253815747</v>
       </c>
       <c r="L6">
-        <v>1.036668846274402</v>
+        <v>1.036369862443653</v>
       </c>
       <c r="M6">
-        <v>1.0447424687965</v>
+        <v>1.044530391273976</v>
       </c>
       <c r="N6">
-        <v>1.014960927537851</v>
+        <v>1.015892100761884</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.043983045099135</v>
+        <v>1.043815200746082</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038679181592184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038064489586517</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022042799680028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013660400147308</v>
+        <v>1.013301723511685</v>
       </c>
       <c r="D7">
-        <v>1.028899681629731</v>
+        <v>1.028049369416704</v>
       </c>
       <c r="E7">
-        <v>1.026355515735292</v>
+        <v>1.026079377978288</v>
       </c>
       <c r="F7">
-        <v>1.034481061777019</v>
+        <v>1.034285170615863</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046066282955014</v>
+        <v>1.045718499083236</v>
       </c>
       <c r="J7">
-        <v>1.03271504545822</v>
+        <v>1.032365214883271</v>
       </c>
       <c r="K7">
-        <v>1.038658500689482</v>
+        <v>1.037817759336447</v>
       </c>
       <c r="L7">
-        <v>1.036143029409792</v>
+        <v>1.035870016649462</v>
       </c>
       <c r="M7">
-        <v>1.044177538922292</v>
+        <v>1.043983821778593</v>
       </c>
       <c r="N7">
-        <v>1.014813641712688</v>
+        <v>1.01580953556165</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.043535942991007</v>
+        <v>1.043382629486186</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038423546247676</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.037839666856795</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021988050798773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.009514279965701</v>
+        <v>1.009284303512402</v>
       </c>
       <c r="D8">
-        <v>1.026247074147887</v>
+        <v>1.025571349155576</v>
       </c>
       <c r="E8">
-        <v>1.023027910237184</v>
+        <v>1.022853080630357</v>
       </c>
       <c r="F8">
-        <v>1.031004564846762</v>
+        <v>1.030880375361633</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045274636673506</v>
+        <v>1.045012678782743</v>
       </c>
       <c r="J8">
-        <v>1.030850047500087</v>
+        <v>1.0306265734594</v>
       </c>
       <c r="K8">
-        <v>1.037082872395326</v>
+        <v>1.036415732073949</v>
       </c>
       <c r="L8">
-        <v>1.033904733048461</v>
+        <v>1.033732140684361</v>
       </c>
       <c r="M8">
-        <v>1.041780319327378</v>
+        <v>1.041657688438763</v>
       </c>
       <c r="N8">
-        <v>1.014183788017998</v>
+        <v>1.015395343318262</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041638709882396</v>
+        <v>1.041541655902719</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037314012940623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.03685334503863</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021744067322224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001935886224016</v>
+        <v>1.001924951580649</v>
       </c>
       <c r="D9">
-        <v>1.021419619235648</v>
+        <v>1.021050784172795</v>
       </c>
       <c r="E9">
-        <v>1.016990138028868</v>
+        <v>1.016987145624882</v>
       </c>
       <c r="F9">
-        <v>1.024718542112</v>
+        <v>1.024716411153958</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043763079552273</v>
+        <v>1.043649278516913</v>
       </c>
       <c r="J9">
-        <v>1.027420468079176</v>
+        <v>1.027409917488111</v>
       </c>
       <c r="K9">
-        <v>1.034174480619215</v>
+        <v>1.03381131619366</v>
       </c>
       <c r="L9">
-        <v>1.029813447712397</v>
+        <v>1.029810501807243</v>
       </c>
       <c r="M9">
-        <v>1.037422915834941</v>
+        <v>1.037420817355909</v>
       </c>
       <c r="N9">
-        <v>1.013024385182661</v>
+        <v>1.014540725291019</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038190114360226</v>
+        <v>1.038188453549424</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035254403206875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035008383301668</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021268502708999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9967535271824927</v>
+        <v>0.9969216569030145</v>
       </c>
       <c r="D10">
-        <v>1.018149979128956</v>
+        <v>1.018010969354481</v>
       </c>
       <c r="E10">
-        <v>1.012951474502913</v>
+        <v>1.013089084650673</v>
       </c>
       <c r="F10">
-        <v>1.02059298534233</v>
+        <v>1.020691132812826</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.042708626178023</v>
+        <v>1.042708883361663</v>
       </c>
       <c r="J10">
-        <v>1.025096545341733</v>
+        <v>1.025257944300081</v>
       </c>
       <c r="K10">
-        <v>1.032199084464611</v>
+        <v>1.032062470594644</v>
       </c>
       <c r="L10">
-        <v>1.027090758313045</v>
+        <v>1.027225965893907</v>
       </c>
       <c r="M10">
-        <v>1.034600121872536</v>
+        <v>1.034696588675769</v>
       </c>
       <c r="N10">
-        <v>1.01224184920296</v>
+        <v>1.014081468822118</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036007644566941</v>
+        <v>1.036083987261721</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033874519028617</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033790360583157</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020943720445151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9949252647427449</v>
+        <v>0.9951893955064437</v>
       </c>
       <c r="D11">
-        <v>1.01705974423302</v>
+        <v>1.017019335169869</v>
       </c>
       <c r="E11">
-        <v>1.012005105100131</v>
+        <v>1.012217807153567</v>
       </c>
       <c r="F11">
-        <v>1.020169720232848</v>
+        <v>1.020321274865377</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.042454103665265</v>
+        <v>1.04250726026562</v>
       </c>
       <c r="J11">
-        <v>1.024510693207924</v>
+        <v>1.024763679733802</v>
       </c>
       <c r="K11">
-        <v>1.031666953767533</v>
+        <v>1.031627273927105</v>
       </c>
       <c r="L11">
-        <v>1.026704119162697</v>
+        <v>1.026912933972488</v>
       </c>
       <c r="M11">
-        <v>1.034721032180316</v>
+        <v>1.034869874133299</v>
       </c>
       <c r="N11">
-        <v>1.012069602149607</v>
+        <v>1.014194869591469</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036540517163118</v>
+        <v>1.036658249378544</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033531188831753</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033518780487613</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020895214950337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9944090032407047</v>
+        <v>0.9947022228862847</v>
       </c>
       <c r="D12">
-        <v>1.016773899198968</v>
+        <v>1.016759584086986</v>
       </c>
       <c r="E12">
-        <v>1.011951247327627</v>
+        <v>1.012186142904909</v>
       </c>
       <c r="F12">
-        <v>1.020510097705198</v>
+        <v>1.020677308083773</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.042436139001337</v>
+        <v>1.042503609221336</v>
       </c>
       <c r="J12">
-        <v>1.0244518835213</v>
+        <v>1.024732498886416</v>
       </c>
       <c r="K12">
-        <v>1.031586642284295</v>
+        <v>1.031572589773631</v>
       </c>
       <c r="L12">
-        <v>1.026853007074545</v>
+        <v>1.027083541311821</v>
       </c>
       <c r="M12">
-        <v>1.03525463039158</v>
+        <v>1.035418803259869</v>
       </c>
       <c r="N12">
-        <v>1.012069772919788</v>
+        <v>1.01430214763223</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037289481339011</v>
+        <v>1.037419296032911</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033474405812812</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033480117695267</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020907957381549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9948746833412745</v>
+        <v>0.9951385745233878</v>
       </c>
       <c r="D13">
-        <v>1.017098898680297</v>
+        <v>1.01705024366978</v>
       </c>
       <c r="E13">
-        <v>1.012588086967138</v>
+        <v>1.012799098799826</v>
       </c>
       <c r="F13">
-        <v>1.021480821548448</v>
+        <v>1.021630880993345</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.042608474728867</v>
+        <v>1.042657454460129</v>
       </c>
       <c r="J13">
-        <v>1.024804130023426</v>
+        <v>1.025056733797115</v>
       </c>
       <c r="K13">
-        <v>1.031862722821461</v>
+        <v>1.031814956669086</v>
       </c>
       <c r="L13">
-        <v>1.02743479062362</v>
+        <v>1.027641903970073</v>
       </c>
       <c r="M13">
-        <v>1.036165045593425</v>
+        <v>1.036312394844971</v>
       </c>
       <c r="N13">
-        <v>1.012206714121983</v>
+        <v>1.014379533765399</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.03828628474328</v>
+        <v>1.038402767354651</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033667107149311</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033648736313068</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020972117173994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9956442109441463</v>
+        <v>0.9958616429076803</v>
       </c>
       <c r="D14">
-        <v>1.017603591115935</v>
+        <v>1.017504061275952</v>
       </c>
       <c r="E14">
-        <v>1.013341768174959</v>
+        <v>1.013515736067475</v>
       </c>
       <c r="F14">
-        <v>1.022439855438695</v>
+        <v>1.022563484006438</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.042814894261284</v>
+        <v>1.042836440898461</v>
       </c>
       <c r="J14">
-        <v>1.025235240090564</v>
+        <v>1.025443503279084</v>
       </c>
       <c r="K14">
-        <v>1.032217537644723</v>
+        <v>1.032119803905675</v>
       </c>
       <c r="L14">
-        <v>1.028033034117733</v>
+        <v>1.028203829258068</v>
       </c>
       <c r="M14">
-        <v>1.036967074374163</v>
+        <v>1.037088499898813</v>
       </c>
       <c r="N14">
-        <v>1.012364089467418</v>
+        <v>1.014420989275434</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039093702938425</v>
+        <v>1.039189679353325</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033919400902915</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033865835297864</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021040568413405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9960500498119949</v>
+        <v>0.9962439337188881</v>
       </c>
       <c r="D15">
-        <v>1.01786516838538</v>
+        <v>1.017740352197616</v>
       </c>
       <c r="E15">
-        <v>1.013687554492767</v>
+        <v>1.013842911157547</v>
       </c>
       <c r="F15">
-        <v>1.022833372037099</v>
+        <v>1.022943750816948</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.042910006358423</v>
+        <v>1.042917962963818</v>
       </c>
       <c r="J15">
-        <v>1.025435989890431</v>
+        <v>1.025621768298728</v>
       </c>
       <c r="K15">
-        <v>1.032387757472447</v>
+        <v>1.032265176894862</v>
       </c>
       <c r="L15">
-        <v>1.028285358785338</v>
+        <v>1.028437903924492</v>
       </c>
       <c r="M15">
-        <v>1.037267549217542</v>
+        <v>1.037375976394067</v>
       </c>
       <c r="N15">
-        <v>1.012434530563656</v>
+        <v>1.014429246249436</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039368750729094</v>
+        <v>1.039454450815711</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.0340456338064</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033975069497299</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021070352532431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9981439435536462</v>
+        <v>0.9982272226067253</v>
       </c>
       <c r="D16">
-        <v>1.019179685792627</v>
+        <v>1.018935471071678</v>
       </c>
       <c r="E16">
-        <v>1.015272341399022</v>
+        <v>1.015340970364075</v>
       </c>
       <c r="F16">
-        <v>1.024429264490593</v>
+        <v>1.024477998170503</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.043332417522179</v>
+        <v>1.043277077508511</v>
       </c>
       <c r="J16">
-        <v>1.026354373762875</v>
+        <v>1.02643434227525</v>
       </c>
       <c r="K16">
-        <v>1.033175382882021</v>
+        <v>1.032935354620824</v>
       </c>
       <c r="L16">
-        <v>1.029335332951172</v>
+        <v>1.029402774168569</v>
       </c>
       <c r="M16">
-        <v>1.038335593221072</v>
+        <v>1.038383502799559</v>
       </c>
       <c r="N16">
-        <v>1.012740562681443</v>
+        <v>1.014438754482299</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04017419713651</v>
+        <v>1.04021206561378</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034605689827937</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034452385557882</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021191678072054</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9993512858206017</v>
+        <v>0.9993808074388054</v>
       </c>
       <c r="D17">
-        <v>1.019927554358661</v>
+        <v>1.019623101605664</v>
       </c>
       <c r="E17">
-        <v>1.016097018646418</v>
+        <v>1.016123734714367</v>
       </c>
       <c r="F17">
-        <v>1.02514760748394</v>
+        <v>1.025166578003159</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043547450369039</v>
+        <v>1.043460917763435</v>
       </c>
       <c r="J17">
-        <v>1.026834416003364</v>
+        <v>1.026862801116474</v>
       </c>
       <c r="K17">
-        <v>1.03359497577481</v>
+        <v>1.033295597797128</v>
       </c>
       <c r="L17">
-        <v>1.029828575134049</v>
+        <v>1.029854841732649</v>
       </c>
       <c r="M17">
-        <v>1.038728621481248</v>
+        <v>1.038747280045968</v>
       </c>
       <c r="N17">
-        <v>1.012893241577148</v>
+        <v>1.014453182628864</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040355758998969</v>
+        <v>1.040370508487901</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034904953618249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034709934726165</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021249834061793</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9998949207162892</v>
+        <v>0.9999064566011002</v>
       </c>
       <c r="D18">
-        <v>1.020240756302963</v>
+        <v>1.019915976852843</v>
       </c>
       <c r="E18">
-        <v>1.016302739569846</v>
+        <v>1.016315731788473</v>
       </c>
       <c r="F18">
-        <v>1.0251006774506</v>
+        <v>1.025109907614557</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043595105961331</v>
+        <v>1.043498479300995</v>
       </c>
       <c r="J18">
-        <v>1.026961898407921</v>
+        <v>1.026972998358904</v>
       </c>
       <c r="K18">
-        <v>1.033719020769481</v>
+        <v>1.033399567242588</v>
       </c>
       <c r="L18">
-        <v>1.029845877459788</v>
+        <v>1.029858654585478</v>
       </c>
       <c r="M18">
-        <v>1.038499763632878</v>
+        <v>1.038508844335245</v>
       </c>
       <c r="N18">
-        <v>1.012920586319691</v>
+        <v>1.014430429135641</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039936983727719</v>
+        <v>1.03994416346823</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034981000808493</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034770653214127</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021252642896825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.999843760357738</v>
+        <v>0.9998644413877853</v>
       </c>
       <c r="D19">
-        <v>1.02017499847832</v>
+        <v>1.019862322385593</v>
       </c>
       <c r="E19">
-        <v>1.015941689121327</v>
+        <v>1.015962314689432</v>
       </c>
       <c r="F19">
-        <v>1.02434321752932</v>
+        <v>1.024357886108406</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043500233647336</v>
+        <v>1.043410146100079</v>
       </c>
       <c r="J19">
-        <v>1.026778009774232</v>
+        <v>1.026797913749859</v>
       </c>
       <c r="K19">
-        <v>1.0335916144804</v>
+        <v>1.033284039230164</v>
       </c>
       <c r="L19">
-        <v>1.029427708097384</v>
+        <v>1.029447993715845</v>
       </c>
       <c r="M19">
-        <v>1.037692217041731</v>
+        <v>1.037706648915449</v>
       </c>
       <c r="N19">
-        <v>1.012839653737779</v>
+        <v>1.014358085482145</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038972570962688</v>
+        <v>1.03898398539195</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034897326997688</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034696002596907</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021209908963021</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9981148252287121</v>
+        <v>0.9982184672298254</v>
       </c>
       <c r="D20">
-        <v>1.019024020904613</v>
+        <v>1.018812354355043</v>
       </c>
       <c r="E20">
-        <v>1.0140131701672</v>
+        <v>1.014099824359976</v>
       </c>
       <c r="F20">
-        <v>1.02167531444036</v>
+        <v>1.0217370930738</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042999254527693</v>
+        <v>1.042961341732185</v>
       </c>
       <c r="J20">
-        <v>1.025718611121114</v>
+        <v>1.025818237136026</v>
       </c>
       <c r="K20">
-        <v>1.032740405558936</v>
+        <v>1.032532284890604</v>
       </c>
       <c r="L20">
-        <v>1.027814010421405</v>
+        <v>1.027899194943573</v>
       </c>
       <c r="M20">
-        <v>1.035347444380758</v>
+        <v>1.035408195347536</v>
       </c>
       <c r="N20">
-        <v>1.012453369788337</v>
+        <v>1.014135143949997</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.03658849274555</v>
+        <v>1.036636570928003</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034299413072576</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034168797020887</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021033884285094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9941449776948196</v>
+        <v>0.994472167462107</v>
       </c>
       <c r="D21">
-        <v>1.016514326431732</v>
+        <v>1.016542177914889</v>
       </c>
       <c r="E21">
-        <v>1.010840052913448</v>
+        <v>1.011103981957194</v>
       </c>
       <c r="F21">
-        <v>1.018332739338593</v>
+        <v>1.018521186792176</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.042153634141868</v>
+        <v>1.042244470014965</v>
       </c>
       <c r="J21">
-        <v>1.023889551182309</v>
+        <v>1.024202837063312</v>
       </c>
       <c r="K21">
-        <v>1.031189441723486</v>
+        <v>1.031216787636383</v>
       </c>
       <c r="L21">
-        <v>1.025618926806884</v>
+        <v>1.025877996050062</v>
       </c>
       <c r="M21">
-        <v>1.03297492159964</v>
+        <v>1.033159964849772</v>
       </c>
       <c r="N21">
-        <v>1.011832790522398</v>
+        <v>1.014114563048109</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.034669805116982</v>
+        <v>1.034816255624743</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033206047178846</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.03324224257391</v>
+      </c>
+      <c r="S21">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T21">
+        <v>1.020786004608682</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9916254503564556</v>
+        <v>0.9920935670424829</v>
       </c>
       <c r="D22">
-        <v>1.014923638279182</v>
+        <v>1.015102618619576</v>
       </c>
       <c r="E22">
-        <v>1.008862476592217</v>
+        <v>1.009238262718866</v>
       </c>
       <c r="F22">
-        <v>1.016287633680462</v>
+        <v>1.01655618002756</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.041612961646361</v>
+        <v>1.041785021565479</v>
       </c>
       <c r="J22">
-        <v>1.022737662799243</v>
+        <v>1.023184746981727</v>
       </c>
       <c r="K22">
-        <v>1.030205141002488</v>
+        <v>1.03038071157198</v>
       </c>
       <c r="L22">
-        <v>1.024260387083348</v>
+        <v>1.024628902767025</v>
       </c>
       <c r="M22">
-        <v>1.031543190421937</v>
+        <v>1.031806639194613</v>
       </c>
       <c r="N22">
-        <v>1.011442562209661</v>
+        <v>1.014096762242178</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.033536675709906</v>
+        <v>1.033745179758931</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03249656319982</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032636259475739</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020626739822163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9929584101367784</v>
+        <v>0.9933419798619004</v>
       </c>
       <c r="D23">
-        <v>1.015758735544887</v>
+        <v>1.015850353409087</v>
       </c>
       <c r="E23">
-        <v>1.009907829342847</v>
+        <v>1.010216360444664</v>
       </c>
       <c r="F23">
-        <v>1.017370237876071</v>
+        <v>1.017590620600546</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.041896045830409</v>
+        <v>1.042020314040982</v>
       </c>
       <c r="J23">
-        <v>1.023343727890331</v>
+        <v>1.023710561463663</v>
       </c>
       <c r="K23">
-        <v>1.030718605901244</v>
+        <v>1.030808522100511</v>
       </c>
       <c r="L23">
-        <v>1.024977207046898</v>
+        <v>1.025279922196057</v>
       </c>
       <c r="M23">
-        <v>1.032300235279494</v>
+        <v>1.032516542283671</v>
       </c>
       <c r="N23">
-        <v>1.011647162187832</v>
+        <v>1.01406262494228</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034135831563455</v>
+        <v>1.034307025562725</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032849951000442</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032928143617846</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020706488458088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9981251484827849</v>
+        <v>0.9982289831535723</v>
       </c>
       <c r="D24">
-        <v>1.019016232082596</v>
+        <v>1.018804921784392</v>
       </c>
       <c r="E24">
-        <v>1.013975019077357</v>
+        <v>1.014061894035978</v>
       </c>
       <c r="F24">
-        <v>1.021584939233877</v>
+        <v>1.021646884425766</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042984018263665</v>
+        <v>1.042946368947806</v>
       </c>
       <c r="J24">
-        <v>1.025695560781559</v>
+        <v>1.025795377772879</v>
       </c>
       <c r="K24">
-        <v>1.032717433043115</v>
+        <v>1.03250965818692</v>
       </c>
       <c r="L24">
-        <v>1.027761083304902</v>
+        <v>1.027846486598258</v>
       </c>
       <c r="M24">
-        <v>1.035243313649297</v>
+        <v>1.035304229489896</v>
       </c>
       <c r="N24">
-        <v>1.012442329390881</v>
+        <v>1.014122610332924</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036465097731011</v>
+        <v>1.036513308804795</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034255707309371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034122663591109</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021024941758309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003939220777555</v>
+        <v>1.003862280063757</v>
       </c>
       <c r="D25">
-        <v>1.022702284450787</v>
+        <v>1.022246768473494</v>
       </c>
       <c r="E25">
-        <v>1.01858098039698</v>
+        <v>1.018526103119542</v>
       </c>
       <c r="F25">
-        <v>1.026369433211214</v>
+        <v>1.026330379787158</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044175787393239</v>
+        <v>1.044019149423087</v>
       </c>
       <c r="J25">
-        <v>1.028334737806709</v>
+        <v>1.028260358545184</v>
       </c>
       <c r="K25">
-        <v>1.034958109991474</v>
+        <v>1.034509276117101</v>
       </c>
       <c r="L25">
-        <v>1.030897539098107</v>
+        <v>1.030843474727684</v>
       </c>
       <c r="M25">
-        <v>1.038571738236709</v>
+        <v>1.038533252226203</v>
       </c>
       <c r="N25">
-        <v>1.013334599557729</v>
+        <v>1.014737307465788</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039099332613257</v>
+        <v>1.039068873456367</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035837121020693</v>
+        <v>1.035533331660876</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021399532298097</v>
       </c>
     </row>
   </sheetData>
